--- a/templates/fomio_template.xlsx
+++ b/templates/fomio_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB7FB68-2E11-47E4-B25C-F5BF5D21C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADAAB66-2BA9-40B2-BB63-F36CC3359D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27E25635-F42A-414C-A4E2-ABF29B0A25C2}"/>
   </bookViews>
@@ -3556,9 +3556,9 @@
   </sheetPr>
   <dimension ref="A1:BP105"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK18" sqref="AK18:AK92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -3904,10 +3904,7 @@
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="52"/>
-      <c r="AK15" s="37">
-        <f>COUNTIF(F15:AJ15,"N")</f>
-        <v>0</v>
-      </c>
+      <c r="AK15" s="37"/>
     </row>
     <row r="16" spans="3:37">
       <c r="C16" s="60"/>
@@ -3944,10 +3941,7 @@
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="53"/>
-      <c r="AK16" s="63">
-        <f>COUNTIF(F16:AJ16,"N")</f>
-        <v>0</v>
-      </c>
+      <c r="AK16" s="63"/>
     </row>
     <row r="17" spans="3:68">
       <c r="C17" s="67" t="s">
@@ -4023,10 +4017,7 @@
       <c r="AH18" s="64"/>
       <c r="AI18" s="64"/>
       <c r="AJ18" s="65"/>
-      <c r="AK18" s="66">
-        <f>COUNTIF(F18:AJ18,"PD")+COUNTIF(F18:AJ18,"PN")+COUNTIF(F18:AJ18,"PT")*2+COUNTIF(F18:AJ18,"EP")</f>
-        <v>0</v>
-      </c>
+      <c r="AK18" s="66"/>
       <c r="AL18" t="b">
         <f t="array" ref="AL18:BP18">IF(F18:AJ18=0,F18:AJ18="","")</f>
         <v>1</v>
@@ -4157,10 +4148,7 @@
       <c r="AH19" s="14"/>
       <c r="AI19" s="14"/>
       <c r="AJ19" s="35"/>
-      <c r="AK19" s="37">
-        <f>COUNTIF(F19:AJ19,"PD")+COUNTIF(F19:AJ19,"PN")+COUNTIF(F19:AJ19,"PT")*2+COUNTIF(F19:AJ19,"EP")</f>
-        <v>0</v>
-      </c>
+      <c r="AK19" s="37"/>
     </row>
     <row r="20" spans="3:68" hidden="1">
       <c r="C20" s="81"/>
@@ -4197,10 +4185,7 @@
       <c r="AH20" s="14"/>
       <c r="AI20" s="14"/>
       <c r="AJ20" s="35"/>
-      <c r="AK20" s="37">
-        <f t="shared" ref="AK20:AK83" si="0">COUNTIF(F20:AJ20,"PD")+COUNTIF(F20:AJ20,"PN")+COUNTIF(F20:AJ20,"PT")*2+COUNTIF(F20:AJ20,"EP")</f>
-        <v>0</v>
-      </c>
+      <c r="AK20" s="37"/>
     </row>
     <row r="21" spans="3:68">
       <c r="C21" s="81"/>
@@ -4237,10 +4222,7 @@
       <c r="AH21" s="14"/>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="35"/>
-      <c r="AK21" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK21" s="37"/>
     </row>
     <row r="22" spans="3:68">
       <c r="C22" s="81"/>
@@ -4277,10 +4259,7 @@
       <c r="AH22" s="14"/>
       <c r="AI22" s="14"/>
       <c r="AJ22" s="35"/>
-      <c r="AK22" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK22" s="37"/>
     </row>
     <row r="23" spans="3:68">
       <c r="C23" s="81"/>
@@ -4317,10 +4296,7 @@
       <c r="AH23" s="14"/>
       <c r="AI23" s="14"/>
       <c r="AJ23" s="35"/>
-      <c r="AK23" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK23" s="37"/>
     </row>
     <row r="24" spans="3:68">
       <c r="C24" s="81"/>
@@ -4357,10 +4333,7 @@
       <c r="AH24" s="14"/>
       <c r="AI24" s="14"/>
       <c r="AJ24" s="35"/>
-      <c r="AK24" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK24" s="37"/>
     </row>
     <row r="25" spans="3:68">
       <c r="C25" s="81"/>
@@ -4397,10 +4370,7 @@
       <c r="AH25" s="14"/>
       <c r="AI25" s="14"/>
       <c r="AJ25" s="35"/>
-      <c r="AK25" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK25" s="37"/>
     </row>
     <row r="26" spans="3:68">
       <c r="C26" s="81"/>
@@ -4437,10 +4407,7 @@
       <c r="AH26" s="14"/>
       <c r="AI26" s="14"/>
       <c r="AJ26" s="35"/>
-      <c r="AK26" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK26" s="37"/>
     </row>
     <row r="27" spans="3:68">
       <c r="C27" s="81"/>
@@ -4477,10 +4444,7 @@
       <c r="AH27" s="14"/>
       <c r="AI27" s="14"/>
       <c r="AJ27" s="35"/>
-      <c r="AK27" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK27" s="37"/>
     </row>
     <row r="28" spans="3:68">
       <c r="C28" s="81"/>
@@ -4517,10 +4481,7 @@
       <c r="AH28" s="14"/>
       <c r="AI28" s="14"/>
       <c r="AJ28" s="35"/>
-      <c r="AK28" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK28" s="37"/>
     </row>
     <row r="29" spans="3:68">
       <c r="C29" s="81"/>
@@ -4557,10 +4518,7 @@
       <c r="AH29" s="14"/>
       <c r="AI29" s="14"/>
       <c r="AJ29" s="35"/>
-      <c r="AK29" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK29" s="37"/>
     </row>
     <row r="30" spans="3:68">
       <c r="C30" s="81"/>
@@ -4597,10 +4555,7 @@
       <c r="AH30" s="14"/>
       <c r="AI30" s="14"/>
       <c r="AJ30" s="35"/>
-      <c r="AK30" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK30" s="37"/>
     </row>
     <row r="31" spans="3:68">
       <c r="C31" s="81"/>
@@ -4637,10 +4592,7 @@
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="35"/>
-      <c r="AK31" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK31" s="37"/>
     </row>
     <row r="32" spans="3:68">
       <c r="C32" s="81"/>
@@ -4677,10 +4629,7 @@
       <c r="AH32" s="14"/>
       <c r="AI32" s="14"/>
       <c r="AJ32" s="35"/>
-      <c r="AK32" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK32" s="37"/>
     </row>
     <row r="33" spans="3:37">
       <c r="C33" s="81"/>
@@ -4717,10 +4666,7 @@
       <c r="AH33" s="14"/>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="35"/>
-      <c r="AK33" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK33" s="37"/>
     </row>
     <row r="34" spans="3:37">
       <c r="C34" s="81"/>
@@ -4757,10 +4703,7 @@
       <c r="AH34" s="14"/>
       <c r="AI34" s="14"/>
       <c r="AJ34" s="35"/>
-      <c r="AK34" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK34" s="37"/>
     </row>
     <row r="35" spans="3:37">
       <c r="C35" s="81"/>
@@ -4797,10 +4740,7 @@
       <c r="AH35" s="14"/>
       <c r="AI35" s="14"/>
       <c r="AJ35" s="35"/>
-      <c r="AK35" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK35" s="37"/>
     </row>
     <row r="36" spans="3:37">
       <c r="C36" s="81"/>
@@ -4837,10 +4777,7 @@
       <c r="AH36" s="14"/>
       <c r="AI36" s="14"/>
       <c r="AJ36" s="35"/>
-      <c r="AK36" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK36" s="37"/>
     </row>
     <row r="37" spans="3:37">
       <c r="C37" s="81"/>
@@ -4877,10 +4814,7 @@
       <c r="AH37" s="14"/>
       <c r="AI37" s="14"/>
       <c r="AJ37" s="35"/>
-      <c r="AK37" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK37" s="37"/>
     </row>
     <row r="38" spans="3:37">
       <c r="C38" s="81"/>
@@ -4917,10 +4851,7 @@
       <c r="AH38" s="14"/>
       <c r="AI38" s="14"/>
       <c r="AJ38" s="35"/>
-      <c r="AK38" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK38" s="37"/>
     </row>
     <row r="39" spans="3:37">
       <c r="C39" s="81"/>
@@ -4957,10 +4888,7 @@
       <c r="AH39" s="14"/>
       <c r="AI39" s="14"/>
       <c r="AJ39" s="35"/>
-      <c r="AK39" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK39" s="37"/>
     </row>
     <row r="40" spans="3:37">
       <c r="C40" s="81"/>
@@ -4997,10 +4925,7 @@
       <c r="AH40" s="14"/>
       <c r="AI40" s="14"/>
       <c r="AJ40" s="35"/>
-      <c r="AK40" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK40" s="37"/>
     </row>
     <row r="41" spans="3:37">
       <c r="C41" s="81"/>
@@ -5037,10 +4962,7 @@
       <c r="AH41" s="14"/>
       <c r="AI41" s="14"/>
       <c r="AJ41" s="35"/>
-      <c r="AK41" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK41" s="37"/>
     </row>
     <row r="42" spans="3:37">
       <c r="C42" s="81"/>
@@ -5077,10 +4999,7 @@
       <c r="AH42" s="14"/>
       <c r="AI42" s="14"/>
       <c r="AJ42" s="35"/>
-      <c r="AK42" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK42" s="37"/>
     </row>
     <row r="43" spans="3:37">
       <c r="C43" s="81"/>
@@ -5117,10 +5036,7 @@
       <c r="AH43" s="14"/>
       <c r="AI43" s="14"/>
       <c r="AJ43" s="35"/>
-      <c r="AK43" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK43" s="37"/>
     </row>
     <row r="44" spans="3:37" hidden="1">
       <c r="C44" s="81"/>
@@ -5157,10 +5073,7 @@
       <c r="AH44" s="14"/>
       <c r="AI44" s="14"/>
       <c r="AJ44" s="35"/>
-      <c r="AK44" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK44" s="37"/>
     </row>
     <row r="45" spans="3:37">
       <c r="C45" s="81"/>
@@ -5197,10 +5110,7 @@
       <c r="AH45" s="14"/>
       <c r="AI45" s="14"/>
       <c r="AJ45" s="35"/>
-      <c r="AK45" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK45" s="37"/>
     </row>
     <row r="46" spans="3:37">
       <c r="C46" s="81"/>
@@ -5237,10 +5147,7 @@
       <c r="AH46" s="14"/>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="35"/>
-      <c r="AK46" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK46" s="37"/>
     </row>
     <row r="47" spans="3:37">
       <c r="C47" s="81"/>
@@ -5277,10 +5184,7 @@
       <c r="AH47" s="14"/>
       <c r="AI47" s="14"/>
       <c r="AJ47" s="35"/>
-      <c r="AK47" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK47" s="37"/>
     </row>
     <row r="48" spans="3:37">
       <c r="C48" s="81"/>
@@ -5317,10 +5221,7 @@
       <c r="AH48" s="14"/>
       <c r="AI48" s="14"/>
       <c r="AJ48" s="35"/>
-      <c r="AK48" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK48" s="37"/>
     </row>
     <row r="49" spans="3:37">
       <c r="C49" s="81"/>
@@ -5357,10 +5258,7 @@
       <c r="AH49" s="14"/>
       <c r="AI49" s="14"/>
       <c r="AJ49" s="35"/>
-      <c r="AK49" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK49" s="37"/>
     </row>
     <row r="50" spans="3:37">
       <c r="C50" s="81"/>
@@ -5397,10 +5295,7 @@
       <c r="AH50" s="14"/>
       <c r="AI50" s="14"/>
       <c r="AJ50" s="35"/>
-      <c r="AK50" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK50" s="37"/>
     </row>
     <row r="51" spans="3:37">
       <c r="C51" s="81"/>
@@ -5437,10 +5332,7 @@
       <c r="AH51" s="14"/>
       <c r="AI51" s="14"/>
       <c r="AJ51" s="35"/>
-      <c r="AK51" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK51" s="37"/>
     </row>
     <row r="52" spans="3:37">
       <c r="C52" s="81"/>
@@ -5477,10 +5369,7 @@
       <c r="AH52" s="14"/>
       <c r="AI52" s="14"/>
       <c r="AJ52" s="35"/>
-      <c r="AK52" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK52" s="37"/>
     </row>
     <row r="53" spans="3:37">
       <c r="C53" s="81"/>
@@ -5517,10 +5406,7 @@
       <c r="AH53" s="14"/>
       <c r="AI53" s="14"/>
       <c r="AJ53" s="35"/>
-      <c r="AK53" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK53" s="37"/>
     </row>
     <row r="54" spans="3:37">
       <c r="C54" s="81"/>
@@ -5557,10 +5443,7 @@
       <c r="AH54" s="14"/>
       <c r="AI54" s="14"/>
       <c r="AJ54" s="35"/>
-      <c r="AK54" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK54" s="37"/>
     </row>
     <row r="55" spans="3:37">
       <c r="C55" s="81"/>
@@ -5597,10 +5480,7 @@
       <c r="AH55" s="14"/>
       <c r="AI55" s="14"/>
       <c r="AJ55" s="35"/>
-      <c r="AK55" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK55" s="37"/>
     </row>
     <row r="56" spans="3:37">
       <c r="C56" s="81"/>
@@ -5637,10 +5517,7 @@
       <c r="AH56" s="14"/>
       <c r="AI56" s="14"/>
       <c r="AJ56" s="35"/>
-      <c r="AK56" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK56" s="37"/>
     </row>
     <row r="57" spans="3:37">
       <c r="C57" s="81"/>
@@ -5677,10 +5554,7 @@
       <c r="AH57" s="14"/>
       <c r="AI57" s="14"/>
       <c r="AJ57" s="35"/>
-      <c r="AK57" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK57" s="37"/>
     </row>
     <row r="58" spans="3:37">
       <c r="C58" s="81"/>
@@ -5717,10 +5591,7 @@
       <c r="AH58" s="14"/>
       <c r="AI58" s="14"/>
       <c r="AJ58" s="35"/>
-      <c r="AK58" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK58" s="37"/>
     </row>
     <row r="59" spans="3:37">
       <c r="C59" s="81"/>
@@ -5757,10 +5628,7 @@
       <c r="AH59" s="14"/>
       <c r="AI59" s="14"/>
       <c r="AJ59" s="35"/>
-      <c r="AK59" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK59" s="37"/>
     </row>
     <row r="60" spans="3:37">
       <c r="C60" s="81"/>
@@ -5797,10 +5665,7 @@
       <c r="AH60" s="14"/>
       <c r="AI60" s="14"/>
       <c r="AJ60" s="35"/>
-      <c r="AK60" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK60" s="37"/>
     </row>
     <row r="61" spans="3:37">
       <c r="C61" s="81"/>
@@ -5837,10 +5702,7 @@
       <c r="AH61" s="14"/>
       <c r="AI61" s="14"/>
       <c r="AJ61" s="35"/>
-      <c r="AK61" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK61" s="37"/>
     </row>
     <row r="62" spans="3:37">
       <c r="C62" s="81"/>
@@ -5877,10 +5739,7 @@
       <c r="AH62" s="14"/>
       <c r="AI62" s="14"/>
       <c r="AJ62" s="35"/>
-      <c r="AK62" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK62" s="37"/>
     </row>
     <row r="63" spans="3:37">
       <c r="C63" s="81"/>
@@ -5917,10 +5776,7 @@
       <c r="AH63" s="14"/>
       <c r="AI63" s="14"/>
       <c r="AJ63" s="35"/>
-      <c r="AK63" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK63" s="37"/>
     </row>
     <row r="64" spans="3:37">
       <c r="C64" s="81"/>
@@ -5957,10 +5813,7 @@
       <c r="AH64" s="14"/>
       <c r="AI64" s="14"/>
       <c r="AJ64" s="35"/>
-      <c r="AK64" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK64" s="37"/>
     </row>
     <row r="65" spans="3:37">
       <c r="C65" s="81"/>
@@ -5997,10 +5850,7 @@
       <c r="AH65" s="14"/>
       <c r="AI65" s="14"/>
       <c r="AJ65" s="35"/>
-      <c r="AK65" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK65" s="37"/>
     </row>
     <row r="66" spans="3:37">
       <c r="C66" s="81"/>
@@ -6037,10 +5887,7 @@
       <c r="AH66" s="14"/>
       <c r="AI66" s="14"/>
       <c r="AJ66" s="35"/>
-      <c r="AK66" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK66" s="37"/>
     </row>
     <row r="67" spans="3:37">
       <c r="C67" s="81"/>
@@ -6077,10 +5924,7 @@
       <c r="AH67" s="14"/>
       <c r="AI67" s="14"/>
       <c r="AJ67" s="35"/>
-      <c r="AK67" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK67" s="37"/>
     </row>
     <row r="68" spans="3:37">
       <c r="C68" s="81"/>
@@ -6117,10 +5961,7 @@
       <c r="AH68" s="14"/>
       <c r="AI68" s="14"/>
       <c r="AJ68" s="35"/>
-      <c r="AK68" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK68" s="37"/>
     </row>
     <row r="69" spans="3:37">
       <c r="C69" s="81"/>
@@ -6157,10 +5998,7 @@
       <c r="AH69" s="14"/>
       <c r="AI69" s="14"/>
       <c r="AJ69" s="35"/>
-      <c r="AK69" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK69" s="37"/>
     </row>
     <row r="70" spans="3:37">
       <c r="C70" s="81"/>
@@ -6197,10 +6035,7 @@
       <c r="AH70" s="14"/>
       <c r="AI70" s="14"/>
       <c r="AJ70" s="35"/>
-      <c r="AK70" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK70" s="37"/>
     </row>
     <row r="71" spans="3:37">
       <c r="C71" s="81"/>
@@ -6237,10 +6072,7 @@
       <c r="AH71" s="14"/>
       <c r="AI71" s="14"/>
       <c r="AJ71" s="35"/>
-      <c r="AK71" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK71" s="37"/>
     </row>
     <row r="72" spans="3:37">
       <c r="C72" s="81"/>
@@ -6277,10 +6109,7 @@
       <c r="AH72" s="14"/>
       <c r="AI72" s="14"/>
       <c r="AJ72" s="35"/>
-      <c r="AK72" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK72" s="37"/>
     </row>
     <row r="73" spans="3:37">
       <c r="C73" s="81"/>
@@ -6317,10 +6146,7 @@
       <c r="AH73" s="14"/>
       <c r="AI73" s="14"/>
       <c r="AJ73" s="35"/>
-      <c r="AK73" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK73" s="37"/>
     </row>
     <row r="74" spans="3:37">
       <c r="C74" s="81"/>
@@ -6357,10 +6183,7 @@
       <c r="AH74" s="14"/>
       <c r="AI74" s="14"/>
       <c r="AJ74" s="35"/>
-      <c r="AK74" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK74" s="37"/>
     </row>
     <row r="75" spans="3:37">
       <c r="C75" s="81"/>
@@ -6397,10 +6220,7 @@
       <c r="AH75" s="14"/>
       <c r="AI75" s="14"/>
       <c r="AJ75" s="35"/>
-      <c r="AK75" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK75" s="37"/>
     </row>
     <row r="76" spans="3:37">
       <c r="C76" s="81"/>
@@ -6437,10 +6257,7 @@
       <c r="AH76" s="14"/>
       <c r="AI76" s="14"/>
       <c r="AJ76" s="35"/>
-      <c r="AK76" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK76" s="37"/>
     </row>
     <row r="77" spans="3:37">
       <c r="C77" s="81"/>
@@ -6477,10 +6294,7 @@
       <c r="AH77" s="14"/>
       <c r="AI77" s="14"/>
       <c r="AJ77" s="35"/>
-      <c r="AK77" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK77" s="37"/>
     </row>
     <row r="78" spans="3:37">
       <c r="C78" s="81"/>
@@ -6517,10 +6331,7 @@
       <c r="AH78" s="14"/>
       <c r="AI78" s="14"/>
       <c r="AJ78" s="35"/>
-      <c r="AK78" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK78" s="37"/>
     </row>
     <row r="79" spans="3:37">
       <c r="C79" s="81"/>
@@ -6557,10 +6368,7 @@
       <c r="AH79" s="14"/>
       <c r="AI79" s="14"/>
       <c r="AJ79" s="35"/>
-      <c r="AK79" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK79" s="37"/>
     </row>
     <row r="80" spans="3:37">
       <c r="C80" s="81"/>
@@ -6597,10 +6405,7 @@
       <c r="AH80" s="14"/>
       <c r="AI80" s="14"/>
       <c r="AJ80" s="35"/>
-      <c r="AK80" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK80" s="37"/>
     </row>
     <row r="81" spans="3:37">
       <c r="C81" s="81"/>
@@ -6637,10 +6442,7 @@
       <c r="AH81" s="14"/>
       <c r="AI81" s="14"/>
       <c r="AJ81" s="35"/>
-      <c r="AK81" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK81" s="37"/>
     </row>
     <row r="82" spans="3:37">
       <c r="C82" s="81"/>
@@ -6677,10 +6479,7 @@
       <c r="AH82" s="14"/>
       <c r="AI82" s="14"/>
       <c r="AJ82" s="35"/>
-      <c r="AK82" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK82" s="37"/>
     </row>
     <row r="83" spans="3:37">
       <c r="C83" s="81"/>
@@ -6717,10 +6516,7 @@
       <c r="AH83" s="14"/>
       <c r="AI83" s="14"/>
       <c r="AJ83" s="35"/>
-      <c r="AK83" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AK83" s="37"/>
     </row>
     <row r="84" spans="3:37">
       <c r="C84" s="81"/>
@@ -6757,10 +6553,7 @@
       <c r="AH84" s="14"/>
       <c r="AI84" s="14"/>
       <c r="AJ84" s="35"/>
-      <c r="AK84" s="37">
-        <f t="shared" ref="AK84:AK89" si="1">COUNTIF(F84:AJ84,"PD")+COUNTIF(F84:AJ84,"PN")+COUNTIF(F84:AJ84,"PT")*2+COUNTIF(F84:AJ84,"EP")</f>
-        <v>0</v>
-      </c>
+      <c r="AK84" s="37"/>
     </row>
     <row r="85" spans="3:37">
       <c r="C85" s="81"/>
@@ -6797,10 +6590,7 @@
       <c r="AH85" s="14"/>
       <c r="AI85" s="14"/>
       <c r="AJ85" s="35"/>
-      <c r="AK85" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AK85" s="37"/>
     </row>
     <row r="86" spans="3:37">
       <c r="C86" s="81"/>
@@ -6837,10 +6627,7 @@
       <c r="AH86" s="14"/>
       <c r="AI86" s="14"/>
       <c r="AJ86" s="35"/>
-      <c r="AK86" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AK86" s="37"/>
     </row>
     <row r="87" spans="3:37">
       <c r="C87" s="81"/>
@@ -6877,10 +6664,7 @@
       <c r="AH87" s="14"/>
       <c r="AI87" s="14"/>
       <c r="AJ87" s="35"/>
-      <c r="AK87" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AK87" s="37"/>
     </row>
     <row r="88" spans="3:37">
       <c r="C88" s="81"/>
@@ -6917,10 +6701,7 @@
       <c r="AH88" s="14"/>
       <c r="AI88" s="14"/>
       <c r="AJ88" s="35"/>
-      <c r="AK88" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AK88" s="37"/>
     </row>
     <row r="89" spans="3:37">
       <c r="C89" s="81"/>
@@ -6957,10 +6738,7 @@
       <c r="AH89" s="14"/>
       <c r="AI89" s="14"/>
       <c r="AJ89" s="35"/>
-      <c r="AK89" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AK89" s="37"/>
     </row>
     <row r="90" spans="3:37">
       <c r="C90" s="50"/>
@@ -6997,10 +6775,7 @@
       <c r="AH90" s="86"/>
       <c r="AI90" s="86"/>
       <c r="AJ90" s="87"/>
-      <c r="AK90" s="38">
-        <f>COUNTIF(F90:AJ90,"PD")+COUNTIF(F90:AJ90,"PN")+COUNTIF(F90:AJ90,"PT")*2+COUNTIF(F90:AJ90,"EP")</f>
-        <v>0</v>
-      </c>
+      <c r="AK90" s="38"/>
     </row>
     <row r="91" spans="3:37" ht="3.75" customHeight="1">
       <c r="C91" s="75"/>
@@ -7050,115 +6825,115 @@
         <v>0</v>
       </c>
       <c r="H92" s="91">
-        <f t="shared" ref="H92:AI92" si="2">COUNTIFS(H18:H90,"PD")+COUNTIFS(H18:H90,"PN")+COUNTIFS(H18:H90,"PT")*2+COUNTIFS(H18:H90,"EP")</f>
+        <f t="shared" ref="H92:AI92" si="0">COUNTIFS(H18:H90,"PD")+COUNTIFS(H18:H90,"PN")+COUNTIFS(H18:H90,"PT")*2+COUNTIFS(H18:H90,"EP")</f>
         <v>0</v>
       </c>
       <c r="I92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI92" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ92" s="92">

--- a/templates/fomio_template.xlsx
+++ b/templates/fomio_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Martins\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC17AF1-9C30-4C92-B5ED-793150C28F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFAB5DC-DE3D-4A3C-A434-76BA62DE9FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F24CC36B-B49E-40ED-906B-853EB2E37C31}"/>
   </bookViews>
@@ -1424,6 +1424,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,141 +1611,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2076,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3028F345-7C56-4784-9FD4-3DA609409DA1}">
   <dimension ref="A1:AL103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" activeCellId="1" sqref="C15:AK16 C18:AK90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A90" sqref="A78:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -2104,128 +2104,128 @@
     </row>
     <row r="5" spans="3:37"/>
     <row r="6" spans="3:37">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="75"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
     </row>
     <row r="7" spans="3:37">
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
     </row>
     <row r="8" spans="3:37" ht="3.75" customHeight="1"/>
     <row r="9" spans="3:37" ht="18.75">
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="76"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
     </row>
     <row r="10" spans="3:37" ht="3.75" customHeight="1"/>
     <row r="11" spans="3:37">
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="77" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="37"/>
@@ -2259,14 +2259,14 @@
       <c r="AH11" s="38"/>
       <c r="AI11" s="38"/>
       <c r="AJ11" s="38"/>
-      <c r="AK11" s="83" t="s">
+      <c r="AK11" s="79" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:37">
-      <c r="C12" s="78"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="82"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2298,46 +2298,46 @@
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="84"/>
+      <c r="AK12" s="80"/>
     </row>
     <row r="13" spans="3:37">
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="68"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="85"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="85"/>
+      <c r="AI13" s="85"/>
+      <c r="AJ13" s="85"/>
+      <c r="AK13" s="86"/>
     </row>
     <row r="14" spans="3:37" hidden="1">
       <c r="C14" s="39"/>
@@ -2377,122 +2377,122 @@
       <c r="AK14" s="40"/>
     </row>
     <row r="15" spans="3:37">
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="87"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="49"/>
       <c r="AK15" s="41"/>
     </row>
     <row r="16" spans="3:37">
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="88"/>
-      <c r="AJ16" s="89"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="51"/>
       <c r="AK16" s="41"/>
     </row>
     <row r="17" spans="3:38">
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="85"/>
-      <c r="AE17" s="85"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="85"/>
-      <c r="AK17" s="68"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="86"/>
     </row>
     <row r="18" spans="3:38">
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -2531,9 +2531,9 @@
       </c>
     </row>
     <row r="19" spans="3:38">
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -2568,9 +2568,9 @@
       <c r="AK19" s="40"/>
     </row>
     <row r="20" spans="3:38">
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -2605,9 +2605,9 @@
       <c r="AK20" s="40"/>
     </row>
     <row r="21" spans="3:38">
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="105"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -2642,9 +2642,9 @@
       <c r="AK21" s="40"/>
     </row>
     <row r="22" spans="3:38">
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="105"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -2679,9 +2679,9 @@
       <c r="AK22" s="40"/>
     </row>
     <row r="23" spans="3:38">
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -2716,9 +2716,9 @@
       <c r="AK23" s="40"/>
     </row>
     <row r="24" spans="3:38">
-      <c r="C24" s="103"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="105"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -2753,9 +2753,9 @@
       <c r="AK24" s="40"/>
     </row>
     <row r="25" spans="3:38">
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -2790,9 +2790,9 @@
       <c r="AK25" s="40"/>
     </row>
     <row r="26" spans="3:38">
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -2827,9 +2827,9 @@
       <c r="AK26" s="40"/>
     </row>
     <row r="27" spans="3:38">
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -2864,9 +2864,9 @@
       <c r="AK27" s="40"/>
     </row>
     <row r="28" spans="3:38">
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -2901,9 +2901,9 @@
       <c r="AK28" s="40"/>
     </row>
     <row r="29" spans="3:38">
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -2938,9 +2938,9 @@
       <c r="AK29" s="40"/>
     </row>
     <row r="30" spans="3:38">
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -2975,9 +2975,9 @@
       <c r="AK30" s="40"/>
     </row>
     <row r="31" spans="3:38">
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="105"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -3012,9 +3012,9 @@
       <c r="AK31" s="40"/>
     </row>
     <row r="32" spans="3:38">
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -3049,9 +3049,9 @@
       <c r="AK32" s="40"/>
     </row>
     <row r="33" spans="3:37">
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="105"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -3086,9 +3086,9 @@
       <c r="AK33" s="40"/>
     </row>
     <row r="34" spans="3:37">
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="105"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -3123,9 +3123,9 @@
       <c r="AK34" s="40"/>
     </row>
     <row r="35" spans="3:37">
-      <c r="C35" s="103"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -3160,9 +3160,9 @@
       <c r="AK35" s="40"/>
     </row>
     <row r="36" spans="3:37">
-      <c r="C36" s="103"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -3197,9 +3197,9 @@
       <c r="AK36" s="40"/>
     </row>
     <row r="37" spans="3:37">
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="105"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -3234,9 +3234,9 @@
       <c r="AK37" s="40"/>
     </row>
     <row r="38" spans="3:37">
-      <c r="C38" s="103"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="105"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -3271,9 +3271,9 @@
       <c r="AK38" s="40"/>
     </row>
     <row r="39" spans="3:37">
-      <c r="C39" s="103"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="105"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -3308,9 +3308,9 @@
       <c r="AK39" s="40"/>
     </row>
     <row r="40" spans="3:37">
-      <c r="C40" s="103"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="105"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -3345,9 +3345,9 @@
       <c r="AK40" s="40"/>
     </row>
     <row r="41" spans="3:37">
-      <c r="C41" s="103"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="105"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -3382,9 +3382,9 @@
       <c r="AK41" s="40"/>
     </row>
     <row r="42" spans="3:37">
-      <c r="C42" s="103"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="105"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -3419,9 +3419,9 @@
       <c r="AK42" s="40"/>
     </row>
     <row r="43" spans="3:37">
-      <c r="C43" s="103"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="105"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -3456,9 +3456,9 @@
       <c r="AK43" s="40"/>
     </row>
     <row r="44" spans="3:37">
-      <c r="C44" s="103"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="105"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -3493,9 +3493,9 @@
       <c r="AK44" s="40"/>
     </row>
     <row r="45" spans="3:37">
-      <c r="C45" s="103"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -3530,9 +3530,9 @@
       <c r="AK45" s="40"/>
     </row>
     <row r="46" spans="3:37">
-      <c r="C46" s="103"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="105"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -3567,9 +3567,9 @@
       <c r="AK46" s="40"/>
     </row>
     <row r="47" spans="3:37">
-      <c r="C47" s="103"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -3604,9 +3604,9 @@
       <c r="AK47" s="40"/>
     </row>
     <row r="48" spans="3:37">
-      <c r="C48" s="103"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -3641,9 +3641,9 @@
       <c r="AK48" s="40"/>
     </row>
     <row r="49" spans="3:37">
-      <c r="C49" s="103"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="105"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -3678,9 +3678,9 @@
       <c r="AK49" s="40"/>
     </row>
     <row r="50" spans="3:37">
-      <c r="C50" s="103"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="105"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -3715,9 +3715,9 @@
       <c r="AK50" s="40"/>
     </row>
     <row r="51" spans="3:37">
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="105"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -3752,9 +3752,9 @@
       <c r="AK51" s="40"/>
     </row>
     <row r="52" spans="3:37">
-      <c r="C52" s="103"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="105"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -3789,9 +3789,9 @@
       <c r="AK52" s="40"/>
     </row>
     <row r="53" spans="3:37">
-      <c r="C53" s="103"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="105"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -3826,9 +3826,9 @@
       <c r="AK53" s="40"/>
     </row>
     <row r="54" spans="3:37">
-      <c r="C54" s="103"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="105"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="67"/>
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -3863,9 +3863,9 @@
       <c r="AK54" s="40"/>
     </row>
     <row r="55" spans="3:37">
-      <c r="C55" s="103"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="105"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="67"/>
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -3900,9 +3900,9 @@
       <c r="AK55" s="40"/>
     </row>
     <row r="56" spans="3:37">
-      <c r="C56" s="103"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="105"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="67"/>
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -3937,9 +3937,9 @@
       <c r="AK56" s="40"/>
     </row>
     <row r="57" spans="3:37">
-      <c r="C57" s="103"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="105"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -3974,9 +3974,9 @@
       <c r="AK57" s="40"/>
     </row>
     <row r="58" spans="3:37">
-      <c r="C58" s="103"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="105"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67"/>
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -4011,9 +4011,9 @@
       <c r="AK58" s="40"/>
     </row>
     <row r="59" spans="3:37">
-      <c r="C59" s="103"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="105"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="67"/>
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -4048,9 +4048,9 @@
       <c r="AK59" s="40"/>
     </row>
     <row r="60" spans="3:37">
-      <c r="C60" s="103"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="105"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="67"/>
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -4085,9 +4085,9 @@
       <c r="AK60" s="40"/>
     </row>
     <row r="61" spans="3:37">
-      <c r="C61" s="103"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="105"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -4122,9 +4122,9 @@
       <c r="AK61" s="40"/>
     </row>
     <row r="62" spans="3:37">
-      <c r="C62" s="103"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="105"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="67"/>
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -4159,9 +4159,9 @@
       <c r="AK62" s="40"/>
     </row>
     <row r="63" spans="3:37">
-      <c r="C63" s="103"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="105"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -4196,9 +4196,9 @@
       <c r="AK63" s="40"/>
     </row>
     <row r="64" spans="3:37">
-      <c r="C64" s="103"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="105"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="67"/>
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -4233,9 +4233,9 @@
       <c r="AK64" s="40"/>
     </row>
     <row r="65" spans="3:37">
-      <c r="C65" s="103"/>
-      <c r="D65" s="104"/>
-      <c r="E65" s="105"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="67"/>
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -4270,9 +4270,9 @@
       <c r="AK65" s="40"/>
     </row>
     <row r="66" spans="3:37">
-      <c r="C66" s="103"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="105"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="67"/>
       <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -4307,9 +4307,9 @@
       <c r="AK66" s="40"/>
     </row>
     <row r="67" spans="3:37">
-      <c r="C67" s="103"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="105"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="67"/>
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -4344,9 +4344,9 @@
       <c r="AK67" s="40"/>
     </row>
     <row r="68" spans="3:37">
-      <c r="C68" s="103"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="105"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="67"/>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -4381,9 +4381,9 @@
       <c r="AK68" s="40"/>
     </row>
     <row r="69" spans="3:37">
-      <c r="C69" s="103"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="105"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="67"/>
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -4418,9 +4418,9 @@
       <c r="AK69" s="40"/>
     </row>
     <row r="70" spans="3:37">
-      <c r="C70" s="103"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="105"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="67"/>
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -4455,9 +4455,9 @@
       <c r="AK70" s="40"/>
     </row>
     <row r="71" spans="3:37">
-      <c r="C71" s="103"/>
-      <c r="D71" s="104"/>
-      <c r="E71" s="105"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="67"/>
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -4492,9 +4492,9 @@
       <c r="AK71" s="40"/>
     </row>
     <row r="72" spans="3:37">
-      <c r="C72" s="103"/>
-      <c r="D72" s="104"/>
-      <c r="E72" s="105"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="67"/>
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -4529,9 +4529,9 @@
       <c r="AK72" s="40"/>
     </row>
     <row r="73" spans="3:37">
-      <c r="C73" s="103"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="105"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="67"/>
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -4566,9 +4566,9 @@
       <c r="AK73" s="40"/>
     </row>
     <row r="74" spans="3:37">
-      <c r="C74" s="103"/>
-      <c r="D74" s="104"/>
-      <c r="E74" s="105"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="67"/>
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -4603,9 +4603,9 @@
       <c r="AK74" s="40"/>
     </row>
     <row r="75" spans="3:37">
-      <c r="C75" s="103"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="105"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="67"/>
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -4640,9 +4640,9 @@
       <c r="AK75" s="40"/>
     </row>
     <row r="76" spans="3:37">
-      <c r="C76" s="103"/>
-      <c r="D76" s="104"/>
-      <c r="E76" s="105"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="67"/>
       <c r="F76" s="14"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -4677,9 +4677,9 @@
       <c r="AK76" s="40"/>
     </row>
     <row r="77" spans="3:37">
-      <c r="C77" s="103"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="105"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="67"/>
       <c r="F77" s="14"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -4713,10 +4713,10 @@
       <c r="AJ77" s="16"/>
       <c r="AK77" s="40"/>
     </row>
-    <row r="78" spans="3:37">
-      <c r="C78" s="103"/>
-      <c r="D78" s="104"/>
-      <c r="E78" s="105"/>
+    <row r="78" spans="3:37" hidden="1">
+      <c r="C78" s="65"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="67"/>
       <c r="F78" s="14"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -4750,10 +4750,10 @@
       <c r="AJ78" s="16"/>
       <c r="AK78" s="40"/>
     </row>
-    <row r="79" spans="3:37">
-      <c r="C79" s="103"/>
-      <c r="D79" s="104"/>
-      <c r="E79" s="105"/>
+    <row r="79" spans="3:37" hidden="1">
+      <c r="C79" s="65"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="67"/>
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -4787,10 +4787,10 @@
       <c r="AJ79" s="16"/>
       <c r="AK79" s="40"/>
     </row>
-    <row r="80" spans="3:37">
-      <c r="C80" s="103"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="105"/>
+    <row r="80" spans="3:37" hidden="1">
+      <c r="C80" s="65"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="67"/>
       <c r="F80" s="14"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -4824,10 +4824,10 @@
       <c r="AJ80" s="16"/>
       <c r="AK80" s="40"/>
     </row>
-    <row r="81" spans="3:37">
-      <c r="C81" s="103"/>
-      <c r="D81" s="104"/>
-      <c r="E81" s="105"/>
+    <row r="81" spans="3:37" hidden="1">
+      <c r="C81" s="65"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="67"/>
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -4861,10 +4861,10 @@
       <c r="AJ81" s="16"/>
       <c r="AK81" s="40"/>
     </row>
-    <row r="82" spans="3:37">
-      <c r="C82" s="103"/>
-      <c r="D82" s="104"/>
-      <c r="E82" s="105"/>
+    <row r="82" spans="3:37" hidden="1">
+      <c r="C82" s="65"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="67"/>
       <c r="F82" s="14"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -4898,10 +4898,10 @@
       <c r="AJ82" s="16"/>
       <c r="AK82" s="40"/>
     </row>
-    <row r="83" spans="3:37">
-      <c r="C83" s="103"/>
-      <c r="D83" s="104"/>
-      <c r="E83" s="105"/>
+    <row r="83" spans="3:37" hidden="1">
+      <c r="C83" s="65"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="67"/>
       <c r="F83" s="14"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -4935,10 +4935,10 @@
       <c r="AJ83" s="16"/>
       <c r="AK83" s="40"/>
     </row>
-    <row r="84" spans="3:37">
-      <c r="C84" s="103"/>
-      <c r="D84" s="104"/>
-      <c r="E84" s="105"/>
+    <row r="84" spans="3:37" hidden="1">
+      <c r="C84" s="65"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="67"/>
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -4972,10 +4972,10 @@
       <c r="AJ84" s="16"/>
       <c r="AK84" s="40"/>
     </row>
-    <row r="85" spans="3:37">
-      <c r="C85" s="103"/>
-      <c r="D85" s="104"/>
-      <c r="E85" s="105"/>
+    <row r="85" spans="3:37" hidden="1">
+      <c r="C85" s="65"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="67"/>
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -5009,10 +5009,10 @@
       <c r="AJ85" s="16"/>
       <c r="AK85" s="40"/>
     </row>
-    <row r="86" spans="3:37">
-      <c r="C86" s="103"/>
-      <c r="D86" s="104"/>
-      <c r="E86" s="105"/>
+    <row r="86" spans="3:37" hidden="1">
+      <c r="C86" s="65"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="67"/>
       <c r="F86" s="14"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -5046,10 +5046,10 @@
       <c r="AJ86" s="16"/>
       <c r="AK86" s="40"/>
     </row>
-    <row r="87" spans="3:37">
-      <c r="C87" s="103"/>
-      <c r="D87" s="104"/>
-      <c r="E87" s="105"/>
+    <row r="87" spans="3:37" hidden="1">
+      <c r="C87" s="65"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="67"/>
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -5083,10 +5083,10 @@
       <c r="AJ87" s="16"/>
       <c r="AK87" s="40"/>
     </row>
-    <row r="88" spans="3:37">
-      <c r="C88" s="103"/>
-      <c r="D88" s="104"/>
-      <c r="E88" s="105"/>
+    <row r="88" spans="3:37" hidden="1">
+      <c r="C88" s="65"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="67"/>
       <c r="F88" s="14"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
@@ -5120,10 +5120,10 @@
       <c r="AJ88" s="16"/>
       <c r="AK88" s="40"/>
     </row>
-    <row r="89" spans="3:37">
-      <c r="C89" s="103"/>
-      <c r="D89" s="104"/>
-      <c r="E89" s="105"/>
+    <row r="89" spans="3:37" hidden="1">
+      <c r="C89" s="65"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="67"/>
       <c r="F89" s="14"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
@@ -5157,10 +5157,10 @@
       <c r="AJ89" s="16"/>
       <c r="AK89" s="40"/>
     </row>
-    <row r="90" spans="3:37">
-      <c r="C90" s="106"/>
-      <c r="D90" s="107"/>
-      <c r="E90" s="108"/>
+    <row r="90" spans="3:37" hidden="1">
+      <c r="C90" s="68"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="70"/>
       <c r="F90" s="43"/>
       <c r="G90" s="44"/>
       <c r="H90" s="44"/>
@@ -5367,51 +5367,51 @@
       <c r="F94" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="69" t="s">
+      <c r="G94" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="69"/>
-      <c r="I94" s="69"/>
-      <c r="J94" s="69"/>
+      <c r="H94" s="81"/>
+      <c r="I94" s="81"/>
+      <c r="J94" s="81"/>
       <c r="K94" s="21"/>
       <c r="L94" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="70" t="s">
+      <c r="M94" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="N94" s="71"/>
-      <c r="O94" s="71"/>
-      <c r="P94" s="72"/>
+      <c r="N94" s="89"/>
+      <c r="O94" s="89"/>
+      <c r="P94" s="90"/>
       <c r="Q94" s="21"/>
       <c r="R94" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="S94" s="70" t="s">
+      <c r="S94" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="T94" s="71"/>
-      <c r="U94" s="71"/>
-      <c r="V94" s="72"/>
+      <c r="T94" s="89"/>
+      <c r="U94" s="89"/>
+      <c r="V94" s="90"/>
       <c r="X94" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Y94" s="70" t="s">
+      <c r="Y94" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="Z94" s="71"/>
-      <c r="AA94" s="71"/>
-      <c r="AB94" s="72"/>
+      <c r="Z94" s="89"/>
+      <c r="AA94" s="89"/>
+      <c r="AB94" s="90"/>
       <c r="AC94" s="21"/>
       <c r="AD94" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AE94" s="70" t="s">
+      <c r="AE94" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="AF94" s="71"/>
-      <c r="AG94" s="71"/>
-      <c r="AH94" s="72"/>
+      <c r="AF94" s="89"/>
+      <c r="AG94" s="89"/>
+      <c r="AH94" s="90"/>
     </row>
     <row r="95" spans="3:37" ht="3.75" customHeight="1">
       <c r="E95" s="22"/>
@@ -5421,204 +5421,204 @@
       <c r="F96" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G96" s="69" t="s">
+      <c r="G96" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="H96" s="69"/>
-      <c r="I96" s="69"/>
-      <c r="J96" s="69"/>
+      <c r="H96" s="81"/>
+      <c r="I96" s="81"/>
+      <c r="J96" s="81"/>
       <c r="L96" s="33"/>
-      <c r="M96" s="73"/>
-      <c r="N96" s="73"/>
-      <c r="O96" s="73"/>
-      <c r="P96" s="73"/>
+      <c r="M96" s="82"/>
+      <c r="N96" s="82"/>
+      <c r="O96" s="82"/>
+      <c r="P96" s="82"/>
       <c r="R96" s="34"/>
-      <c r="S96" s="74"/>
-      <c r="T96" s="74"/>
-      <c r="U96" s="74"/>
-      <c r="V96" s="74"/>
+      <c r="S96" s="83"/>
+      <c r="T96" s="83"/>
+      <c r="U96" s="83"/>
+      <c r="V96" s="83"/>
       <c r="X96" s="34"/>
-      <c r="Y96" s="74"/>
-      <c r="Z96" s="74"/>
-      <c r="AA96" s="74"/>
-      <c r="AB96" s="74"/>
+      <c r="Y96" s="83"/>
+      <c r="Z96" s="83"/>
+      <c r="AA96" s="83"/>
+      <c r="AB96" s="83"/>
       <c r="AD96" s="34"/>
-      <c r="AE96" s="74"/>
-      <c r="AF96" s="74"/>
-      <c r="AG96" s="74"/>
-      <c r="AH96" s="74"/>
+      <c r="AE96" s="83"/>
+      <c r="AF96" s="83"/>
+      <c r="AG96" s="83"/>
+      <c r="AH96" s="83"/>
     </row>
     <row r="97" spans="3:37">
       <c r="E97" s="22"/>
     </row>
     <row r="98" spans="3:37">
-      <c r="D98" s="48" t="s">
+      <c r="D98" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="49"/>
-      <c r="F98" s="50"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="93"/>
       <c r="G98" s="47"/>
-      <c r="H98" s="57" t="s">
+      <c r="H98" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="58"/>
-      <c r="L98" s="58"/>
-      <c r="M98" s="58"/>
-      <c r="N98" s="58"/>
-      <c r="O98" s="59"/>
+      <c r="I98" s="101"/>
+      <c r="J98" s="101"/>
+      <c r="K98" s="101"/>
+      <c r="L98" s="101"/>
+      <c r="M98" s="101"/>
+      <c r="N98" s="101"/>
+      <c r="O98" s="102"/>
       <c r="P98" s="47"/>
-      <c r="Q98" s="57" t="s">
+      <c r="Q98" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="R98" s="58"/>
-      <c r="S98" s="58"/>
-      <c r="T98" s="58"/>
-      <c r="U98" s="58"/>
-      <c r="V98" s="58"/>
-      <c r="W98" s="58"/>
-      <c r="X98" s="59"/>
+      <c r="R98" s="101"/>
+      <c r="S98" s="101"/>
+      <c r="T98" s="101"/>
+      <c r="U98" s="101"/>
+      <c r="V98" s="101"/>
+      <c r="W98" s="101"/>
+      <c r="X98" s="102"/>
       <c r="Y98" s="47"/>
-      <c r="Z98" s="57" t="s">
+      <c r="Z98" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="AA98" s="58"/>
-      <c r="AB98" s="58"/>
-      <c r="AC98" s="58"/>
-      <c r="AD98" s="58"/>
-      <c r="AE98" s="58"/>
-      <c r="AF98" s="58"/>
-      <c r="AG98" s="59"/>
+      <c r="AA98" s="101"/>
+      <c r="AB98" s="101"/>
+      <c r="AC98" s="101"/>
+      <c r="AD98" s="101"/>
+      <c r="AE98" s="101"/>
+      <c r="AF98" s="101"/>
+      <c r="AG98" s="102"/>
     </row>
     <row r="99" spans="3:37">
-      <c r="D99" s="51"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="53"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="95"/>
+      <c r="F99" s="96"/>
       <c r="G99" s="47"/>
-      <c r="H99" s="60"/>
-      <c r="I99" s="61"/>
-      <c r="J99" s="61"/>
-      <c r="K99" s="61"/>
-      <c r="L99" s="61"/>
-      <c r="M99" s="61"/>
-      <c r="N99" s="61"/>
-      <c r="O99" s="62"/>
+      <c r="H99" s="103"/>
+      <c r="I99" s="104"/>
+      <c r="J99" s="104"/>
+      <c r="K99" s="104"/>
+      <c r="L99" s="104"/>
+      <c r="M99" s="104"/>
+      <c r="N99" s="104"/>
+      <c r="O99" s="105"/>
       <c r="P99" s="47"/>
-      <c r="Q99" s="60"/>
-      <c r="R99" s="61"/>
-      <c r="S99" s="61"/>
-      <c r="T99" s="61"/>
-      <c r="U99" s="61"/>
-      <c r="V99" s="61"/>
-      <c r="W99" s="61"/>
-      <c r="X99" s="62"/>
+      <c r="Q99" s="103"/>
+      <c r="R99" s="104"/>
+      <c r="S99" s="104"/>
+      <c r="T99" s="104"/>
+      <c r="U99" s="104"/>
+      <c r="V99" s="104"/>
+      <c r="W99" s="104"/>
+      <c r="X99" s="105"/>
       <c r="Y99" s="47"/>
-      <c r="Z99" s="60"/>
-      <c r="AA99" s="61"/>
-      <c r="AB99" s="61"/>
-      <c r="AC99" s="61"/>
-      <c r="AD99" s="61"/>
-      <c r="AE99" s="61"/>
-      <c r="AF99" s="61"/>
-      <c r="AG99" s="62"/>
+      <c r="Z99" s="103"/>
+      <c r="AA99" s="104"/>
+      <c r="AB99" s="104"/>
+      <c r="AC99" s="104"/>
+      <c r="AD99" s="104"/>
+      <c r="AE99" s="104"/>
+      <c r="AF99" s="104"/>
+      <c r="AG99" s="105"/>
     </row>
     <row r="100" spans="3:37">
-      <c r="D100" s="51"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="53"/>
+      <c r="D100" s="94"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="96"/>
       <c r="G100" s="47"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="61"/>
-      <c r="L100" s="61"/>
-      <c r="M100" s="61"/>
-      <c r="N100" s="61"/>
-      <c r="O100" s="62"/>
+      <c r="H100" s="103"/>
+      <c r="I100" s="104"/>
+      <c r="J100" s="104"/>
+      <c r="K100" s="104"/>
+      <c r="L100" s="104"/>
+      <c r="M100" s="104"/>
+      <c r="N100" s="104"/>
+      <c r="O100" s="105"/>
       <c r="P100" s="47"/>
-      <c r="Q100" s="60"/>
-      <c r="R100" s="61"/>
-      <c r="S100" s="61"/>
-      <c r="T100" s="61"/>
-      <c r="U100" s="61"/>
-      <c r="V100" s="61"/>
-      <c r="W100" s="61"/>
-      <c r="X100" s="62"/>
+      <c r="Q100" s="103"/>
+      <c r="R100" s="104"/>
+      <c r="S100" s="104"/>
+      <c r="T100" s="104"/>
+      <c r="U100" s="104"/>
+      <c r="V100" s="104"/>
+      <c r="W100" s="104"/>
+      <c r="X100" s="105"/>
       <c r="Y100" s="47"/>
-      <c r="Z100" s="60"/>
-      <c r="AA100" s="61"/>
-      <c r="AB100" s="61"/>
-      <c r="AC100" s="61"/>
-      <c r="AD100" s="61"/>
-      <c r="AE100" s="61"/>
-      <c r="AF100" s="61"/>
-      <c r="AG100" s="62"/>
+      <c r="Z100" s="103"/>
+      <c r="AA100" s="104"/>
+      <c r="AB100" s="104"/>
+      <c r="AC100" s="104"/>
+      <c r="AD100" s="104"/>
+      <c r="AE100" s="104"/>
+      <c r="AF100" s="104"/>
+      <c r="AG100" s="105"/>
     </row>
     <row r="101" spans="3:37">
-      <c r="D101" s="51"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="53"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="96"/>
       <c r="G101" s="47"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="61"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="61"/>
-      <c r="L101" s="61"/>
-      <c r="M101" s="61"/>
-      <c r="N101" s="61"/>
-      <c r="O101" s="62"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="104"/>
+      <c r="J101" s="104"/>
+      <c r="K101" s="104"/>
+      <c r="L101" s="104"/>
+      <c r="M101" s="104"/>
+      <c r="N101" s="104"/>
+      <c r="O101" s="105"/>
       <c r="P101" s="47"/>
-      <c r="Q101" s="60"/>
-      <c r="R101" s="61"/>
-      <c r="S101" s="61"/>
-      <c r="T101" s="61"/>
-      <c r="U101" s="61"/>
-      <c r="V101" s="61"/>
-      <c r="W101" s="61"/>
-      <c r="X101" s="62"/>
+      <c r="Q101" s="103"/>
+      <c r="R101" s="104"/>
+      <c r="S101" s="104"/>
+      <c r="T101" s="104"/>
+      <c r="U101" s="104"/>
+      <c r="V101" s="104"/>
+      <c r="W101" s="104"/>
+      <c r="X101" s="105"/>
       <c r="Y101" s="47"/>
-      <c r="Z101" s="60"/>
-      <c r="AA101" s="61"/>
-      <c r="AB101" s="61"/>
-      <c r="AC101" s="61"/>
-      <c r="AD101" s="61"/>
-      <c r="AE101" s="61"/>
-      <c r="AF101" s="61"/>
-      <c r="AG101" s="62"/>
+      <c r="Z101" s="103"/>
+      <c r="AA101" s="104"/>
+      <c r="AB101" s="104"/>
+      <c r="AC101" s="104"/>
+      <c r="AD101" s="104"/>
+      <c r="AE101" s="104"/>
+      <c r="AF101" s="104"/>
+      <c r="AG101" s="105"/>
     </row>
     <row r="102" spans="3:37">
       <c r="C102" s="35"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="56"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="98"/>
+      <c r="F102" s="99"/>
       <c r="G102" s="47"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="64"/>
-      <c r="J102" s="64"/>
-      <c r="K102" s="64"/>
-      <c r="L102" s="64"/>
-      <c r="M102" s="64"/>
-      <c r="N102" s="64"/>
-      <c r="O102" s="65"/>
+      <c r="H102" s="106"/>
+      <c r="I102" s="107"/>
+      <c r="J102" s="107"/>
+      <c r="K102" s="107"/>
+      <c r="L102" s="107"/>
+      <c r="M102" s="107"/>
+      <c r="N102" s="107"/>
+      <c r="O102" s="108"/>
       <c r="P102" s="47"/>
-      <c r="Q102" s="63"/>
-      <c r="R102" s="64"/>
-      <c r="S102" s="64"/>
-      <c r="T102" s="64"/>
-      <c r="U102" s="64"/>
-      <c r="V102" s="64"/>
-      <c r="W102" s="64"/>
-      <c r="X102" s="65"/>
+      <c r="Q102" s="106"/>
+      <c r="R102" s="107"/>
+      <c r="S102" s="107"/>
+      <c r="T102" s="107"/>
+      <c r="U102" s="107"/>
+      <c r="V102" s="107"/>
+      <c r="W102" s="107"/>
+      <c r="X102" s="108"/>
       <c r="Y102" s="47"/>
-      <c r="Z102" s="63"/>
-      <c r="AA102" s="64"/>
-      <c r="AB102" s="64"/>
-      <c r="AC102" s="64"/>
-      <c r="AD102" s="64"/>
-      <c r="AE102" s="64"/>
-      <c r="AF102" s="64"/>
-      <c r="AG102" s="65"/>
+      <c r="Z102" s="106"/>
+      <c r="AA102" s="107"/>
+      <c r="AB102" s="107"/>
+      <c r="AC102" s="107"/>
+      <c r="AD102" s="107"/>
+      <c r="AE102" s="107"/>
+      <c r="AF102" s="107"/>
+      <c r="AG102" s="108"/>
       <c r="AH102" s="36"/>
       <c r="AI102" s="36"/>
       <c r="AJ102" s="36"/>
@@ -5657,24 +5657,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C6:AK7"/>
-    <mergeCell ref="C9:AK9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="M96:P96"/>
-    <mergeCell ref="S96:V96"/>
-    <mergeCell ref="Y96:AB96"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="C13:AK13"/>
-    <mergeCell ref="C17:AK17"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="M94:P94"/>
-    <mergeCell ref="S94:V94"/>
-    <mergeCell ref="Y94:AB94"/>
-    <mergeCell ref="AE94:AH94"/>
     <mergeCell ref="D98:F98"/>
     <mergeCell ref="D99:F102"/>
     <mergeCell ref="H98:O98"/>
@@ -5683,6 +5665,24 @@
     <mergeCell ref="Z99:AG102"/>
     <mergeCell ref="Q99:X102"/>
     <mergeCell ref="H99:O102"/>
+    <mergeCell ref="C13:AK13"/>
+    <mergeCell ref="C17:AK17"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="M94:P94"/>
+    <mergeCell ref="S94:V94"/>
+    <mergeCell ref="Y94:AB94"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="M96:P96"/>
+    <mergeCell ref="S96:V96"/>
+    <mergeCell ref="Y96:AB96"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="C6:AK7"/>
+    <mergeCell ref="C9:AK9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="AK11:AK12"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:H16 J14:AJ16">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
@@ -5718,6 +5718,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/fomio_template.xlsx
+++ b/templates/fomio_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geral\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570BD2FB-9050-4674-ADAB-95BBFB2F3F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209FFAD9-2F4D-421D-AD39-6963C31BB8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F24CC36B-B49E-40ED-906B-853EB2E37C31}"/>
   </bookViews>
@@ -1277,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1407,9 +1407,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1622,7 +1619,3275 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="600">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3721,7 +6986,7 @@
   <dimension ref="A1:AL103"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -3748,267 +7013,267 @@
     </row>
     <row r="5" spans="3:37"/>
     <row r="6" spans="3:37">
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="79"/>
-      <c r="AH6" s="79"/>
-      <c r="AI6" s="79"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="79"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
     </row>
     <row r="7" spans="3:37">
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
     </row>
-    <row r="8" spans="3:37" s="77" customFormat="1" ht="3.75" customHeight="1">
-      <c r="F8" s="77" t="str">
+    <row r="8" spans="3:37" s="76" customFormat="1" ht="3.75" customHeight="1">
+      <c r="F8" s="76" t="str">
         <f ca="1">IF(OR(C9="Janeiro"&amp;" "&amp;YEAR(NOW()),C9="Maio"&amp;" "&amp;YEAR(NOW()),C9="Novembro"&amp;" "&amp;YEAR(NOW()),C9="Dezembro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="J8" s="77" t="str">
+      <c r="J8" s="76" t="str">
         <f ca="1">IF(OR(C9="Outubro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="M8" s="77" t="str">
+      <c r="M8" s="76" t="str">
         <f ca="1">IF(OR(C9="Dezembro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="O8" s="77" t="str">
+      <c r="O8" s="76" t="str">
         <f ca="1">IF(OR(C9="Junho"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="T8" s="77" t="str">
+      <c r="T8" s="76" t="str">
         <f ca="1">IF(OR(C9="Agosto"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="AD8" s="77" t="str">
+      <c r="AD8" s="76" t="str">
         <f ca="1">IF(OR(C9="Abril"&amp;" "&amp;YEAR(NOW()),C9="Dezembro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="3:37" ht="18.75">
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="80"/>
-      <c r="AJ9" s="80"/>
-      <c r="AK9" s="80"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
     </row>
     <row r="10" spans="3:37" ht="3.75" customHeight="1">
-      <c r="F10" s="78"/>
+      <c r="F10" s="77"/>
     </row>
     <row r="11" spans="3:37">
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="87" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="86" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:37">
-      <c r="C12" s="82"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="88"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="70"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="87"/>
     </row>
     <row r="13" spans="3:37">
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="98"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="96"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="97"/>
     </row>
     <row r="14" spans="3:37" hidden="1">
       <c r="C14" s="29"/>
@@ -4048,13 +7313,13 @@
       <c r="AK14" s="30"/>
     </row>
     <row r="15" spans="3:37">
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="42"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="44"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
@@ -4088,13 +7353,13 @@
       </c>
     </row>
     <row r="16" spans="3:37">
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="43"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="45"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
@@ -4128,48 +7393,48 @@
       </c>
     </row>
     <row r="17" spans="3:38">
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="99"/>
-      <c r="AJ17" s="99"/>
-      <c r="AK17" s="98"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="97"/>
     </row>
     <row r="18" spans="3:38">
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -4211,9 +7476,9 @@
       </c>
     </row>
     <row r="19" spans="3:38">
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -4251,9 +7516,9 @@
       </c>
     </row>
     <row r="20" spans="3:38">
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="12"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -4291,9 +7556,9 @@
       </c>
     </row>
     <row r="21" spans="3:38">
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -4331,9 +7596,9 @@
       </c>
     </row>
     <row r="22" spans="3:38">
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="12"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -4371,9 +7636,9 @@
       </c>
     </row>
     <row r="23" spans="3:38">
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -4411,9 +7676,9 @@
       </c>
     </row>
     <row r="24" spans="3:38">
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="12"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -4451,9 +7716,9 @@
       </c>
     </row>
     <row r="25" spans="3:38">
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -4491,9 +7756,9 @@
       </c>
     </row>
     <row r="26" spans="3:38">
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -4531,9 +7796,9 @@
       </c>
     </row>
     <row r="27" spans="3:38">
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -4571,9 +7836,9 @@
       </c>
     </row>
     <row r="28" spans="3:38">
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="12"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -4611,9 +7876,9 @@
       </c>
     </row>
     <row r="29" spans="3:38">
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -4651,9 +7916,9 @@
       </c>
     </row>
     <row r="30" spans="3:38">
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -4691,9 +7956,9 @@
       </c>
     </row>
     <row r="31" spans="3:38">
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -4731,9 +7996,9 @@
       </c>
     </row>
     <row r="32" spans="3:38">
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="12"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -4771,9 +8036,9 @@
       </c>
     </row>
     <row r="33" spans="3:37">
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="68"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -4811,9 +8076,9 @@
       </c>
     </row>
     <row r="34" spans="3:37">
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="12"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -4851,9 +8116,9 @@
       </c>
     </row>
     <row r="35" spans="3:37">
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -4891,9 +8156,9 @@
       </c>
     </row>
     <row r="36" spans="3:37">
-      <c r="C36" s="66"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="12"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -4931,9 +8196,9 @@
       </c>
     </row>
     <row r="37" spans="3:37">
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
@@ -4971,9 +8236,9 @@
       </c>
     </row>
     <row r="38" spans="3:37">
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
       <c r="F38" s="12"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -5011,9 +8276,9 @@
       </c>
     </row>
     <row r="39" spans="3:37">
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -5051,9 +8316,9 @@
       </c>
     </row>
     <row r="40" spans="3:37">
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="12"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -5091,9 +8356,9 @@
       </c>
     </row>
     <row r="41" spans="3:37">
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="68"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -5131,9 +8396,9 @@
       </c>
     </row>
     <row r="42" spans="3:37">
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="12"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -5171,9 +8436,9 @@
       </c>
     </row>
     <row r="43" spans="3:37">
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="12"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -5211,9 +8476,9 @@
       </c>
     </row>
     <row r="44" spans="3:37">
-      <c r="C44" s="66"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="12"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -5251,9 +8516,9 @@
       </c>
     </row>
     <row r="45" spans="3:37">
-      <c r="C45" s="66"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -5291,9 +8556,9 @@
       </c>
     </row>
     <row r="46" spans="3:37">
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="12"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
@@ -5331,9 +8596,9 @@
       </c>
     </row>
     <row r="47" spans="3:37">
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
@@ -5371,9 +8636,9 @@
       </c>
     </row>
     <row r="48" spans="3:37">
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="12"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -5411,9 +8676,9 @@
       </c>
     </row>
     <row r="49" spans="3:37">
-      <c r="C49" s="66"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -5451,9 +8716,9 @@
       </c>
     </row>
     <row r="50" spans="3:37">
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="12"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -5491,9 +8756,9 @@
       </c>
     </row>
     <row r="51" spans="3:37">
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="68"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="12"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -5531,9 +8796,9 @@
       </c>
     </row>
     <row r="52" spans="3:37">
-      <c r="C52" s="66"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="68"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="12"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -5571,9 +8836,9 @@
       </c>
     </row>
     <row r="53" spans="3:37">
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="68"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="12"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
@@ -5611,9 +8876,9 @@
       </c>
     </row>
     <row r="54" spans="3:37">
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="68"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="67"/>
       <c r="F54" s="12"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
@@ -5651,9 +8916,9 @@
       </c>
     </row>
     <row r="55" spans="3:37">
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="67"/>
       <c r="F55" s="12"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
@@ -5691,9 +8956,9 @@
       </c>
     </row>
     <row r="56" spans="3:37">
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="68"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="67"/>
       <c r="F56" s="12"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
@@ -5731,9 +8996,9 @@
       </c>
     </row>
     <row r="57" spans="3:37">
-      <c r="C57" s="66"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="68"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="12"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -5771,9 +9036,9 @@
       </c>
     </row>
     <row r="58" spans="3:37">
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="68"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67"/>
       <c r="F58" s="12"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
@@ -5811,9 +9076,9 @@
       </c>
     </row>
     <row r="59" spans="3:37">
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="68"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="67"/>
       <c r="F59" s="12"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -5851,9 +9116,9 @@
       </c>
     </row>
     <row r="60" spans="3:37">
-      <c r="C60" s="66"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="68"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="67"/>
       <c r="F60" s="12"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -5891,9 +9156,9 @@
       </c>
     </row>
     <row r="61" spans="3:37">
-      <c r="C61" s="66"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="68"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="12"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -5931,9 +9196,9 @@
       </c>
     </row>
     <row r="62" spans="3:37">
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="68"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="67"/>
       <c r="F62" s="12"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -5971,9 +9236,9 @@
       </c>
     </row>
     <row r="63" spans="3:37">
-      <c r="C63" s="66"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="68"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="12"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -6011,9 +9276,9 @@
       </c>
     </row>
     <row r="64" spans="3:37">
-      <c r="C64" s="66"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="68"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="67"/>
       <c r="F64" s="12"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
@@ -6051,9 +9316,9 @@
       </c>
     </row>
     <row r="65" spans="3:37">
-      <c r="C65" s="66"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="68"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="67"/>
       <c r="F65" s="12"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
@@ -6091,9 +9356,9 @@
       </c>
     </row>
     <row r="66" spans="3:37">
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="68"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="67"/>
       <c r="F66" s="12"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -6131,9 +9396,9 @@
       </c>
     </row>
     <row r="67" spans="3:37">
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="68"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="67"/>
       <c r="F67" s="12"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -6171,9 +9436,9 @@
       </c>
     </row>
     <row r="68" spans="3:37">
-      <c r="C68" s="66"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="68"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="67"/>
       <c r="F68" s="12"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -6211,9 +9476,9 @@
       </c>
     </row>
     <row r="69" spans="3:37">
-      <c r="C69" s="66"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="68"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="67"/>
       <c r="F69" s="12"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -6251,9 +9516,9 @@
       </c>
     </row>
     <row r="70" spans="3:37">
-      <c r="C70" s="66"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="68"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="67"/>
       <c r="F70" s="12"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
@@ -6291,9 +9556,9 @@
       </c>
     </row>
     <row r="71" spans="3:37">
-      <c r="C71" s="66"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="68"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="67"/>
       <c r="F71" s="12"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
@@ -6331,9 +9596,9 @@
       </c>
     </row>
     <row r="72" spans="3:37">
-      <c r="C72" s="66"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="68"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="67"/>
       <c r="F72" s="12"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
@@ -6371,9 +9636,9 @@
       </c>
     </row>
     <row r="73" spans="3:37" hidden="1">
-      <c r="C73" s="46"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="48"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="47"/>
       <c r="F73" s="12"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -6408,9 +9673,9 @@
       <c r="AK73" s="30"/>
     </row>
     <row r="74" spans="3:37" hidden="1">
-      <c r="C74" s="46"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="48"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="47"/>
       <c r="F74" s="12"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
@@ -6445,9 +9710,9 @@
       <c r="AK74" s="30"/>
     </row>
     <row r="75" spans="3:37" hidden="1">
-      <c r="C75" s="46"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="48"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="47"/>
       <c r="F75" s="12"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -6482,9 +9747,9 @@
       <c r="AK75" s="30"/>
     </row>
     <row r="76" spans="3:37" hidden="1">
-      <c r="C76" s="46"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="48"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="47"/>
       <c r="F76" s="12"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
@@ -6519,9 +9784,9 @@
       <c r="AK76" s="30"/>
     </row>
     <row r="77" spans="3:37" hidden="1">
-      <c r="C77" s="46"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="48"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="47"/>
       <c r="F77" s="12"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
@@ -6556,9 +9821,9 @@
       <c r="AK77" s="30"/>
     </row>
     <row r="78" spans="3:37" hidden="1">
-      <c r="C78" s="46"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="48"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="47"/>
       <c r="F78" s="12"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -6593,9 +9858,9 @@
       <c r="AK78" s="30"/>
     </row>
     <row r="79" spans="3:37" hidden="1">
-      <c r="C79" s="46"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="48"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="47"/>
       <c r="F79" s="12"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -6630,9 +9895,9 @@
       <c r="AK79" s="30"/>
     </row>
     <row r="80" spans="3:37" hidden="1">
-      <c r="C80" s="46"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="48"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="47"/>
       <c r="F80" s="12"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
@@ -6667,9 +9932,9 @@
       <c r="AK80" s="30"/>
     </row>
     <row r="81" spans="3:37" hidden="1">
-      <c r="C81" s="46"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="48"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="47"/>
       <c r="F81" s="12"/>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
@@ -6704,9 +9969,9 @@
       <c r="AK81" s="30"/>
     </row>
     <row r="82" spans="3:37" hidden="1">
-      <c r="C82" s="46"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="48"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="47"/>
       <c r="F82" s="12"/>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -6741,9 +10006,9 @@
       <c r="AK82" s="30"/>
     </row>
     <row r="83" spans="3:37" hidden="1">
-      <c r="C83" s="46"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="48"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="47"/>
       <c r="F83" s="12"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -6778,9 +10043,9 @@
       <c r="AK83" s="30"/>
     </row>
     <row r="84" spans="3:37" hidden="1">
-      <c r="C84" s="46"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="48"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="47"/>
       <c r="F84" s="12"/>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
@@ -6815,9 +10080,9 @@
       <c r="AK84" s="30"/>
     </row>
     <row r="85" spans="3:37" hidden="1">
-      <c r="C85" s="46"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="48"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="47"/>
       <c r="F85" s="12"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
@@ -6852,9 +10117,9 @@
       <c r="AK85" s="30"/>
     </row>
     <row r="86" spans="3:37" hidden="1">
-      <c r="C86" s="46"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="48"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="47"/>
       <c r="F86" s="12"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -6889,9 +10154,9 @@
       <c r="AK86" s="30"/>
     </row>
     <row r="87" spans="3:37" hidden="1">
-      <c r="C87" s="46"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="48"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="47"/>
       <c r="F87" s="12"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
@@ -6926,9 +10191,9 @@
       <c r="AK87" s="30"/>
     </row>
     <row r="88" spans="3:37" hidden="1">
-      <c r="C88" s="46"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="48"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="47"/>
       <c r="F88" s="12"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -6963,9 +10228,9 @@
       <c r="AK88" s="30"/>
     </row>
     <row r="89" spans="3:37" hidden="1">
-      <c r="C89" s="46"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="48"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="47"/>
       <c r="F89" s="12"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -7000,9 +10265,9 @@
       <c r="AK89" s="30"/>
     </row>
     <row r="90" spans="3:37" hidden="1">
-      <c r="C90" s="49"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="51"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="50"/>
       <c r="F90" s="33"/>
       <c r="G90" s="34"/>
       <c r="H90" s="34"/>
@@ -7037,41 +10302,41 @@
       <c r="AK90" s="36"/>
     </row>
     <row r="91" spans="3:37" ht="3.75" customHeight="1">
-      <c r="C91" s="52"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="55"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="55"/>
-      <c r="O91" s="55"/>
-      <c r="P91" s="55"/>
-      <c r="Q91" s="55"/>
-      <c r="R91" s="55"/>
-      <c r="S91" s="55"/>
-      <c r="T91" s="55"/>
-      <c r="U91" s="55"/>
-      <c r="V91" s="55"/>
-      <c r="W91" s="55"/>
-      <c r="X91" s="55"/>
-      <c r="Y91" s="55"/>
-      <c r="Z91" s="55"/>
-      <c r="AA91" s="55"/>
-      <c r="AB91" s="55"/>
-      <c r="AC91" s="55"/>
-      <c r="AD91" s="55"/>
-      <c r="AE91" s="55"/>
-      <c r="AF91" s="55"/>
-      <c r="AG91" s="55"/>
-      <c r="AH91" s="55"/>
-      <c r="AI91" s="55"/>
-      <c r="AJ91" s="55"/>
-      <c r="AK91" s="56"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="54"/>
+      <c r="M91" s="54"/>
+      <c r="N91" s="54"/>
+      <c r="O91" s="54"/>
+      <c r="P91" s="54"/>
+      <c r="Q91" s="54"/>
+      <c r="R91" s="54"/>
+      <c r="S91" s="54"/>
+      <c r="T91" s="54"/>
+      <c r="U91" s="54"/>
+      <c r="V91" s="54"/>
+      <c r="W91" s="54"/>
+      <c r="X91" s="54"/>
+      <c r="Y91" s="54"/>
+      <c r="Z91" s="54"/>
+      <c r="AA91" s="54"/>
+      <c r="AB91" s="54"/>
+      <c r="AC91" s="54"/>
+      <c r="AD91" s="54"/>
+      <c r="AE91" s="54"/>
+      <c r="AF91" s="54"/>
+      <c r="AG91" s="54"/>
+      <c r="AH91" s="54"/>
+      <c r="AI91" s="54"/>
+      <c r="AJ91" s="54"/>
+      <c r="AK91" s="55"/>
     </row>
     <row r="92" spans="3:37">
       <c r="E92" s="16"/>
@@ -7209,51 +10474,51 @@
       <c r="F94" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="89" t="s">
+      <c r="G94" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="89"/>
-      <c r="I94" s="89"/>
-      <c r="J94" s="89"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="88"/>
+      <c r="J94" s="88"/>
       <c r="K94" s="15"/>
       <c r="L94" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="90" t="s">
+      <c r="M94" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="N94" s="91"/>
-      <c r="O94" s="91"/>
-      <c r="P94" s="92"/>
+      <c r="N94" s="90"/>
+      <c r="O94" s="90"/>
+      <c r="P94" s="91"/>
       <c r="Q94" s="15"/>
       <c r="R94" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S94" s="90" t="s">
+      <c r="S94" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="T94" s="91"/>
-      <c r="U94" s="91"/>
-      <c r="V94" s="92"/>
+      <c r="T94" s="90"/>
+      <c r="U94" s="90"/>
+      <c r="V94" s="91"/>
       <c r="X94" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Y94" s="90" t="s">
+      <c r="Y94" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Z94" s="91"/>
-      <c r="AA94" s="91"/>
-      <c r="AB94" s="92"/>
+      <c r="Z94" s="90"/>
+      <c r="AA94" s="90"/>
+      <c r="AB94" s="91"/>
       <c r="AC94" s="15"/>
       <c r="AD94" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AE94" s="90" t="s">
+      <c r="AE94" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AF94" s="91"/>
-      <c r="AG94" s="91"/>
-      <c r="AH94" s="92"/>
+      <c r="AF94" s="90"/>
+      <c r="AG94" s="90"/>
+      <c r="AH94" s="91"/>
     </row>
     <row r="95" spans="3:37" ht="3.75" customHeight="1">
       <c r="E95" s="16"/>
@@ -7263,221 +10528,221 @@
       <c r="F96" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G96" s="89" t="s">
+      <c r="G96" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="H96" s="89"/>
-      <c r="I96" s="89"/>
-      <c r="J96" s="89"/>
-      <c r="L96" s="73" t="s">
+      <c r="H96" s="88"/>
+      <c r="I96" s="88"/>
+      <c r="J96" s="88"/>
+      <c r="L96" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="M96" s="89" t="s">
+      <c r="M96" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="N96" s="89"/>
-      <c r="O96" s="89"/>
-      <c r="P96" s="89"/>
-      <c r="R96" s="74" t="s">
+      <c r="N96" s="88"/>
+      <c r="O96" s="88"/>
+      <c r="P96" s="88"/>
+      <c r="R96" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="S96" s="90" t="s">
+      <c r="S96" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="T96" s="91"/>
-      <c r="U96" s="91"/>
-      <c r="V96" s="92"/>
+      <c r="T96" s="90"/>
+      <c r="U96" s="90"/>
+      <c r="V96" s="91"/>
       <c r="W96" s="15"/>
-      <c r="X96" s="75" t="s">
+      <c r="X96" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="Y96" s="90" t="s">
+      <c r="Y96" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z96" s="91"/>
-      <c r="AA96" s="91"/>
-      <c r="AB96" s="92"/>
-      <c r="AD96" s="76" t="s">
+      <c r="Z96" s="90"/>
+      <c r="AA96" s="90"/>
+      <c r="AB96" s="91"/>
+      <c r="AD96" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AE96" s="93" t="s">
+      <c r="AE96" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="AF96" s="94"/>
-      <c r="AG96" s="94"/>
-      <c r="AH96" s="95"/>
+      <c r="AF96" s="93"/>
+      <c r="AG96" s="93"/>
+      <c r="AH96" s="94"/>
     </row>
     <row r="97" spans="3:37">
       <c r="E97" s="16"/>
     </row>
     <row r="98" spans="3:37">
-      <c r="D98" s="100" t="s">
+      <c r="D98" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="101"/>
-      <c r="F98" s="102"/>
+      <c r="E98" s="100"/>
+      <c r="F98" s="101"/>
       <c r="G98" s="37"/>
-      <c r="H98" s="100" t="s">
+      <c r="H98" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="I98" s="101"/>
-      <c r="J98" s="101"/>
-      <c r="K98" s="101"/>
-      <c r="L98" s="101"/>
-      <c r="M98" s="101"/>
-      <c r="N98" s="101"/>
-      <c r="O98" s="102"/>
+      <c r="I98" s="100"/>
+      <c r="J98" s="100"/>
+      <c r="K98" s="100"/>
+      <c r="L98" s="100"/>
+      <c r="M98" s="100"/>
+      <c r="N98" s="100"/>
+      <c r="O98" s="101"/>
       <c r="P98" s="37"/>
-      <c r="Q98" s="100" t="s">
+      <c r="Q98" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="R98" s="101"/>
-      <c r="S98" s="101"/>
-      <c r="T98" s="101"/>
-      <c r="U98" s="101"/>
-      <c r="V98" s="101"/>
-      <c r="W98" s="101"/>
-      <c r="X98" s="102"/>
+      <c r="R98" s="100"/>
+      <c r="S98" s="100"/>
+      <c r="T98" s="100"/>
+      <c r="U98" s="100"/>
+      <c r="V98" s="100"/>
+      <c r="W98" s="100"/>
+      <c r="X98" s="101"/>
       <c r="Y98" s="37"/>
-      <c r="Z98" s="100" t="s">
+      <c r="Z98" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AA98" s="101"/>
-      <c r="AB98" s="101"/>
-      <c r="AC98" s="101"/>
-      <c r="AD98" s="101"/>
-      <c r="AE98" s="101"/>
-      <c r="AF98" s="101"/>
-      <c r="AG98" s="102"/>
+      <c r="AA98" s="100"/>
+      <c r="AB98" s="100"/>
+      <c r="AC98" s="100"/>
+      <c r="AD98" s="100"/>
+      <c r="AE98" s="100"/>
+      <c r="AF98" s="100"/>
+      <c r="AG98" s="101"/>
     </row>
     <row r="99" spans="3:37">
-      <c r="D99" s="103"/>
-      <c r="E99" s="104"/>
-      <c r="F99" s="105"/>
+      <c r="D99" s="102"/>
+      <c r="E99" s="103"/>
+      <c r="F99" s="104"/>
       <c r="G99" s="37"/>
-      <c r="H99" s="109"/>
-      <c r="I99" s="110"/>
-      <c r="J99" s="110"/>
-      <c r="K99" s="110"/>
-      <c r="L99" s="110"/>
-      <c r="M99" s="110"/>
-      <c r="N99" s="110"/>
-      <c r="O99" s="111"/>
+      <c r="H99" s="108"/>
+      <c r="I99" s="109"/>
+      <c r="J99" s="109"/>
+      <c r="K99" s="109"/>
+      <c r="L99" s="109"/>
+      <c r="M99" s="109"/>
+      <c r="N99" s="109"/>
+      <c r="O99" s="110"/>
       <c r="P99" s="37"/>
-      <c r="Q99" s="109"/>
-      <c r="R99" s="110"/>
-      <c r="S99" s="110"/>
-      <c r="T99" s="110"/>
-      <c r="U99" s="110"/>
-      <c r="V99" s="110"/>
-      <c r="W99" s="110"/>
-      <c r="X99" s="111"/>
+      <c r="Q99" s="108"/>
+      <c r="R99" s="109"/>
+      <c r="S99" s="109"/>
+      <c r="T99" s="109"/>
+      <c r="U99" s="109"/>
+      <c r="V99" s="109"/>
+      <c r="W99" s="109"/>
+      <c r="X99" s="110"/>
       <c r="Y99" s="37"/>
-      <c r="Z99" s="109"/>
-      <c r="AA99" s="110"/>
-      <c r="AB99" s="110"/>
-      <c r="AC99" s="110"/>
-      <c r="AD99" s="110"/>
-      <c r="AE99" s="110"/>
-      <c r="AF99" s="110"/>
-      <c r="AG99" s="111"/>
+      <c r="Z99" s="108"/>
+      <c r="AA99" s="109"/>
+      <c r="AB99" s="109"/>
+      <c r="AC99" s="109"/>
+      <c r="AD99" s="109"/>
+      <c r="AE99" s="109"/>
+      <c r="AF99" s="109"/>
+      <c r="AG99" s="110"/>
     </row>
     <row r="100" spans="3:37">
-      <c r="D100" s="103"/>
-      <c r="E100" s="104"/>
-      <c r="F100" s="105"/>
+      <c r="D100" s="102"/>
+      <c r="E100" s="103"/>
+      <c r="F100" s="104"/>
       <c r="G100" s="37"/>
-      <c r="H100" s="109"/>
-      <c r="I100" s="110"/>
-      <c r="J100" s="110"/>
-      <c r="K100" s="110"/>
-      <c r="L100" s="110"/>
-      <c r="M100" s="110"/>
-      <c r="N100" s="110"/>
-      <c r="O100" s="111"/>
+      <c r="H100" s="108"/>
+      <c r="I100" s="109"/>
+      <c r="J100" s="109"/>
+      <c r="K100" s="109"/>
+      <c r="L100" s="109"/>
+      <c r="M100" s="109"/>
+      <c r="N100" s="109"/>
+      <c r="O100" s="110"/>
       <c r="P100" s="37"/>
-      <c r="Q100" s="109"/>
-      <c r="R100" s="110"/>
-      <c r="S100" s="110"/>
-      <c r="T100" s="110"/>
-      <c r="U100" s="110"/>
-      <c r="V100" s="110"/>
-      <c r="W100" s="110"/>
-      <c r="X100" s="111"/>
+      <c r="Q100" s="108"/>
+      <c r="R100" s="109"/>
+      <c r="S100" s="109"/>
+      <c r="T100" s="109"/>
+      <c r="U100" s="109"/>
+      <c r="V100" s="109"/>
+      <c r="W100" s="109"/>
+      <c r="X100" s="110"/>
       <c r="Y100" s="37"/>
-      <c r="Z100" s="109"/>
-      <c r="AA100" s="110"/>
-      <c r="AB100" s="110"/>
-      <c r="AC100" s="110"/>
-      <c r="AD100" s="110"/>
-      <c r="AE100" s="110"/>
-      <c r="AF100" s="110"/>
-      <c r="AG100" s="111"/>
+      <c r="Z100" s="108"/>
+      <c r="AA100" s="109"/>
+      <c r="AB100" s="109"/>
+      <c r="AC100" s="109"/>
+      <c r="AD100" s="109"/>
+      <c r="AE100" s="109"/>
+      <c r="AF100" s="109"/>
+      <c r="AG100" s="110"/>
     </row>
     <row r="101" spans="3:37">
-      <c r="D101" s="103"/>
-      <c r="E101" s="104"/>
-      <c r="F101" s="105"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="104"/>
       <c r="G101" s="37"/>
-      <c r="H101" s="109"/>
-      <c r="I101" s="110"/>
-      <c r="J101" s="110"/>
-      <c r="K101" s="110"/>
-      <c r="L101" s="110"/>
-      <c r="M101" s="110"/>
-      <c r="N101" s="110"/>
-      <c r="O101" s="111"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="109"/>
+      <c r="J101" s="109"/>
+      <c r="K101" s="109"/>
+      <c r="L101" s="109"/>
+      <c r="M101" s="109"/>
+      <c r="N101" s="109"/>
+      <c r="O101" s="110"/>
       <c r="P101" s="37"/>
-      <c r="Q101" s="109"/>
-      <c r="R101" s="110"/>
-      <c r="S101" s="110"/>
-      <c r="T101" s="110"/>
-      <c r="U101" s="110"/>
-      <c r="V101" s="110"/>
-      <c r="W101" s="110"/>
-      <c r="X101" s="111"/>
+      <c r="Q101" s="108"/>
+      <c r="R101" s="109"/>
+      <c r="S101" s="109"/>
+      <c r="T101" s="109"/>
+      <c r="U101" s="109"/>
+      <c r="V101" s="109"/>
+      <c r="W101" s="109"/>
+      <c r="X101" s="110"/>
       <c r="Y101" s="37"/>
-      <c r="Z101" s="109"/>
-      <c r="AA101" s="110"/>
-      <c r="AB101" s="110"/>
-      <c r="AC101" s="110"/>
-      <c r="AD101" s="110"/>
-      <c r="AE101" s="110"/>
-      <c r="AF101" s="110"/>
-      <c r="AG101" s="111"/>
+      <c r="Z101" s="108"/>
+      <c r="AA101" s="109"/>
+      <c r="AB101" s="109"/>
+      <c r="AC101" s="109"/>
+      <c r="AD101" s="109"/>
+      <c r="AE101" s="109"/>
+      <c r="AF101" s="109"/>
+      <c r="AG101" s="110"/>
     </row>
     <row r="102" spans="3:37">
       <c r="C102" s="27"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="107"/>
-      <c r="F102" s="108"/>
+      <c r="D102" s="105"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="107"/>
       <c r="G102" s="37"/>
-      <c r="H102" s="112"/>
-      <c r="I102" s="113"/>
-      <c r="J102" s="113"/>
-      <c r="K102" s="113"/>
-      <c r="L102" s="113"/>
-      <c r="M102" s="113"/>
-      <c r="N102" s="113"/>
-      <c r="O102" s="114"/>
+      <c r="H102" s="111"/>
+      <c r="I102" s="112"/>
+      <c r="J102" s="112"/>
+      <c r="K102" s="112"/>
+      <c r="L102" s="112"/>
+      <c r="M102" s="112"/>
+      <c r="N102" s="112"/>
+      <c r="O102" s="113"/>
       <c r="P102" s="37"/>
-      <c r="Q102" s="112"/>
-      <c r="R102" s="113"/>
-      <c r="S102" s="113"/>
-      <c r="T102" s="113"/>
-      <c r="U102" s="113"/>
-      <c r="V102" s="113"/>
-      <c r="W102" s="113"/>
-      <c r="X102" s="114"/>
+      <c r="Q102" s="111"/>
+      <c r="R102" s="112"/>
+      <c r="S102" s="112"/>
+      <c r="T102" s="112"/>
+      <c r="U102" s="112"/>
+      <c r="V102" s="112"/>
+      <c r="W102" s="112"/>
+      <c r="X102" s="113"/>
       <c r="Y102" s="37"/>
-      <c r="Z102" s="112"/>
-      <c r="AA102" s="113"/>
-      <c r="AB102" s="113"/>
-      <c r="AC102" s="113"/>
-      <c r="AD102" s="113"/>
-      <c r="AE102" s="113"/>
-      <c r="AF102" s="113"/>
-      <c r="AG102" s="114"/>
+      <c r="Z102" s="111"/>
+      <c r="AA102" s="112"/>
+      <c r="AB102" s="112"/>
+      <c r="AC102" s="112"/>
+      <c r="AD102" s="112"/>
+      <c r="AE102" s="112"/>
+      <c r="AF102" s="112"/>
+      <c r="AG102" s="113"/>
       <c r="AH102" s="28"/>
       <c r="AI102" s="28"/>
       <c r="AJ102" s="28"/>
@@ -7544,49 +10809,49 @@
     <mergeCell ref="AK11:AK12"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F90">
-    <cfRule type="expression" dxfId="199" priority="158">
+    <cfRule type="expression" dxfId="199" priority="166">
       <formula>$F$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="159">
+    <cfRule type="expression" dxfId="198" priority="164">
       <formula>$F$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="157">
+    <cfRule type="expression" dxfId="197" priority="165">
       <formula>$F$11="SÁB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:H16 J14:AJ16">
+  <conditionalFormatting sqref="F15:AJ16">
     <cfRule type="cellIs" dxfId="196" priority="161" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:AJ90">
-    <cfRule type="cellIs" dxfId="195" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="159" operator="equal">
       <formula>"BX"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="158" operator="equal">
       <formula>"FE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="157" operator="equal">
       <formula>"FOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="156" operator="equal">
       <formula>"PT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="155" operator="equal">
       <formula>"PD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="154" operator="equal">
       <formula>"PN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G90">
-    <cfRule type="expression" dxfId="189" priority="156">
+    <cfRule type="expression" dxfId="189" priority="163">
       <formula>$G$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="155">
+    <cfRule type="expression" dxfId="188" priority="162">
       <formula>$G$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="154">
+    <cfRule type="expression" dxfId="187" priority="160">
       <formula>$G$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/templates/fomio_template.xlsx
+++ b/templates/fomio_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geral\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043A8195-33D8-4BBC-A960-E7FE515ED4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC69F44-5A9F-482F-A1F2-DE20DC0A4616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F24CC36B-B49E-40ED-906B-853EB2E37C31}"/>
   </bookViews>
@@ -55188,8 +55188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3028F345-7C56-4784-9FD4-3DA609409DA1}">
   <dimension ref="A1:AL103"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AJ1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -55679,7 +55679,7 @@
       </c>
     </row>
     <row r="19" spans="3:38">
-      <c r="C19" s="65"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="66"/>
       <c r="E19" s="67"/>
       <c r="F19" s="12"/>
@@ -55719,7 +55719,7 @@
       </c>
     </row>
     <row r="20" spans="3:38">
-      <c r="C20" s="65"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="66"/>
       <c r="E20" s="67"/>
       <c r="F20" s="12"/>
@@ -55759,7 +55759,7 @@
       </c>
     </row>
     <row r="21" spans="3:38">
-      <c r="C21" s="65"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="66"/>
       <c r="E21" s="67"/>
       <c r="F21" s="12"/>
@@ -55799,7 +55799,7 @@
       </c>
     </row>
     <row r="22" spans="3:38">
-      <c r="C22" s="65"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="66"/>
       <c r="E22" s="67"/>
       <c r="F22" s="12"/>
@@ -55839,7 +55839,7 @@
       </c>
     </row>
     <row r="23" spans="3:38">
-      <c r="C23" s="65"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="66"/>
       <c r="E23" s="67"/>
       <c r="F23" s="12"/>
@@ -55879,7 +55879,7 @@
       </c>
     </row>
     <row r="24" spans="3:38">
-      <c r="C24" s="65"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="66"/>
       <c r="E24" s="67"/>
       <c r="F24" s="12"/>
@@ -57838,8 +57838,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:37" hidden="1">
-      <c r="C73" s="45"/>
+    <row r="73" spans="3:37">
+      <c r="C73" s="65"/>
       <c r="D73" s="46"/>
       <c r="E73" s="47"/>
       <c r="F73" s="12"/>
@@ -57875,8 +57875,8 @@
       <c r="AJ73" s="14"/>
       <c r="AK73" s="30"/>
     </row>
-    <row r="74" spans="3:37" hidden="1">
-      <c r="C74" s="45"/>
+    <row r="74" spans="3:37">
+      <c r="C74" s="65"/>
       <c r="D74" s="46"/>
       <c r="E74" s="47"/>
       <c r="F74" s="12"/>
@@ -57912,7 +57912,7 @@
       <c r="AJ74" s="14"/>
       <c r="AK74" s="30"/>
     </row>
-    <row r="75" spans="3:37" hidden="1">
+    <row r="75" spans="3:37">
       <c r="C75" s="45"/>
       <c r="D75" s="46"/>
       <c r="E75" s="47"/>
@@ -57949,7 +57949,7 @@
       <c r="AJ75" s="14"/>
       <c r="AK75" s="30"/>
     </row>
-    <row r="76" spans="3:37" hidden="1">
+    <row r="76" spans="3:37">
       <c r="C76" s="45"/>
       <c r="D76" s="46"/>
       <c r="E76" s="47"/>
@@ -59011,6 +59011,7 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="AK11:AK12"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F11:F90">
     <cfRule type="expression" dxfId="199" priority="166">
       <formula>$F$11="DOM"</formula>

--- a/templates/fomio_template.xlsx
+++ b/templates/fomio_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geral\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9315D33-277B-4C58-AECD-861D1B7CC81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808131D7-DCC9-4EA4-917F-294CCC92F74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F24CC36B-B49E-40ED-906B-853EB2E37C31}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>FR</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Piquete 24H</t>
   </si>
   <si>
-    <t>FOR</t>
-  </si>
-  <si>
     <t>Formação</t>
   </si>
   <si>
@@ -96,16 +93,7 @@
     <t>BAIXA</t>
   </si>
   <si>
-    <t>O Chefe da 1ª Secção</t>
-  </si>
-  <si>
-    <t>O Chefe da 2ª Secção</t>
-  </si>
-  <si>
     <t>O Comandante</t>
-  </si>
-  <si>
-    <t>Afixada em:</t>
   </si>
   <si>
     <t>ED</t>
@@ -130,6 +118,9 @@
   </si>
   <si>
     <t>ECIN D/Piquete N</t>
+  </si>
+  <si>
+    <t>FO</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1363,9 +1354,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1489,6 +1477,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1497,24 +1488,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1601,751 +1574,724 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="201">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+  <dxfs count="514">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2353,11 +2299,10 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2369,7 +2314,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2381,41 +2326,34 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2423,757 +2361,11 @@
       <font>
         <b/>
         <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3185,7 +2377,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF002060"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3197,7 +2389,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3205,6 +2397,857 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -3215,6 +3258,17 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -3231,19 +3285,2539 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3321,15 +5895,14 @@
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>154782</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77390</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>55488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="LogCtrl01">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4691DA5A-294B-41D2-9D1F-FA0BD0ACA3CF}"/>
@@ -3341,7 +5914,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3355,7 +5928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="77391" y="83344"/>
-          <a:ext cx="3714750" cy="734144"/>
+          <a:ext cx="3417093" cy="734144"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3391,7 +5964,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3412,9 +5985,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3452,7 +6025,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3558,7 +6131,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3700,7 +6273,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3710,8 +6283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3028F345-7C56-4784-9FD4-3DA609409DA1}">
   <dimension ref="A1:AL130"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A106" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="X122" sqref="X122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -3738,267 +6311,267 @@
     </row>
     <row r="5" spans="3:37"/>
     <row r="6" spans="3:37">
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="103"/>
-      <c r="AK6" s="103"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97"/>
     </row>
     <row r="7" spans="3:37">
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="103"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="103"/>
-      <c r="AK7" s="103"/>
-    </row>
-    <row r="8" spans="3:37" s="75" customFormat="1" ht="3.75" customHeight="1">
-      <c r="F8" s="75" t="str">
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="97"/>
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="97"/>
+    </row>
+    <row r="8" spans="3:37" s="74" customFormat="1" ht="3.75" customHeight="1">
+      <c r="F8" s="74" t="str">
         <f ca="1">IF(OR(C9="Janeiro"&amp;" "&amp;YEAR(NOW()),C9="Maio"&amp;" "&amp;YEAR(NOW()),C9="Novembro"&amp;" "&amp;YEAR(NOW()),C9="Dezembro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="J8" s="75" t="str">
+      <c r="J8" s="74" t="str">
         <f ca="1">IF(OR(C9="Outubro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="M8" s="75" t="str">
+      <c r="M8" s="74" t="str">
         <f ca="1">IF(OR(C9="Dezembro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="O8" s="75" t="str">
+      <c r="O8" s="74" t="str">
         <f ca="1">IF(OR(C9="Junho"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="T8" s="75" t="str">
+      <c r="T8" s="74" t="str">
         <f ca="1">IF(OR(C9="Agosto"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="AD8" s="75" t="str">
+      <c r="AD8" s="74" t="str">
         <f ca="1">IF(OR(C9="Abril"&amp;" "&amp;YEAR(NOW()),C9="Dezembro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="3:37" ht="18.75">
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="104"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="104"/>
-      <c r="AG9" s="104"/>
-      <c r="AH9" s="104"/>
-      <c r="AI9" s="104"/>
-      <c r="AJ9" s="104"/>
-      <c r="AK9" s="104"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="98"/>
     </row>
     <row r="10" spans="3:37" ht="3.75" customHeight="1">
-      <c r="F10" s="76"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="3:37">
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="109" t="s">
+      <c r="E11" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="111" t="s">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="105" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:37">
-      <c r="C12" s="106"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="70"/>
-      <c r="AK12" s="112"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="106"/>
     </row>
     <row r="13" spans="3:37">
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="94"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="88"/>
     </row>
     <row r="14" spans="3:37" hidden="1">
       <c r="C14" s="29"/>
@@ -4038,131 +6611,129 @@
       <c r="AK14" s="30"/>
     </row>
     <row r="15" spans="3:37">
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="38"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="37"/>
       <c r="AK15" s="31">
         <f>COUNTIF(F15:AJ15,"N")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:37">
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="40"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="39"/>
       <c r="AK16" s="31">
         <f>COUNTIF(F16:AJ16,"N")</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:38">
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="94"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17" s="89"/>
+      <c r="AK17" s="88"/>
     </row>
     <row r="18" spans="3:38">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -4197,15 +6768,15 @@
         <f>COUNTIF(F18:AJ18,"PD")+COUNTIF(F18:AJ18,"PN")+COUNTIF(F18:AJ18,"PT")*2+COUNTIF(F18:AJ18,"EP")</f>
         <v>0</v>
       </c>
-      <c r="AL18" t="str">
+      <c r="AL18" t="b">
         <f t="array" ref="AL18">IF(F18:AJ18=0,F18:AJ18="","")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:38">
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -4243,9 +6814,9 @@
       </c>
     </row>
     <row r="20" spans="3:38">
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="12"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -4283,9 +6854,9 @@
       </c>
     </row>
     <row r="21" spans="3:38">
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -4323,9 +6894,9 @@
       </c>
     </row>
     <row r="22" spans="3:38">
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="12"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -4363,9 +6934,9 @@
       </c>
     </row>
     <row r="23" spans="3:38">
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -4403,9 +6974,9 @@
       </c>
     </row>
     <row r="24" spans="3:38">
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="12"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -4443,9 +7014,9 @@
       </c>
     </row>
     <row r="25" spans="3:38">
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -4483,9 +7054,9 @@
       </c>
     </row>
     <row r="26" spans="3:38">
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -4523,9 +7094,9 @@
       </c>
     </row>
     <row r="27" spans="3:38">
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -4563,9 +7134,9 @@
       </c>
     </row>
     <row r="28" spans="3:38">
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="12"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -4603,9 +7174,9 @@
       </c>
     </row>
     <row r="29" spans="3:38">
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -4643,9 +7214,9 @@
       </c>
     </row>
     <row r="30" spans="3:38">
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -4683,9 +7254,9 @@
       </c>
     </row>
     <row r="31" spans="3:38">
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -4723,9 +7294,9 @@
       </c>
     </row>
     <row r="32" spans="3:38">
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="12"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -4763,9 +7334,9 @@
       </c>
     </row>
     <row r="33" spans="3:37">
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -4803,9 +7374,9 @@
       </c>
     </row>
     <row r="34" spans="3:37">
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="12"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -4843,9 +7414,9 @@
       </c>
     </row>
     <row r="35" spans="3:37">
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -4883,9 +7454,9 @@
       </c>
     </row>
     <row r="36" spans="3:37">
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="12"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -4923,9 +7494,9 @@
       </c>
     </row>
     <row r="37" spans="3:37">
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="65"/>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
@@ -4963,9 +7534,9 @@
       </c>
     </row>
     <row r="38" spans="3:37">
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
       <c r="F38" s="12"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -5003,9 +7574,9 @@
       </c>
     </row>
     <row r="39" spans="3:37">
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -5043,9 +7614,9 @@
       </c>
     </row>
     <row r="40" spans="3:37">
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
       <c r="F40" s="12"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -5083,9 +7654,9 @@
       </c>
     </row>
     <row r="41" spans="3:37">
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="66"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="65"/>
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -5123,9 +7694,9 @@
       </c>
     </row>
     <row r="42" spans="3:37">
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="12"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -5163,9 +7734,9 @@
       </c>
     </row>
     <row r="43" spans="3:37">
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="12"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -5203,9 +7774,9 @@
       </c>
     </row>
     <row r="44" spans="3:37">
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="12"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -5243,9 +7814,9 @@
       </c>
     </row>
     <row r="45" spans="3:37">
-      <c r="C45" s="64"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -5283,9 +7854,9 @@
       </c>
     </row>
     <row r="46" spans="3:37">
-      <c r="C46" s="64"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="12"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
@@ -5323,9 +7894,9 @@
       </c>
     </row>
     <row r="47" spans="3:37">
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="65"/>
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
@@ -5363,9 +7934,9 @@
       </c>
     </row>
     <row r="48" spans="3:37">
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="66"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="65"/>
       <c r="F48" s="12"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -5403,9 +7974,9 @@
       </c>
     </row>
     <row r="49" spans="3:37">
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -5443,9 +8014,9 @@
       </c>
     </row>
     <row r="50" spans="3:37">
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="65"/>
       <c r="F50" s="12"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -5483,9 +8054,9 @@
       </c>
     </row>
     <row r="51" spans="3:37">
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="65"/>
       <c r="F51" s="12"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -5523,9 +8094,9 @@
       </c>
     </row>
     <row r="52" spans="3:37">
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
       <c r="F52" s="12"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -5563,9 +8134,9 @@
       </c>
     </row>
     <row r="53" spans="3:37">
-      <c r="C53" s="64"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="65"/>
       <c r="F53" s="12"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
@@ -5603,9 +8174,9 @@
       </c>
     </row>
     <row r="54" spans="3:37">
-      <c r="C54" s="64"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="66"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="65"/>
       <c r="F54" s="12"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
@@ -5643,9 +8214,9 @@
       </c>
     </row>
     <row r="55" spans="3:37">
-      <c r="C55" s="64"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="66"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="12"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
@@ -5683,9 +8254,9 @@
       </c>
     </row>
     <row r="56" spans="3:37">
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="66"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
       <c r="F56" s="12"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
@@ -5723,9 +8294,9 @@
       </c>
     </row>
     <row r="57" spans="3:37">
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="66"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="65"/>
       <c r="F57" s="12"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -5763,9 +8334,9 @@
       </c>
     </row>
     <row r="58" spans="3:37">
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="66"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
       <c r="F58" s="12"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
@@ -5803,9 +8374,9 @@
       </c>
     </row>
     <row r="59" spans="3:37">
-      <c r="C59" s="64"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="66"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="65"/>
       <c r="F59" s="12"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -5843,9 +8414,9 @@
       </c>
     </row>
     <row r="60" spans="3:37">
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="66"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
       <c r="F60" s="12"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -5883,9 +8454,9 @@
       </c>
     </row>
     <row r="61" spans="3:37">
-      <c r="C61" s="64"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="66"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
       <c r="F61" s="12"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -5923,9 +8494,9 @@
       </c>
     </row>
     <row r="62" spans="3:37">
-      <c r="C62" s="64"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="66"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
       <c r="F62" s="12"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -5963,9 +8534,9 @@
       </c>
     </row>
     <row r="63" spans="3:37">
-      <c r="C63" s="64"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="66"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
       <c r="F63" s="12"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -6003,9 +8574,9 @@
       </c>
     </row>
     <row r="64" spans="3:37">
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="66"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
       <c r="F64" s="12"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
@@ -6043,9 +8614,9 @@
       </c>
     </row>
     <row r="65" spans="3:37">
-      <c r="C65" s="64"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="66"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
       <c r="F65" s="12"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
@@ -6083,9 +8654,9 @@
       </c>
     </row>
     <row r="66" spans="3:37">
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="66"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="65"/>
       <c r="F66" s="12"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -6123,9 +8694,9 @@
       </c>
     </row>
     <row r="67" spans="3:37">
-      <c r="C67" s="64"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="66"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="65"/>
       <c r="F67" s="12"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -6163,9 +8734,9 @@
       </c>
     </row>
     <row r="68" spans="3:37">
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="66"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="65"/>
       <c r="F68" s="12"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -6203,9 +8774,9 @@
       </c>
     </row>
     <row r="69" spans="3:37">
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="66"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
       <c r="F69" s="12"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -6243,9 +8814,9 @@
       </c>
     </row>
     <row r="70" spans="3:37">
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="66"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="65"/>
       <c r="F70" s="12"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
@@ -6283,9 +8854,9 @@
       </c>
     </row>
     <row r="71" spans="3:37">
-      <c r="C71" s="64"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="66"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="65"/>
       <c r="F71" s="12"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
@@ -6323,9 +8894,9 @@
       </c>
     </row>
     <row r="72" spans="3:37">
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="66"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="65"/>
       <c r="F72" s="12"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
@@ -6363,9 +8934,9 @@
       </c>
     </row>
     <row r="73" spans="3:37">
-      <c r="C73" s="64"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
       <c r="F73" s="12"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -6403,9 +8974,9 @@
       </c>
     </row>
     <row r="74" spans="3:37">
-      <c r="C74" s="64"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
       <c r="F74" s="12"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
@@ -6443,9 +9014,9 @@
       </c>
     </row>
     <row r="75" spans="3:37">
-      <c r="C75" s="44"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="45"/>
       <c r="F75" s="12"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -6483,9 +9054,9 @@
       </c>
     </row>
     <row r="76" spans="3:37">
-      <c r="C76" s="44"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="45"/>
       <c r="F76" s="12"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
@@ -6523,9 +9094,9 @@
       </c>
     </row>
     <row r="77" spans="3:37">
-      <c r="C77" s="44"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="45"/>
       <c r="F77" s="12"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
@@ -6563,9 +9134,9 @@
       </c>
     </row>
     <row r="78" spans="3:37">
-      <c r="C78" s="44"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="46"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="45"/>
       <c r="F78" s="12"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -6603,9 +9174,9 @@
       </c>
     </row>
     <row r="79" spans="3:37">
-      <c r="C79" s="44"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="45"/>
       <c r="F79" s="12"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -6643,9 +9214,9 @@
       </c>
     </row>
     <row r="80" spans="3:37">
-      <c r="C80" s="44"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="46"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="45"/>
       <c r="F80" s="12"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
@@ -6683,9 +9254,9 @@
       </c>
     </row>
     <row r="81" spans="3:37">
-      <c r="C81" s="44"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="46"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="45"/>
       <c r="F81" s="12"/>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
@@ -6723,9 +9294,9 @@
       </c>
     </row>
     <row r="82" spans="3:37">
-      <c r="C82" s="44"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="46"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="45"/>
       <c r="F82" s="12"/>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -6763,9 +9334,9 @@
       </c>
     </row>
     <row r="83" spans="3:37">
-      <c r="C83" s="44"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="45"/>
       <c r="F83" s="12"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -6803,9 +9374,9 @@
       </c>
     </row>
     <row r="84" spans="3:37">
-      <c r="C84" s="44"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="45"/>
       <c r="F84" s="12"/>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
@@ -6843,9 +9414,9 @@
       </c>
     </row>
     <row r="85" spans="3:37">
-      <c r="C85" s="44"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="46"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="45"/>
       <c r="F85" s="12"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
@@ -6883,9 +9454,9 @@
       </c>
     </row>
     <row r="86" spans="3:37">
-      <c r="C86" s="44"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="46"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="45"/>
       <c r="F86" s="12"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -6923,9 +9494,9 @@
       </c>
     </row>
     <row r="87" spans="3:37">
-      <c r="C87" s="44"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="45"/>
       <c r="F87" s="12"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
@@ -6963,9 +9534,9 @@
       </c>
     </row>
     <row r="88" spans="3:37">
-      <c r="C88" s="44"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="46"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="45"/>
       <c r="F88" s="12"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -7003,9 +9574,9 @@
       </c>
     </row>
     <row r="89" spans="3:37">
-      <c r="C89" s="44"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="46"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="45"/>
       <c r="F89" s="12"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -7043,9 +9614,9 @@
       </c>
     </row>
     <row r="90" spans="3:37">
-      <c r="C90" s="44"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="45"/>
       <c r="F90" s="12"/>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
@@ -7083,9 +9654,9 @@
       </c>
     </row>
     <row r="91" spans="3:37">
-      <c r="C91" s="44"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="46"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="45"/>
       <c r="F91" s="12"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -7123,9 +9694,9 @@
       </c>
     </row>
     <row r="92" spans="3:37">
-      <c r="C92" s="44"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="46"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="45"/>
       <c r="F92" s="12"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -7163,9 +9734,9 @@
       </c>
     </row>
     <row r="93" spans="3:37">
-      <c r="C93" s="44"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="46"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="45"/>
       <c r="F93" s="12"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
@@ -7203,9 +9774,9 @@
       </c>
     </row>
     <row r="94" spans="3:37">
-      <c r="C94" s="44"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="46"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="45"/>
       <c r="F94" s="12"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
@@ -7243,9 +9814,9 @@
       </c>
     </row>
     <row r="95" spans="3:37">
-      <c r="C95" s="44"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="45"/>
       <c r="F95" s="12"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
@@ -7283,9 +9854,9 @@
       </c>
     </row>
     <row r="96" spans="3:37">
-      <c r="C96" s="44"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="46"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="45"/>
       <c r="F96" s="12"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
@@ -7323,9 +9894,9 @@
       </c>
     </row>
     <row r="97" spans="3:37">
-      <c r="C97" s="44"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="46"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="45"/>
       <c r="F97" s="12"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
@@ -7363,9 +9934,9 @@
       </c>
     </row>
     <row r="98" spans="3:37">
-      <c r="C98" s="44"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="46"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="45"/>
       <c r="F98" s="12"/>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
@@ -7403,9 +9974,9 @@
       </c>
     </row>
     <row r="99" spans="3:37">
-      <c r="C99" s="44"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="46"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="45"/>
       <c r="F99" s="12"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
@@ -7443,9 +10014,9 @@
       </c>
     </row>
     <row r="100" spans="3:37">
-      <c r="C100" s="44"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="46"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="45"/>
       <c r="F100" s="12"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
@@ -7483,9 +10054,9 @@
       </c>
     </row>
     <row r="101" spans="3:37">
-      <c r="C101" s="44"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="46"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="45"/>
       <c r="F101" s="12"/>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
@@ -7523,9 +10094,9 @@
       </c>
     </row>
     <row r="102" spans="3:37">
-      <c r="C102" s="44"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="46"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="45"/>
       <c r="F102" s="12"/>
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
@@ -7563,9 +10134,9 @@
       </c>
     </row>
     <row r="103" spans="3:37">
-      <c r="C103" s="44"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="46"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="45"/>
       <c r="F103" s="12"/>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
@@ -7603,9 +10174,9 @@
       </c>
     </row>
     <row r="104" spans="3:37">
-      <c r="C104" s="44"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="46"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="45"/>
       <c r="F104" s="12"/>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
@@ -7643,9 +10214,9 @@
       </c>
     </row>
     <row r="105" spans="3:37">
-      <c r="C105" s="44"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="46"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="45"/>
       <c r="F105" s="12"/>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
@@ -7683,9 +10254,9 @@
       </c>
     </row>
     <row r="106" spans="3:37">
-      <c r="C106" s="44"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="46"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="45"/>
       <c r="F106" s="12"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
@@ -7723,9 +10294,9 @@
       </c>
     </row>
     <row r="107" spans="3:37">
-      <c r="C107" s="44"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="46"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="45"/>
       <c r="F107" s="12"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
@@ -7763,9 +10334,9 @@
       </c>
     </row>
     <row r="108" spans="3:37">
-      <c r="C108" s="44"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="46"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="45"/>
       <c r="F108" s="12"/>
       <c r="G108" s="13"/>
       <c r="H108" s="13"/>
@@ -7803,9 +10374,9 @@
       </c>
     </row>
     <row r="109" spans="3:37">
-      <c r="C109" s="44"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="46"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="45"/>
       <c r="F109" s="12"/>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
@@ -7843,9 +10414,9 @@
       </c>
     </row>
     <row r="110" spans="3:37">
-      <c r="C110" s="44"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="46"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="45"/>
       <c r="F110" s="12"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
@@ -7883,9 +10454,9 @@
       </c>
     </row>
     <row r="111" spans="3:37">
-      <c r="C111" s="44"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="46"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="45"/>
       <c r="F111" s="12"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
@@ -7923,9 +10494,9 @@
       </c>
     </row>
     <row r="112" spans="3:37">
-      <c r="C112" s="44"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="46"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="45"/>
       <c r="F112" s="12"/>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
@@ -7963,9 +10534,9 @@
       </c>
     </row>
     <row r="113" spans="3:37">
-      <c r="C113" s="44"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="46"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="45"/>
       <c r="F113" s="12"/>
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
@@ -8003,9 +10574,9 @@
       </c>
     </row>
     <row r="114" spans="3:37">
-      <c r="C114" s="44"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="46"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="45"/>
       <c r="F114" s="12"/>
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
@@ -8043,9 +10614,9 @@
       </c>
     </row>
     <row r="115" spans="3:37">
-      <c r="C115" s="44"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="46"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="45"/>
       <c r="F115" s="12"/>
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
@@ -8083,9 +10654,9 @@
       </c>
     </row>
     <row r="116" spans="3:37">
-      <c r="C116" s="44"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="46"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="45"/>
       <c r="F116" s="12"/>
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
@@ -8123,9 +10694,9 @@
       </c>
     </row>
     <row r="117" spans="3:37">
-      <c r="C117" s="47"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="49"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="48"/>
       <c r="F117" s="33"/>
       <c r="G117" s="34"/>
       <c r="H117" s="34"/>
@@ -8163,46 +10734,46 @@
       </c>
     </row>
     <row r="118" spans="3:37" ht="3.75" customHeight="1">
-      <c r="C118" s="50"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="52"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="53"/>
-      <c r="M118" s="53"/>
-      <c r="N118" s="53"/>
-      <c r="O118" s="53"/>
-      <c r="P118" s="53"/>
-      <c r="Q118" s="53"/>
-      <c r="R118" s="53"/>
-      <c r="S118" s="53"/>
-      <c r="T118" s="53"/>
-      <c r="U118" s="53"/>
-      <c r="V118" s="53"/>
-      <c r="W118" s="53"/>
-      <c r="X118" s="53"/>
-      <c r="Y118" s="53"/>
-      <c r="Z118" s="53"/>
-      <c r="AA118" s="53"/>
-      <c r="AB118" s="53"/>
-      <c r="AC118" s="53"/>
-      <c r="AD118" s="53"/>
-      <c r="AE118" s="53"/>
-      <c r="AF118" s="53"/>
-      <c r="AG118" s="53"/>
-      <c r="AH118" s="53"/>
-      <c r="AI118" s="53"/>
-      <c r="AJ118" s="53"/>
-      <c r="AK118" s="54"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="51"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
+      <c r="I118" s="52"/>
+      <c r="J118" s="52"/>
+      <c r="K118" s="52"/>
+      <c r="L118" s="52"/>
+      <c r="M118" s="52"/>
+      <c r="N118" s="52"/>
+      <c r="O118" s="52"/>
+      <c r="P118" s="52"/>
+      <c r="Q118" s="52"/>
+      <c r="R118" s="52"/>
+      <c r="S118" s="52"/>
+      <c r="T118" s="52"/>
+      <c r="U118" s="52"/>
+      <c r="V118" s="52"/>
+      <c r="W118" s="52"/>
+      <c r="X118" s="52"/>
+      <c r="Y118" s="52"/>
+      <c r="Z118" s="52"/>
+      <c r="AA118" s="52"/>
+      <c r="AB118" s="52"/>
+      <c r="AC118" s="52"/>
+      <c r="AD118" s="52"/>
+      <c r="AE118" s="52"/>
+      <c r="AF118" s="52"/>
+      <c r="AG118" s="52"/>
+      <c r="AH118" s="52"/>
+      <c r="AI118" s="52"/>
+      <c r="AJ118" s="52"/>
+      <c r="AK118" s="53"/>
     </row>
     <row r="119" spans="3:37">
       <c r="E119" s="16"/>
       <c r="F119" s="17">
-        <f>COUNTIFS(F18:F117,"PD")+COUNTIFS(F18:F117,"PN")+COUNTIFS(F18:F117,"PT")*2+COUNTIFS(F18:F117,"EP")</f>
+        <f>COUNTIFS(F18:F117,"PD")+COUNTIFS(F18:F117,"PN")+COUNTIFS(F18:F117,"PT")+COUNTIFS(F18:F117,"EP")</f>
         <v>0</v>
       </c>
       <c r="G119" s="18">
@@ -8335,51 +10906,51 @@
       <c r="F121" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G121" s="96" t="s">
+      <c r="G121" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H121" s="96"/>
-      <c r="I121" s="96"/>
-      <c r="J121" s="96"/>
+      <c r="H121" s="90"/>
+      <c r="I121" s="90"/>
+      <c r="J121" s="90"/>
       <c r="K121" s="15"/>
       <c r="L121" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M121" s="97" t="s">
+      <c r="M121" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="N121" s="98"/>
-      <c r="O121" s="98"/>
-      <c r="P121" s="99"/>
+      <c r="N121" s="92"/>
+      <c r="O121" s="92"/>
+      <c r="P121" s="93"/>
       <c r="Q121" s="15"/>
       <c r="R121" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S121" s="97" t="s">
+      <c r="S121" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="T121" s="98"/>
-      <c r="U121" s="98"/>
-      <c r="V121" s="99"/>
+      <c r="T121" s="92"/>
+      <c r="U121" s="92"/>
+      <c r="V121" s="93"/>
       <c r="X121" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y121" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Y121" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z121" s="98"/>
-      <c r="AA121" s="98"/>
-      <c r="AB121" s="99"/>
+      <c r="Z121" s="92"/>
+      <c r="AA121" s="92"/>
+      <c r="AB121" s="93"/>
       <c r="AC121" s="15"/>
       <c r="AD121" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE121" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="AE121" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF121" s="98"/>
-      <c r="AG121" s="98"/>
-      <c r="AH121" s="99"/>
+      <c r="AF121" s="92"/>
+      <c r="AG121" s="92"/>
+      <c r="AH121" s="93"/>
     </row>
     <row r="122" spans="3:37" ht="3.75" customHeight="1">
       <c r="E122" s="16"/>
@@ -8387,223 +10958,217 @@
     <row r="123" spans="3:37">
       <c r="E123" s="16"/>
       <c r="F123" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="G123" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" s="96"/>
-      <c r="I123" s="96"/>
-      <c r="J123" s="96"/>
-      <c r="L123" s="71" t="s">
+      <c r="H123" s="90"/>
+      <c r="I123" s="90"/>
+      <c r="J123" s="90"/>
+      <c r="L123" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="M123" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="N123" s="90"/>
+      <c r="O123" s="90"/>
+      <c r="P123" s="90"/>
+      <c r="R123" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="S123" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="T123" s="92"/>
+      <c r="U123" s="92"/>
+      <c r="V123" s="93"/>
+      <c r="W123" s="15"/>
+      <c r="X123" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="M123" s="96" t="s">
+      <c r="Y123" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="N123" s="96"/>
-      <c r="O123" s="96"/>
-      <c r="P123" s="96"/>
-      <c r="R123" s="72" t="s">
+      <c r="Z123" s="92"/>
+      <c r="AA123" s="92"/>
+      <c r="AB123" s="93"/>
+      <c r="AD123" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="S123" s="97" t="s">
+      <c r="AE123" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="T123" s="98"/>
-      <c r="U123" s="98"/>
-      <c r="V123" s="99"/>
-      <c r="W123" s="15"/>
-      <c r="X123" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y123" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z123" s="98"/>
-      <c r="AA123" s="98"/>
-      <c r="AB123" s="99"/>
-      <c r="AD123" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE123" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF123" s="101"/>
-      <c r="AG123" s="101"/>
-      <c r="AH123" s="102"/>
+      <c r="AF123" s="95"/>
+      <c r="AG123" s="95"/>
+      <c r="AH123" s="96"/>
     </row>
     <row r="124" spans="3:37">
       <c r="E124" s="16"/>
     </row>
     <row r="125" spans="3:37">
-      <c r="D125" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="E125" s="78"/>
-      <c r="F125" s="79"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="I125" s="78"/>
-      <c r="J125" s="78"/>
-      <c r="K125" s="78"/>
-      <c r="L125" s="78"/>
-      <c r="M125" s="78"/>
+      <c r="D125" s="76"/>
+      <c r="E125" s="76"/>
+      <c r="F125" s="76"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="76"/>
+      <c r="I125" s="76"/>
+      <c r="J125" s="76"/>
+      <c r="K125" s="76"/>
+      <c r="L125" s="76"/>
+      <c r="M125" s="77" t="s">
+        <v>19</v>
+      </c>
       <c r="N125" s="78"/>
-      <c r="O125" s="79"/>
-      <c r="P125" s="36"/>
-      <c r="Q125" s="77" t="s">
-        <v>22</v>
-      </c>
+      <c r="O125" s="78"/>
+      <c r="P125" s="78"/>
+      <c r="Q125" s="78"/>
       <c r="R125" s="78"/>
       <c r="S125" s="78"/>
       <c r="T125" s="78"/>
-      <c r="U125" s="78"/>
-      <c r="V125" s="78"/>
-      <c r="W125" s="78"/>
-      <c r="X125" s="79"/>
-      <c r="Y125" s="36"/>
-      <c r="Z125" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA125" s="78"/>
-      <c r="AB125" s="78"/>
-      <c r="AC125" s="78"/>
-      <c r="AD125" s="78"/>
-      <c r="AE125" s="78"/>
-      <c r="AF125" s="78"/>
-      <c r="AG125" s="79"/>
+      <c r="U125" s="79"/>
+      <c r="V125" s="76"/>
+      <c r="W125" s="76"/>
+      <c r="X125" s="76"/>
+      <c r="Y125" s="76"/>
+      <c r="Z125" s="76"/>
+      <c r="AA125" s="76"/>
+      <c r="AB125" s="76"/>
+      <c r="AC125" s="76"/>
+      <c r="AD125" s="76"/>
+      <c r="AE125" s="76"/>
+      <c r="AF125" s="76"/>
+      <c r="AG125" s="76"/>
     </row>
     <row r="126" spans="3:37">
-      <c r="D126" s="80"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="82"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="86"/>
-      <c r="I126" s="87"/>
-      <c r="J126" s="87"/>
-      <c r="K126" s="87"/>
-      <c r="L126" s="87"/>
-      <c r="M126" s="87"/>
-      <c r="N126" s="87"/>
-      <c r="O126" s="88"/>
-      <c r="P126" s="36"/>
-      <c r="Q126" s="86"/>
-      <c r="R126" s="87"/>
-      <c r="S126" s="87"/>
-      <c r="T126" s="87"/>
-      <c r="U126" s="87"/>
-      <c r="V126" s="87"/>
-      <c r="W126" s="87"/>
-      <c r="X126" s="88"/>
-      <c r="Y126" s="36"/>
-      <c r="Z126" s="86"/>
-      <c r="AA126" s="87"/>
-      <c r="AB126" s="87"/>
-      <c r="AC126" s="87"/>
-      <c r="AD126" s="87"/>
-      <c r="AE126" s="87"/>
-      <c r="AF126" s="87"/>
-      <c r="AG126" s="88"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="76"/>
+      <c r="I126" s="76"/>
+      <c r="J126" s="76"/>
+      <c r="K126" s="76"/>
+      <c r="L126" s="76"/>
+      <c r="M126" s="80"/>
+      <c r="N126" s="81"/>
+      <c r="O126" s="81"/>
+      <c r="P126" s="81"/>
+      <c r="Q126" s="81"/>
+      <c r="R126" s="81"/>
+      <c r="S126" s="81"/>
+      <c r="T126" s="81"/>
+      <c r="U126" s="82"/>
+      <c r="V126" s="76"/>
+      <c r="W126" s="76"/>
+      <c r="X126" s="76"/>
+      <c r="Y126" s="76"/>
+      <c r="Z126" s="76"/>
+      <c r="AA126" s="76"/>
+      <c r="AB126" s="76"/>
+      <c r="AC126" s="76"/>
+      <c r="AD126" s="76"/>
+      <c r="AE126" s="76"/>
+      <c r="AF126" s="76"/>
+      <c r="AG126" s="76"/>
     </row>
     <row r="127" spans="3:37">
-      <c r="D127" s="80"/>
-      <c r="E127" s="81"/>
-      <c r="F127" s="82"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="86"/>
-      <c r="I127" s="87"/>
-      <c r="J127" s="87"/>
-      <c r="K127" s="87"/>
-      <c r="L127" s="87"/>
-      <c r="M127" s="87"/>
-      <c r="N127" s="87"/>
-      <c r="O127" s="88"/>
-      <c r="P127" s="36"/>
-      <c r="Q127" s="86"/>
-      <c r="R127" s="87"/>
-      <c r="S127" s="87"/>
-      <c r="T127" s="87"/>
-      <c r="U127" s="87"/>
-      <c r="V127" s="87"/>
-      <c r="W127" s="87"/>
-      <c r="X127" s="88"/>
-      <c r="Y127" s="36"/>
-      <c r="Z127" s="86"/>
-      <c r="AA127" s="87"/>
-      <c r="AB127" s="87"/>
-      <c r="AC127" s="87"/>
-      <c r="AD127" s="87"/>
-      <c r="AE127" s="87"/>
-      <c r="AF127" s="87"/>
-      <c r="AG127" s="88"/>
+      <c r="D127" s="76"/>
+      <c r="E127" s="76"/>
+      <c r="F127" s="76"/>
+      <c r="G127" s="76"/>
+      <c r="H127" s="76"/>
+      <c r="I127" s="76"/>
+      <c r="J127" s="76"/>
+      <c r="K127" s="76"/>
+      <c r="L127" s="76"/>
+      <c r="M127" s="80"/>
+      <c r="N127" s="81"/>
+      <c r="O127" s="81"/>
+      <c r="P127" s="81"/>
+      <c r="Q127" s="81"/>
+      <c r="R127" s="81"/>
+      <c r="S127" s="81"/>
+      <c r="T127" s="81"/>
+      <c r="U127" s="82"/>
+      <c r="V127" s="76"/>
+      <c r="W127" s="76"/>
+      <c r="X127" s="76"/>
+      <c r="Y127" s="76"/>
+      <c r="Z127" s="76"/>
+      <c r="AA127" s="76"/>
+      <c r="AB127" s="76"/>
+      <c r="AC127" s="76"/>
+      <c r="AD127" s="76"/>
+      <c r="AE127" s="76"/>
+      <c r="AF127" s="76"/>
+      <c r="AG127" s="76"/>
     </row>
     <row r="128" spans="3:37">
-      <c r="D128" s="80"/>
-      <c r="E128" s="81"/>
-      <c r="F128" s="82"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="86"/>
-      <c r="I128" s="87"/>
-      <c r="J128" s="87"/>
-      <c r="K128" s="87"/>
-      <c r="L128" s="87"/>
-      <c r="M128" s="87"/>
-      <c r="N128" s="87"/>
-      <c r="O128" s="88"/>
-      <c r="P128" s="36"/>
-      <c r="Q128" s="86"/>
-      <c r="R128" s="87"/>
-      <c r="S128" s="87"/>
-      <c r="T128" s="87"/>
-      <c r="U128" s="87"/>
-      <c r="V128" s="87"/>
-      <c r="W128" s="87"/>
-      <c r="X128" s="88"/>
-      <c r="Y128" s="36"/>
-      <c r="Z128" s="86"/>
-      <c r="AA128" s="87"/>
-      <c r="AB128" s="87"/>
-      <c r="AC128" s="87"/>
-      <c r="AD128" s="87"/>
-      <c r="AE128" s="87"/>
-      <c r="AF128" s="87"/>
-      <c r="AG128" s="88"/>
+      <c r="D128" s="76"/>
+      <c r="E128" s="76"/>
+      <c r="F128" s="76"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="76"/>
+      <c r="I128" s="76"/>
+      <c r="J128" s="76"/>
+      <c r="K128" s="76"/>
+      <c r="L128" s="76"/>
+      <c r="M128" s="80"/>
+      <c r="N128" s="81"/>
+      <c r="O128" s="81"/>
+      <c r="P128" s="81"/>
+      <c r="Q128" s="81"/>
+      <c r="R128" s="81"/>
+      <c r="S128" s="81"/>
+      <c r="T128" s="81"/>
+      <c r="U128" s="82"/>
+      <c r="V128" s="76"/>
+      <c r="W128" s="76"/>
+      <c r="X128" s="76"/>
+      <c r="Y128" s="76"/>
+      <c r="Z128" s="76"/>
+      <c r="AA128" s="76"/>
+      <c r="AB128" s="76"/>
+      <c r="AC128" s="76"/>
+      <c r="AD128" s="76"/>
+      <c r="AE128" s="76"/>
+      <c r="AF128" s="76"/>
+      <c r="AG128" s="76"/>
     </row>
     <row r="129" spans="3:37">
       <c r="C129" s="27"/>
-      <c r="D129" s="83"/>
-      <c r="E129" s="84"/>
-      <c r="F129" s="85"/>
-      <c r="G129" s="36"/>
-      <c r="H129" s="89"/>
-      <c r="I129" s="90"/>
-      <c r="J129" s="90"/>
-      <c r="K129" s="90"/>
-      <c r="L129" s="90"/>
-      <c r="M129" s="90"/>
-      <c r="N129" s="90"/>
-      <c r="O129" s="91"/>
-      <c r="P129" s="36"/>
-      <c r="Q129" s="89"/>
-      <c r="R129" s="90"/>
-      <c r="S129" s="90"/>
-      <c r="T129" s="90"/>
-      <c r="U129" s="90"/>
-      <c r="V129" s="90"/>
-      <c r="W129" s="90"/>
-      <c r="X129" s="91"/>
-      <c r="Y129" s="36"/>
-      <c r="Z129" s="89"/>
-      <c r="AA129" s="90"/>
-      <c r="AB129" s="90"/>
-      <c r="AC129" s="90"/>
-      <c r="AD129" s="90"/>
-      <c r="AE129" s="90"/>
-      <c r="AF129" s="90"/>
-      <c r="AG129" s="91"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="76"/>
+      <c r="I129" s="76"/>
+      <c r="J129" s="76"/>
+      <c r="K129" s="76"/>
+      <c r="L129" s="76"/>
+      <c r="M129" s="83"/>
+      <c r="N129" s="84"/>
+      <c r="O129" s="84"/>
+      <c r="P129" s="84"/>
+      <c r="Q129" s="84"/>
+      <c r="R129" s="84"/>
+      <c r="S129" s="84"/>
+      <c r="T129" s="84"/>
+      <c r="U129" s="85"/>
+      <c r="V129" s="76"/>
+      <c r="W129" s="76"/>
+      <c r="X129" s="76"/>
+      <c r="Y129" s="76"/>
+      <c r="Z129" s="76"/>
+      <c r="AA129" s="76"/>
+      <c r="AB129" s="76"/>
+      <c r="AC129" s="76"/>
+      <c r="AD129" s="76"/>
+      <c r="AE129" s="76"/>
+      <c r="AF129" s="76"/>
+      <c r="AG129" s="76"/>
       <c r="AH129" s="28"/>
       <c r="AI129" s="28"/>
       <c r="AJ129" s="28"/>
@@ -8641,18 +11206,15 @@
       <c r="AK130" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="20">
     <mergeCell ref="C6:AK7"/>
     <mergeCell ref="C9:AK9"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="M123:P123"/>
-    <mergeCell ref="S123:V123"/>
-    <mergeCell ref="Y123:AB123"/>
-    <mergeCell ref="AE123:AH123"/>
+    <mergeCell ref="M125:U125"/>
+    <mergeCell ref="M126:U129"/>
     <mergeCell ref="C13:AK13"/>
     <mergeCell ref="C17:AK17"/>
     <mergeCell ref="G121:J121"/>
@@ -8660,383 +11222,389 @@
     <mergeCell ref="S121:V121"/>
     <mergeCell ref="Y121:AB121"/>
     <mergeCell ref="AE121:AH121"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D126:F129"/>
-    <mergeCell ref="H125:O125"/>
-    <mergeCell ref="Q125:X125"/>
-    <mergeCell ref="Z125:AG125"/>
-    <mergeCell ref="Z126:AG129"/>
-    <mergeCell ref="Q126:X129"/>
-    <mergeCell ref="H126:O129"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="M123:P123"/>
+    <mergeCell ref="S123:V123"/>
+    <mergeCell ref="Y123:AB123"/>
+    <mergeCell ref="AE123:AH123"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F11:F117">
-    <cfRule type="expression" dxfId="200" priority="165">
+    <cfRule type="expression" dxfId="207" priority="170">
+      <formula>$F$11="DOM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="168">
       <formula>$F$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="166">
+    <cfRule type="expression" dxfId="205" priority="169">
       <formula>$F$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="167">
-      <formula>$F$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:AJ16">
-    <cfRule type="cellIs" dxfId="197" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="5" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:AJ117">
-    <cfRule type="cellIs" dxfId="196" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="4" operator="equal">
+      <formula>"ED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="6" operator="equal">
       <formula>"PN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="7" operator="equal">
       <formula>"PD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="8" operator="equal">
       <formula>"PT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="6" operator="equal">
-      <formula>"FOR"</formula>
+    <cfRule type="cellIs" dxfId="104" priority="9" operator="equal">
+      <formula>"FO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="10" operator="equal">
       <formula>"FE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="11" operator="equal">
       <formula>"BX"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
-      <formula>"ED"</formula>
+    <cfRule type="cellIs" dxfId="197" priority="3" operator="equal">
+      <formula>"EN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="2" operator="equal">
+      <formula>"ET"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="1" operator="equal">
+      <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G117">
-    <cfRule type="expression" dxfId="190" priority="162">
+    <cfRule type="expression" dxfId="194" priority="165">
       <formula>$G$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="163">
+    <cfRule type="expression" dxfId="193" priority="166">
       <formula>$G$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="164">
+    <cfRule type="expression" dxfId="192" priority="167">
       <formula>$G$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H117">
-    <cfRule type="expression" dxfId="187" priority="159">
-      <formula>$H$8="FR"</formula>
+    <cfRule type="expression" dxfId="191" priority="164">
+      <formula>$H$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="160">
+    <cfRule type="expression" dxfId="190" priority="163">
       <formula>$H$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="161">
-      <formula>$H$11="DOM"</formula>
+    <cfRule type="expression" dxfId="189" priority="162">
+      <formula>$H$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I117">
-    <cfRule type="expression" dxfId="184" priority="156">
-      <formula>$I$8="FR"</formula>
+    <cfRule type="expression" dxfId="188" priority="161">
+      <formula>$I$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="157">
+    <cfRule type="expression" dxfId="187" priority="160">
       <formula>$I$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="158">
-      <formula>$I$11="DOM"</formula>
+    <cfRule type="expression" dxfId="186" priority="159">
+      <formula>$I$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J117">
-    <cfRule type="expression" dxfId="181" priority="153">
-      <formula>$J$8="FR"</formula>
+    <cfRule type="expression" dxfId="185" priority="158">
+      <formula>$J$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="154">
+    <cfRule type="expression" dxfId="184" priority="157">
       <formula>$J$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="155">
-      <formula>$J$11="DOM"</formula>
+    <cfRule type="expression" dxfId="183" priority="156">
+      <formula>$J$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K117">
-    <cfRule type="expression" dxfId="178" priority="150">
-      <formula>$K$8="FR"</formula>
+    <cfRule type="expression" dxfId="182" priority="155">
+      <formula>$K$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="151">
+    <cfRule type="expression" dxfId="181" priority="154">
       <formula>$K$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="152">
-      <formula>$K$11="DOM"</formula>
+    <cfRule type="expression" dxfId="180" priority="153">
+      <formula>$K$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L117">
-    <cfRule type="expression" dxfId="175" priority="147">
-      <formula>$L$8="FR"</formula>
+    <cfRule type="expression" dxfId="179" priority="152">
+      <formula>$L$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="148">
+    <cfRule type="expression" dxfId="178" priority="151">
       <formula>$L$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="149">
-      <formula>$L$11="DOM"</formula>
+    <cfRule type="expression" dxfId="177" priority="150">
+      <formula>$L$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M117">
-    <cfRule type="expression" dxfId="172" priority="144">
-      <formula>$M$8="FR"</formula>
+    <cfRule type="expression" dxfId="176" priority="149">
+      <formula>$M$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="145">
+    <cfRule type="expression" dxfId="175" priority="148">
       <formula>$M$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="146">
-      <formula>$M$11="DOM"</formula>
+    <cfRule type="expression" dxfId="174" priority="147">
+      <formula>$M$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N117">
-    <cfRule type="expression" dxfId="169" priority="141">
-      <formula>$N$8="FR"</formula>
+    <cfRule type="expression" dxfId="173" priority="146">
+      <formula>$N$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="142">
+    <cfRule type="expression" dxfId="172" priority="145">
       <formula>$N$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="143">
-      <formula>$N$11="DOM"</formula>
+    <cfRule type="expression" dxfId="171" priority="144">
+      <formula>$N$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O117">
-    <cfRule type="expression" dxfId="166" priority="138">
-      <formula>$O$8="FR"</formula>
+    <cfRule type="expression" dxfId="170" priority="143">
+      <formula>$O$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="139">
+    <cfRule type="expression" dxfId="169" priority="142">
       <formula>$O$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="140">
-      <formula>$O$11="DOM"</formula>
+    <cfRule type="expression" dxfId="168" priority="141">
+      <formula>$O$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P117">
-    <cfRule type="expression" dxfId="163" priority="135">
-      <formula>$P$8="FR"</formula>
+    <cfRule type="expression" dxfId="167" priority="140">
+      <formula>$P$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="136">
+    <cfRule type="expression" dxfId="166" priority="139">
       <formula>$P$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="137">
-      <formula>$P$11="DOM"</formula>
+    <cfRule type="expression" dxfId="165" priority="138">
+      <formula>$P$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q117">
-    <cfRule type="expression" dxfId="160" priority="69">
-      <formula>$Q$8="FR"</formula>
+    <cfRule type="expression" dxfId="164" priority="137">
+      <formula>$Q$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="70">
+    <cfRule type="expression" dxfId="163" priority="73">
       <formula>$Q$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="134">
-      <formula>$Q$11="DOM"</formula>
+    <cfRule type="expression" dxfId="162" priority="72">
+      <formula>$Q$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R117">
-    <cfRule type="expression" dxfId="157" priority="63">
+    <cfRule type="expression" dxfId="161" priority="66">
       <formula>$R$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="64">
+    <cfRule type="expression" dxfId="160" priority="71">
+      <formula>$R$11="DOM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="67">
       <formula>$R$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="68">
-      <formula>$R$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S117">
-    <cfRule type="expression" dxfId="154" priority="60">
+    <cfRule type="expression" dxfId="158" priority="64">
+      <formula>$S$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="63">
       <formula>$S$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="61">
-      <formula>$S$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="62">
+    <cfRule type="expression" dxfId="156" priority="65">
       <formula>$S$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T117">
-    <cfRule type="expression" dxfId="151" priority="57">
-      <formula>$T$8="FR"</formula>
+    <cfRule type="expression" dxfId="155" priority="62">
+      <formula>$T$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="58">
+    <cfRule type="expression" dxfId="154" priority="61">
       <formula>$T$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="59">
-      <formula>$T$11="DOM"</formula>
+    <cfRule type="expression" dxfId="153" priority="60">
+      <formula>$T$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U117">
-    <cfRule type="expression" dxfId="148" priority="54">
+    <cfRule type="expression" dxfId="152" priority="59">
+      <formula>$U$11="DOM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="57">
       <formula>$U$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="55">
+    <cfRule type="expression" dxfId="150" priority="58">
       <formula>$U$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="56">
-      <formula>$U$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V117">
-    <cfRule type="expression" dxfId="145" priority="51">
+    <cfRule type="expression" dxfId="149" priority="54">
       <formula>$V$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="52">
+    <cfRule type="expression" dxfId="148" priority="55">
       <formula>$V$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="53">
+    <cfRule type="expression" dxfId="147" priority="56">
       <formula>$V$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W117">
-    <cfRule type="expression" dxfId="142" priority="48">
-      <formula>$W$8="FR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="49">
+    <cfRule type="expression" dxfId="146" priority="52">
       <formula>$W$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="50">
+    <cfRule type="expression" dxfId="145" priority="53">
       <formula>$W$11="DOM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="51">
+      <formula>$W$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:X117">
-    <cfRule type="expression" dxfId="139" priority="45">
+    <cfRule type="expression" dxfId="143" priority="48">
       <formula>$X$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="46">
+    <cfRule type="expression" dxfId="142" priority="49">
       <formula>$X$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="47">
+    <cfRule type="expression" dxfId="141" priority="50">
       <formula>$X$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y117">
-    <cfRule type="expression" dxfId="136" priority="42">
-      <formula>$Y$8="FR"</formula>
+    <cfRule type="expression" dxfId="140" priority="47">
+      <formula>$Y$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="43">
+    <cfRule type="expression" dxfId="139" priority="46">
       <formula>$Y$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="44">
-      <formula>$Y$11="DOM"</formula>
+    <cfRule type="expression" dxfId="138" priority="45">
+      <formula>$Y$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z117">
-    <cfRule type="expression" dxfId="133" priority="39">
+    <cfRule type="expression" dxfId="137" priority="42">
       <formula>$Z$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="40">
+    <cfRule type="expression" dxfId="136" priority="44">
+      <formula>$Z$11="DOM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="43">
       <formula>$Z$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="41">
-      <formula>$Z$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA117">
-    <cfRule type="expression" dxfId="130" priority="36">
-      <formula>$AA$8="FR"</formula>
+    <cfRule type="expression" dxfId="134" priority="41">
+      <formula>$AA$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="37">
+    <cfRule type="expression" dxfId="133" priority="40">
       <formula>$AA$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="38">
-      <formula>$AA$11="DOM"</formula>
+    <cfRule type="expression" dxfId="132" priority="39">
+      <formula>$AA$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11:AB117">
-    <cfRule type="expression" dxfId="127" priority="33">
-      <formula>$AB$8="FR"</formula>
+    <cfRule type="expression" dxfId="131" priority="38">
+      <formula>$AB$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="34">
+    <cfRule type="expression" dxfId="130" priority="37">
       <formula>$AB$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="35">
-      <formula>$AB$11="DOM"</formula>
+    <cfRule type="expression" dxfId="129" priority="36">
+      <formula>$AB$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC117">
-    <cfRule type="expression" dxfId="124" priority="30">
-      <formula>$AC$8="FR"</formula>
+    <cfRule type="expression" dxfId="128" priority="35">
+      <formula>$AC$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="31">
+    <cfRule type="expression" dxfId="127" priority="34">
       <formula>$AC$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="32">
-      <formula>$AC$11="DOM"</formula>
+    <cfRule type="expression" dxfId="126" priority="33">
+      <formula>$AC$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AD117">
-    <cfRule type="expression" dxfId="121" priority="27">
+    <cfRule type="expression" dxfId="125" priority="32">
+      <formula>$AD$11="DOM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="30">
       <formula>$AD$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="28">
+    <cfRule type="expression" dxfId="123" priority="31">
       <formula>$AD$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="29">
-      <formula>$AD$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AE117">
-    <cfRule type="expression" dxfId="118" priority="24">
+    <cfRule type="expression" dxfId="122" priority="28">
+      <formula>$AE$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="27">
       <formula>$AE$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="25">
-      <formula>$AE$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="26">
+    <cfRule type="expression" dxfId="120" priority="29">
       <formula>$AE$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AF117">
-    <cfRule type="expression" dxfId="115" priority="21">
+    <cfRule type="expression" dxfId="119" priority="25">
+      <formula>$AF$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="24">
       <formula>$AF$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="22">
-      <formula>$AF$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="23">
+    <cfRule type="expression" dxfId="117" priority="26">
       <formula>$AF$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG11:AG117">
-    <cfRule type="expression" dxfId="112" priority="18">
-      <formula>$AG$8="FR"</formula>
+    <cfRule type="expression" dxfId="116" priority="23">
+      <formula>$AG$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="19">
+    <cfRule type="expression" dxfId="115" priority="22">
       <formula>$AG$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="20">
-      <formula>$AG$11="DOM"</formula>
+    <cfRule type="expression" dxfId="114" priority="21">
+      <formula>$AG$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AH117">
-    <cfRule type="expression" dxfId="109" priority="15">
-      <formula>$AH$8="FR"</formula>
+    <cfRule type="expression" dxfId="113" priority="20">
+      <formula>$AH$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="16">
+    <cfRule type="expression" dxfId="112" priority="19">
       <formula>$AH$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="17">
-      <formula>$AH$11="DOM"</formula>
+    <cfRule type="expression" dxfId="111" priority="18">
+      <formula>$AH$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11:AI117">
-    <cfRule type="expression" dxfId="106" priority="12">
+    <cfRule type="expression" dxfId="110" priority="15">
       <formula>$AI$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="13">
+    <cfRule type="expression" dxfId="109" priority="16">
       <formula>$AI$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="14">
+    <cfRule type="expression" dxfId="108" priority="17">
       <formula>$AI$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AJ117">
-    <cfRule type="expression" dxfId="103" priority="9">
-      <formula>$AJ$8="FR"</formula>
+    <cfRule type="expression" dxfId="107" priority="14">
+      <formula>$AJ$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="10">
+    <cfRule type="expression" dxfId="106" priority="13">
       <formula>$AJ$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="11">
-      <formula>$AJ$11="DOM"</formula>
+    <cfRule type="expression" dxfId="105" priority="12">
+      <formula>$AJ$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/fomio_template.xlsx
+++ b/templates/fomio_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808131D7-DCC9-4EA4-917F-294CCC92F74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD8AA6C-472F-4A5E-8B5C-F1D16D16DD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F24CC36B-B49E-40ED-906B-853EB2E37C31}"/>
   </bookViews>
@@ -365,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -842,21 +842,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thin">
@@ -1253,7 +1238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1337,85 +1322,82 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1424,25 +1406,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1451,16 +1433,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,33 +1462,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1516,7 +1528,7 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1539,42 +1551,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="514">
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1593,27 +1582,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1624,6 +1592,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1672,13 +1668,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1713,20 +1702,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1744,6 +1719,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1768,6 +1750,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1816,20 +1805,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1840,6 +1815,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1864,20 +1860,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1888,6 +1870,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1905,27 +1901,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1960,6 +1935,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2080,6 +2062,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2090,20 +2086,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2152,6 +2134,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2224,6 +2213,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2241,26 +2237,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2303,6 +2285,33 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2314,7 +2323,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2326,34 +2335,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2365,7 +2347,18 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF002060"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2377,7 +2370,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2389,3401 +2382,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6283,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3028F345-7C56-4784-9FD4-3DA609409DA1}">
   <dimension ref="A1:AL130"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A106" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="X122" sqref="X122"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -6311,269 +2910,269 @@
     </row>
     <row r="5" spans="3:37"/>
     <row r="6" spans="3:37">
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97"/>
-      <c r="AJ6" s="97"/>
-      <c r="AK6" s="97"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
     </row>
     <row r="7" spans="3:37">
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="97"/>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="97"/>
-    </row>
-    <row r="8" spans="3:37" s="74" customFormat="1" ht="3.75" customHeight="1">
-      <c r="F8" s="74" t="str">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+    </row>
+    <row r="8" spans="3:37" s="73" customFormat="1" ht="3.75" customHeight="1">
+      <c r="F8" s="73" t="str">
         <f ca="1">IF(OR(C9="Janeiro"&amp;" "&amp;YEAR(NOW()),C9="Maio"&amp;" "&amp;YEAR(NOW()),C9="Novembro"&amp;" "&amp;YEAR(NOW()),C9="Dezembro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="J8" s="74" t="str">
+      <c r="J8" s="73" t="str">
         <f ca="1">IF(OR(C9="Outubro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="M8" s="74" t="str">
+      <c r="M8" s="73" t="str">
         <f ca="1">IF(OR(C9="Dezembro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="O8" s="74" t="str">
+      <c r="O8" s="73" t="str">
         <f ca="1">IF(OR(C9="Junho"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="T8" s="74" t="str">
+      <c r="T8" s="73" t="str">
         <f ca="1">IF(OR(C9="Agosto"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
-      <c r="AD8" s="74" t="str">
+      <c r="AD8" s="73" t="str">
         <f ca="1">IF(OR(C9="Abril"&amp;" "&amp;YEAR(NOW()),C9="Dezembro"&amp;" "&amp;YEAR(NOW())),"FR","")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="3:37" ht="18.75">
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="98"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
     </row>
     <row r="10" spans="3:37" ht="3.75" customHeight="1">
-      <c r="F10" s="75"/>
+      <c r="F10" s="74"/>
     </row>
     <row r="11" spans="3:37">
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="105" t="s">
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="84" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:37">
-      <c r="C12" s="100"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="106"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="85"/>
     </row>
     <row r="13" spans="3:37">
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="88"/>
-    </row>
-    <row r="14" spans="3:37" hidden="1">
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="96"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="97"/>
+    </row>
+    <row r="14" spans="3:37">
       <c r="C14" s="29"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -6608,131 +3207,134 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="8"/>
-      <c r="AK14" s="30"/>
+      <c r="AK14" s="30">
+        <f>COUNTIF(F14:AJ14,"N")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="3:37">
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="31">
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="30">
         <f>COUNTIF(F15:AJ15,"N")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:37">
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="31">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="30">
         <f>COUNTIF(F16:AJ16,"N")</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:38">
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="88"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="97"/>
     </row>
     <row r="18" spans="3:38">
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -6764,7 +3366,7 @@
       <c r="AH18" s="10"/>
       <c r="AI18" s="10"/>
       <c r="AJ18" s="11"/>
-      <c r="AK18" s="32">
+      <c r="AK18" s="31">
         <f>COUNTIF(F18:AJ18,"PD")+COUNTIF(F18:AJ18,"PN")+COUNTIF(F18:AJ18,"PT")*2+COUNTIF(F18:AJ18,"EP")</f>
         <v>0</v>
       </c>
@@ -6774,9 +3376,9 @@
       </c>
     </row>
     <row r="19" spans="3:38">
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -6808,15 +3410,15 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="14"/>
-      <c r="AK19" s="32">
+      <c r="AK19" s="31">
         <f>COUNTIF(F19:AJ19,"PD")+COUNTIF(F19:AJ19,"PN")+COUNTIF(F19:AJ19,"PT")*2+COUNTIF(F19:AJ19,"EP")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:38">
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="12"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -6848,15 +3450,15 @@
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="14"/>
-      <c r="AK20" s="32">
+      <c r="AK20" s="31">
         <f t="shared" ref="AK20:AK83" si="0">COUNTIF(F20:AJ20,"PD")+COUNTIF(F20:AJ20,"PN")+COUNTIF(F20:AJ20,"PT")*2+COUNTIF(F20:AJ20,"EP")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:38">
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -6888,15 +3490,15 @@
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
       <c r="AJ21" s="14"/>
-      <c r="AK21" s="32">
+      <c r="AK21" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:38">
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="12"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -6928,15 +3530,15 @@
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="14"/>
-      <c r="AK22" s="32">
+      <c r="AK22" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:38">
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -6968,15 +3570,15 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="14"/>
-      <c r="AK23" s="32">
+      <c r="AK23" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:38">
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="12"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -7008,15 +3610,15 @@
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="14"/>
-      <c r="AK24" s="32">
+      <c r="AK24" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:38">
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -7048,15 +3650,15 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="14"/>
-      <c r="AK25" s="32">
+      <c r="AK25" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:38">
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -7088,15 +3690,15 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="14"/>
-      <c r="AK26" s="32">
+      <c r="AK26" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:38">
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -7128,15 +3730,15 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="14"/>
-      <c r="AK27" s="32">
+      <c r="AK27" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:38">
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="12"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -7168,15 +3770,15 @@
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="14"/>
-      <c r="AK28" s="32">
+      <c r="AK28" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:38">
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -7208,15 +3810,15 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="14"/>
-      <c r="AK29" s="32">
+      <c r="AK29" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:38">
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -7248,15 +3850,15 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="14"/>
-      <c r="AK30" s="32">
+      <c r="AK30" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:38">
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -7288,15 +3890,15 @@
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="14"/>
-      <c r="AK31" s="32">
+      <c r="AK31" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:38">
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="65"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="12"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -7328,15 +3930,15 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="14"/>
-      <c r="AK32" s="32">
+      <c r="AK32" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:37">
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -7368,15 +3970,15 @@
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="14"/>
-      <c r="AK33" s="32">
+      <c r="AK33" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:37">
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="12"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -7408,15 +4010,15 @@
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="14"/>
-      <c r="AK34" s="32">
+      <c r="AK34" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:37">
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="65"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="64"/>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -7448,15 +4050,15 @@
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="14"/>
-      <c r="AK35" s="32">
+      <c r="AK35" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:37">
-      <c r="C36" s="63"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
       <c r="F36" s="12"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -7488,15 +4090,15 @@
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="14"/>
-      <c r="AK36" s="32">
+      <c r="AK36" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:37">
-      <c r="C37" s="63"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="65"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
@@ -7528,15 +4130,15 @@
       <c r="AH37" s="13"/>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="14"/>
-      <c r="AK37" s="32">
+      <c r="AK37" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:37">
-      <c r="C38" s="63"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="12"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -7568,15 +4170,15 @@
       <c r="AH38" s="13"/>
       <c r="AI38" s="13"/>
       <c r="AJ38" s="14"/>
-      <c r="AK38" s="32">
+      <c r="AK38" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:37">
-      <c r="C39" s="63"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="65"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -7608,15 +4210,15 @@
       <c r="AH39" s="13"/>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="14"/>
-      <c r="AK39" s="32">
+      <c r="AK39" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:37">
-      <c r="C40" s="63"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
       <c r="F40" s="12"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -7648,15 +4250,15 @@
       <c r="AH40" s="13"/>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="14"/>
-      <c r="AK40" s="32">
+      <c r="AK40" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:37">
-      <c r="C41" s="63"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -7688,15 +4290,15 @@
       <c r="AH41" s="13"/>
       <c r="AI41" s="13"/>
       <c r="AJ41" s="14"/>
-      <c r="AK41" s="32">
+      <c r="AK41" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:37">
-      <c r="C42" s="63"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="65"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
       <c r="F42" s="12"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -7728,15 +4330,15 @@
       <c r="AH42" s="13"/>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="14"/>
-      <c r="AK42" s="32">
+      <c r="AK42" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:37">
-      <c r="C43" s="63"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="65"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="64"/>
       <c r="F43" s="12"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -7768,15 +4370,15 @@
       <c r="AH43" s="13"/>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="14"/>
-      <c r="AK43" s="32">
+      <c r="AK43" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:37">
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="64"/>
       <c r="F44" s="12"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -7808,15 +4410,15 @@
       <c r="AH44" s="13"/>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="14"/>
-      <c r="AK44" s="32">
+      <c r="AK44" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:37">
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="64"/>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -7848,15 +4450,15 @@
       <c r="AH45" s="13"/>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="14"/>
-      <c r="AK45" s="32">
+      <c r="AK45" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:37">
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="64"/>
       <c r="F46" s="12"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
@@ -7888,15 +4490,15 @@
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="14"/>
-      <c r="AK46" s="32">
+      <c r="AK46" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:37">
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="65"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="64"/>
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
@@ -7928,15 +4530,15 @@
       <c r="AH47" s="13"/>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="14"/>
-      <c r="AK47" s="32">
+      <c r="AK47" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:37">
-      <c r="C48" s="63"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="65"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="64"/>
       <c r="F48" s="12"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -7968,15 +4570,15 @@
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="14"/>
-      <c r="AK48" s="32">
+      <c r="AK48" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:37">
-      <c r="C49" s="63"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="64"/>
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -8008,15 +4610,15 @@
       <c r="AH49" s="13"/>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="14"/>
-      <c r="AK49" s="32">
+      <c r="AK49" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:37">
-      <c r="C50" s="63"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="65"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="64"/>
       <c r="F50" s="12"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -8048,15 +4650,15 @@
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
       <c r="AJ50" s="14"/>
-      <c r="AK50" s="32">
+      <c r="AK50" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="3:37">
-      <c r="C51" s="63"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="65"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="64"/>
       <c r="F51" s="12"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -8088,15 +4690,15 @@
       <c r="AH51" s="13"/>
       <c r="AI51" s="13"/>
       <c r="AJ51" s="14"/>
-      <c r="AK51" s="32">
+      <c r="AK51" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:37">
-      <c r="C52" s="63"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="64"/>
       <c r="F52" s="12"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -8128,15 +4730,15 @@
       <c r="AH52" s="13"/>
       <c r="AI52" s="13"/>
       <c r="AJ52" s="14"/>
-      <c r="AK52" s="32">
+      <c r="AK52" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="3:37">
-      <c r="C53" s="63"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="65"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="64"/>
       <c r="F53" s="12"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
@@ -8168,15 +4770,15 @@
       <c r="AH53" s="13"/>
       <c r="AI53" s="13"/>
       <c r="AJ53" s="14"/>
-      <c r="AK53" s="32">
+      <c r="AK53" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="3:37">
-      <c r="C54" s="63"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="65"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="64"/>
       <c r="F54" s="12"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
@@ -8208,15 +4810,15 @@
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
       <c r="AJ54" s="14"/>
-      <c r="AK54" s="32">
+      <c r="AK54" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="3:37">
-      <c r="C55" s="63"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="65"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="64"/>
       <c r="F55" s="12"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
@@ -8248,15 +4850,15 @@
       <c r="AH55" s="13"/>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="14"/>
-      <c r="AK55" s="32">
+      <c r="AK55" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="3:37">
-      <c r="C56" s="63"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="65"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="64"/>
       <c r="F56" s="12"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
@@ -8288,15 +4890,15 @@
       <c r="AH56" s="13"/>
       <c r="AI56" s="13"/>
       <c r="AJ56" s="14"/>
-      <c r="AK56" s="32">
+      <c r="AK56" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="3:37">
-      <c r="C57" s="63"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="65"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="64"/>
       <c r="F57" s="12"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -8328,15 +4930,15 @@
       <c r="AH57" s="13"/>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="14"/>
-      <c r="AK57" s="32">
+      <c r="AK57" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:37">
-      <c r="C58" s="63"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="65"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="64"/>
       <c r="F58" s="12"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
@@ -8368,15 +4970,15 @@
       <c r="AH58" s="13"/>
       <c r="AI58" s="13"/>
       <c r="AJ58" s="14"/>
-      <c r="AK58" s="32">
+      <c r="AK58" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:37">
-      <c r="C59" s="63"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="65"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="64"/>
       <c r="F59" s="12"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -8408,15 +5010,15 @@
       <c r="AH59" s="13"/>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="14"/>
-      <c r="AK59" s="32">
+      <c r="AK59" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="3:37">
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="64"/>
       <c r="F60" s="12"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -8448,15 +5050,15 @@
       <c r="AH60" s="13"/>
       <c r="AI60" s="13"/>
       <c r="AJ60" s="14"/>
-      <c r="AK60" s="32">
+      <c r="AK60" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:37">
-      <c r="C61" s="63"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="64"/>
       <c r="F61" s="12"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -8488,15 +5090,15 @@
       <c r="AH61" s="13"/>
       <c r="AI61" s="13"/>
       <c r="AJ61" s="14"/>
-      <c r="AK61" s="32">
+      <c r="AK61" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:37">
-      <c r="C62" s="63"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="65"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="64"/>
       <c r="F62" s="12"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -8528,15 +5130,15 @@
       <c r="AH62" s="13"/>
       <c r="AI62" s="13"/>
       <c r="AJ62" s="14"/>
-      <c r="AK62" s="32">
+      <c r="AK62" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="3:37">
-      <c r="C63" s="63"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="65"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="64"/>
       <c r="F63" s="12"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -8568,15 +5170,15 @@
       <c r="AH63" s="13"/>
       <c r="AI63" s="13"/>
       <c r="AJ63" s="14"/>
-      <c r="AK63" s="32">
+      <c r="AK63" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:37">
-      <c r="C64" s="63"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="65"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="64"/>
       <c r="F64" s="12"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
@@ -8608,15 +5210,15 @@
       <c r="AH64" s="13"/>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="14"/>
-      <c r="AK64" s="32">
+      <c r="AK64" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:37">
-      <c r="C65" s="63"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="65"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="64"/>
       <c r="F65" s="12"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
@@ -8648,15 +5250,15 @@
       <c r="AH65" s="13"/>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="14"/>
-      <c r="AK65" s="32">
+      <c r="AK65" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="3:37">
-      <c r="C66" s="63"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="65"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="64"/>
       <c r="F66" s="12"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -8688,15 +5290,15 @@
       <c r="AH66" s="13"/>
       <c r="AI66" s="13"/>
       <c r="AJ66" s="14"/>
-      <c r="AK66" s="32">
+      <c r="AK66" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="3:37">
-      <c r="C67" s="63"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="65"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="64"/>
       <c r="F67" s="12"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -8728,15 +5330,15 @@
       <c r="AH67" s="13"/>
       <c r="AI67" s="13"/>
       <c r="AJ67" s="14"/>
-      <c r="AK67" s="32">
+      <c r="AK67" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="3:37">
-      <c r="C68" s="63"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="65"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="64"/>
       <c r="F68" s="12"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -8768,15 +5370,15 @@
       <c r="AH68" s="13"/>
       <c r="AI68" s="13"/>
       <c r="AJ68" s="14"/>
-      <c r="AK68" s="32">
+      <c r="AK68" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="3:37">
-      <c r="C69" s="63"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="65"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="64"/>
       <c r="F69" s="12"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -8808,15 +5410,15 @@
       <c r="AH69" s="13"/>
       <c r="AI69" s="13"/>
       <c r="AJ69" s="14"/>
-      <c r="AK69" s="32">
+      <c r="AK69" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="3:37">
-      <c r="C70" s="63"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="65"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="64"/>
       <c r="F70" s="12"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
@@ -8848,15 +5450,15 @@
       <c r="AH70" s="13"/>
       <c r="AI70" s="13"/>
       <c r="AJ70" s="14"/>
-      <c r="AK70" s="32">
+      <c r="AK70" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="3:37">
-      <c r="C71" s="63"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="65"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="64"/>
       <c r="F71" s="12"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
@@ -8888,15 +5490,15 @@
       <c r="AH71" s="13"/>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="14"/>
-      <c r="AK71" s="32">
+      <c r="AK71" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="3:37">
-      <c r="C72" s="63"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="65"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="64"/>
       <c r="F72" s="12"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
@@ -8928,15 +5530,15 @@
       <c r="AH72" s="13"/>
       <c r="AI72" s="13"/>
       <c r="AJ72" s="14"/>
-      <c r="AK72" s="32">
+      <c r="AK72" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="3:37">
-      <c r="C73" s="63"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="45"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
       <c r="F73" s="12"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -8968,15 +5570,15 @@
       <c r="AH73" s="13"/>
       <c r="AI73" s="13"/>
       <c r="AJ73" s="14"/>
-      <c r="AK73" s="32">
+      <c r="AK73" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="3:37">
-      <c r="C74" s="63"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="44"/>
       <c r="F74" s="12"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
@@ -9008,15 +5610,15 @@
       <c r="AH74" s="13"/>
       <c r="AI74" s="13"/>
       <c r="AJ74" s="14"/>
-      <c r="AK74" s="32">
+      <c r="AK74" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="3:37">
-      <c r="C75" s="43"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="45"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="44"/>
       <c r="F75" s="12"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -9048,15 +5650,15 @@
       <c r="AH75" s="13"/>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="14"/>
-      <c r="AK75" s="32">
+      <c r="AK75" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="3:37">
-      <c r="C76" s="43"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="45"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44"/>
       <c r="F76" s="12"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
@@ -9088,15 +5690,15 @@
       <c r="AH76" s="13"/>
       <c r="AI76" s="13"/>
       <c r="AJ76" s="14"/>
-      <c r="AK76" s="32">
+      <c r="AK76" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="3:37">
-      <c r="C77" s="43"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="45"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="44"/>
       <c r="F77" s="12"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
@@ -9128,15 +5730,15 @@
       <c r="AH77" s="13"/>
       <c r="AI77" s="13"/>
       <c r="AJ77" s="14"/>
-      <c r="AK77" s="32">
+      <c r="AK77" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="3:37">
-      <c r="C78" s="43"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="45"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
       <c r="F78" s="12"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -9168,15 +5770,15 @@
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="14"/>
-      <c r="AK78" s="32">
+      <c r="AK78" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="3:37">
-      <c r="C79" s="43"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="45"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="44"/>
       <c r="F79" s="12"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -9208,15 +5810,15 @@
       <c r="AH79" s="13"/>
       <c r="AI79" s="13"/>
       <c r="AJ79" s="14"/>
-      <c r="AK79" s="32">
+      <c r="AK79" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="3:37">
-      <c r="C80" s="43"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="45"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="44"/>
       <c r="F80" s="12"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
@@ -9248,15 +5850,15 @@
       <c r="AH80" s="13"/>
       <c r="AI80" s="13"/>
       <c r="AJ80" s="14"/>
-      <c r="AK80" s="32">
+      <c r="AK80" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="3:37">
-      <c r="C81" s="43"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="45"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="12"/>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
@@ -9288,15 +5890,15 @@
       <c r="AH81" s="13"/>
       <c r="AI81" s="13"/>
       <c r="AJ81" s="14"/>
-      <c r="AK81" s="32">
+      <c r="AK81" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="3:37">
-      <c r="C82" s="43"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
       <c r="F82" s="12"/>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -9328,15 +5930,15 @@
       <c r="AH82" s="13"/>
       <c r="AI82" s="13"/>
       <c r="AJ82" s="14"/>
-      <c r="AK82" s="32">
+      <c r="AK82" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="3:37">
-      <c r="C83" s="43"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="45"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="44"/>
       <c r="F83" s="12"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -9368,15 +5970,15 @@
       <c r="AH83" s="13"/>
       <c r="AI83" s="13"/>
       <c r="AJ83" s="14"/>
-      <c r="AK83" s="32">
+      <c r="AK83" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="3:37">
-      <c r="C84" s="43"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="45"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="44"/>
       <c r="F84" s="12"/>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
@@ -9408,15 +6010,15 @@
       <c r="AH84" s="13"/>
       <c r="AI84" s="13"/>
       <c r="AJ84" s="14"/>
-      <c r="AK84" s="32">
+      <c r="AK84" s="31">
         <f t="shared" ref="AK84:AK117" si="1">COUNTIF(F84:AJ84,"PD")+COUNTIF(F84:AJ84,"PN")+COUNTIF(F84:AJ84,"PT")*2+COUNTIF(F84:AJ84,"EP")</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="3:37">
-      <c r="C85" s="43"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="45"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
       <c r="F85" s="12"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
@@ -9448,15 +6050,15 @@
       <c r="AH85" s="13"/>
       <c r="AI85" s="13"/>
       <c r="AJ85" s="14"/>
-      <c r="AK85" s="32">
+      <c r="AK85" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="3:37">
-      <c r="C86" s="43"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="45"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="44"/>
       <c r="F86" s="12"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -9488,15 +6090,15 @@
       <c r="AH86" s="13"/>
       <c r="AI86" s="13"/>
       <c r="AJ86" s="14"/>
-      <c r="AK86" s="32">
+      <c r="AK86" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="3:37">
-      <c r="C87" s="43"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="45"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
       <c r="F87" s="12"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
@@ -9528,15 +6130,15 @@
       <c r="AH87" s="13"/>
       <c r="AI87" s="13"/>
       <c r="AJ87" s="14"/>
-      <c r="AK87" s="32">
+      <c r="AK87" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="3:37">
-      <c r="C88" s="43"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="45"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="44"/>
       <c r="F88" s="12"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -9568,15 +6170,15 @@
       <c r="AH88" s="13"/>
       <c r="AI88" s="13"/>
       <c r="AJ88" s="14"/>
-      <c r="AK88" s="32">
+      <c r="AK88" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="3:37">
-      <c r="C89" s="43"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="45"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
       <c r="F89" s="12"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -9608,15 +6210,15 @@
       <c r="AH89" s="13"/>
       <c r="AI89" s="13"/>
       <c r="AJ89" s="14"/>
-      <c r="AK89" s="32">
+      <c r="AK89" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="3:37">
-      <c r="C90" s="43"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="45"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="44"/>
       <c r="F90" s="12"/>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
@@ -9648,15 +6250,15 @@
       <c r="AH90" s="13"/>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="14"/>
-      <c r="AK90" s="32">
+      <c r="AK90" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="3:37">
-      <c r="C91" s="43"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="45"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="44"/>
       <c r="F91" s="12"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -9688,15 +6290,15 @@
       <c r="AH91" s="13"/>
       <c r="AI91" s="13"/>
       <c r="AJ91" s="14"/>
-      <c r="AK91" s="32">
+      <c r="AK91" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="3:37">
-      <c r="C92" s="43"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="45"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="44"/>
       <c r="F92" s="12"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -9728,15 +6330,15 @@
       <c r="AH92" s="13"/>
       <c r="AI92" s="13"/>
       <c r="AJ92" s="14"/>
-      <c r="AK92" s="32">
+      <c r="AK92" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="3:37">
-      <c r="C93" s="43"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
       <c r="F93" s="12"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
@@ -9768,15 +6370,15 @@
       <c r="AH93" s="13"/>
       <c r="AI93" s="13"/>
       <c r="AJ93" s="14"/>
-      <c r="AK93" s="32">
+      <c r="AK93" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="3:37">
-      <c r="C94" s="43"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="45"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="44"/>
       <c r="F94" s="12"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
@@ -9808,15 +6410,15 @@
       <c r="AH94" s="13"/>
       <c r="AI94" s="13"/>
       <c r="AJ94" s="14"/>
-      <c r="AK94" s="32">
+      <c r="AK94" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="3:37">
-      <c r="C95" s="43"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="45"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="44"/>
       <c r="F95" s="12"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
@@ -9848,15 +6450,15 @@
       <c r="AH95" s="13"/>
       <c r="AI95" s="13"/>
       <c r="AJ95" s="14"/>
-      <c r="AK95" s="32">
+      <c r="AK95" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="3:37">
-      <c r="C96" s="43"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="45"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
       <c r="F96" s="12"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
@@ -9888,15 +6490,15 @@
       <c r="AH96" s="13"/>
       <c r="AI96" s="13"/>
       <c r="AJ96" s="14"/>
-      <c r="AK96" s="32">
+      <c r="AK96" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="3:37">
-      <c r="C97" s="43"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="45"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
       <c r="F97" s="12"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
@@ -9928,15 +6530,15 @@
       <c r="AH97" s="13"/>
       <c r="AI97" s="13"/>
       <c r="AJ97" s="14"/>
-      <c r="AK97" s="32">
+      <c r="AK97" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="3:37">
-      <c r="C98" s="43"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="45"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
       <c r="F98" s="12"/>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
@@ -9968,15 +6570,15 @@
       <c r="AH98" s="13"/>
       <c r="AI98" s="13"/>
       <c r="AJ98" s="14"/>
-      <c r="AK98" s="32">
+      <c r="AK98" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="3:37">
-      <c r="C99" s="43"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="45"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
       <c r="F99" s="12"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
@@ -10008,15 +6610,15 @@
       <c r="AH99" s="13"/>
       <c r="AI99" s="13"/>
       <c r="AJ99" s="14"/>
-      <c r="AK99" s="32">
+      <c r="AK99" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="3:37">
-      <c r="C100" s="43"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="45"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="44"/>
       <c r="F100" s="12"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
@@ -10048,15 +6650,15 @@
       <c r="AH100" s="13"/>
       <c r="AI100" s="13"/>
       <c r="AJ100" s="14"/>
-      <c r="AK100" s="32">
+      <c r="AK100" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="3:37">
-      <c r="C101" s="43"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="45"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="44"/>
       <c r="F101" s="12"/>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
@@ -10088,15 +6690,15 @@
       <c r="AH101" s="13"/>
       <c r="AI101" s="13"/>
       <c r="AJ101" s="14"/>
-      <c r="AK101" s="32">
+      <c r="AK101" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="3:37">
-      <c r="C102" s="43"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="45"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="44"/>
       <c r="F102" s="12"/>
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
@@ -10128,15 +6730,15 @@
       <c r="AH102" s="13"/>
       <c r="AI102" s="13"/>
       <c r="AJ102" s="14"/>
-      <c r="AK102" s="32">
+      <c r="AK102" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="3:37">
-      <c r="C103" s="43"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="45"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="44"/>
       <c r="F103" s="12"/>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
@@ -10168,15 +6770,15 @@
       <c r="AH103" s="13"/>
       <c r="AI103" s="13"/>
       <c r="AJ103" s="14"/>
-      <c r="AK103" s="32">
+      <c r="AK103" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="3:37">
-      <c r="C104" s="43"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="45"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
       <c r="F104" s="12"/>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
@@ -10208,15 +6810,15 @@
       <c r="AH104" s="13"/>
       <c r="AI104" s="13"/>
       <c r="AJ104" s="14"/>
-      <c r="AK104" s="32">
+      <c r="AK104" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="3:37">
-      <c r="C105" s="43"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="45"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="44"/>
       <c r="F105" s="12"/>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
@@ -10248,15 +6850,15 @@
       <c r="AH105" s="13"/>
       <c r="AI105" s="13"/>
       <c r="AJ105" s="14"/>
-      <c r="AK105" s="32">
+      <c r="AK105" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="3:37">
-      <c r="C106" s="43"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="45"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="44"/>
       <c r="F106" s="12"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
@@ -10288,15 +6890,15 @@
       <c r="AH106" s="13"/>
       <c r="AI106" s="13"/>
       <c r="AJ106" s="14"/>
-      <c r="AK106" s="32">
+      <c r="AK106" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="3:37">
-      <c r="C107" s="43"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="45"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="44"/>
       <c r="F107" s="12"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
@@ -10328,15 +6930,15 @@
       <c r="AH107" s="13"/>
       <c r="AI107" s="13"/>
       <c r="AJ107" s="14"/>
-      <c r="AK107" s="32">
+      <c r="AK107" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="3:37">
-      <c r="C108" s="43"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="45"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="44"/>
       <c r="F108" s="12"/>
       <c r="G108" s="13"/>
       <c r="H108" s="13"/>
@@ -10368,15 +6970,15 @@
       <c r="AH108" s="13"/>
       <c r="AI108" s="13"/>
       <c r="AJ108" s="14"/>
-      <c r="AK108" s="32">
+      <c r="AK108" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="3:37">
-      <c r="C109" s="43"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="45"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="44"/>
       <c r="F109" s="12"/>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
@@ -10408,15 +7010,15 @@
       <c r="AH109" s="13"/>
       <c r="AI109" s="13"/>
       <c r="AJ109" s="14"/>
-      <c r="AK109" s="32">
+      <c r="AK109" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="3:37">
-      <c r="C110" s="43"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="45"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="44"/>
       <c r="F110" s="12"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
@@ -10448,15 +7050,15 @@
       <c r="AH110" s="13"/>
       <c r="AI110" s="13"/>
       <c r="AJ110" s="14"/>
-      <c r="AK110" s="32">
+      <c r="AK110" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="3:37">
-      <c r="C111" s="43"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="45"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="44"/>
       <c r="F111" s="12"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
@@ -10488,15 +7090,15 @@
       <c r="AH111" s="13"/>
       <c r="AI111" s="13"/>
       <c r="AJ111" s="14"/>
-      <c r="AK111" s="32">
+      <c r="AK111" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="3:37">
-      <c r="C112" s="43"/>
-      <c r="D112" s="44"/>
-      <c r="E112" s="45"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="44"/>
       <c r="F112" s="12"/>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
@@ -10528,15 +7130,15 @@
       <c r="AH112" s="13"/>
       <c r="AI112" s="13"/>
       <c r="AJ112" s="14"/>
-      <c r="AK112" s="32">
+      <c r="AK112" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="3:37">
-      <c r="C113" s="43"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="45"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="44"/>
       <c r="F113" s="12"/>
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
@@ -10568,15 +7170,15 @@
       <c r="AH113" s="13"/>
       <c r="AI113" s="13"/>
       <c r="AJ113" s="14"/>
-      <c r="AK113" s="32">
+      <c r="AK113" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="3:37">
-      <c r="C114" s="43"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="45"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="44"/>
       <c r="F114" s="12"/>
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
@@ -10608,15 +7210,15 @@
       <c r="AH114" s="13"/>
       <c r="AI114" s="13"/>
       <c r="AJ114" s="14"/>
-      <c r="AK114" s="32">
+      <c r="AK114" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="3:37">
-      <c r="C115" s="43"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="45"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="44"/>
       <c r="F115" s="12"/>
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
@@ -10648,15 +7250,15 @@
       <c r="AH115" s="13"/>
       <c r="AI115" s="13"/>
       <c r="AJ115" s="14"/>
-      <c r="AK115" s="32">
+      <c r="AK115" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="3:37">
-      <c r="C116" s="43"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="45"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="44"/>
       <c r="F116" s="12"/>
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
@@ -10688,87 +7290,87 @@
       <c r="AH116" s="13"/>
       <c r="AI116" s="13"/>
       <c r="AJ116" s="14"/>
-      <c r="AK116" s="32">
+      <c r="AK116" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="3:37">
-      <c r="C117" s="46"/>
-      <c r="D117" s="47"/>
-      <c r="E117" s="48"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="34"/>
-      <c r="L117" s="34"/>
-      <c r="M117" s="34"/>
-      <c r="N117" s="34"/>
-      <c r="O117" s="34"/>
-      <c r="P117" s="34"/>
-      <c r="Q117" s="34"/>
-      <c r="R117" s="34"/>
-      <c r="S117" s="34"/>
-      <c r="T117" s="34"/>
-      <c r="U117" s="34"/>
-      <c r="V117" s="34"/>
-      <c r="W117" s="34"/>
-      <c r="X117" s="34"/>
-      <c r="Y117" s="34"/>
-      <c r="Z117" s="34"/>
-      <c r="AA117" s="34"/>
-      <c r="AB117" s="34"/>
-      <c r="AC117" s="34"/>
-      <c r="AD117" s="34"/>
-      <c r="AE117" s="34"/>
-      <c r="AF117" s="34"/>
-      <c r="AG117" s="34"/>
-      <c r="AH117" s="34"/>
-      <c r="AI117" s="34"/>
-      <c r="AJ117" s="35"/>
-      <c r="AK117" s="32">
+      <c r="C117" s="45"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="33"/>
+      <c r="L117" s="33"/>
+      <c r="M117" s="33"/>
+      <c r="N117" s="33"/>
+      <c r="O117" s="33"/>
+      <c r="P117" s="33"/>
+      <c r="Q117" s="33"/>
+      <c r="R117" s="33"/>
+      <c r="S117" s="33"/>
+      <c r="T117" s="33"/>
+      <c r="U117" s="33"/>
+      <c r="V117" s="33"/>
+      <c r="W117" s="33"/>
+      <c r="X117" s="33"/>
+      <c r="Y117" s="33"/>
+      <c r="Z117" s="33"/>
+      <c r="AA117" s="33"/>
+      <c r="AB117" s="33"/>
+      <c r="AC117" s="33"/>
+      <c r="AD117" s="33"/>
+      <c r="AE117" s="33"/>
+      <c r="AF117" s="33"/>
+      <c r="AG117" s="33"/>
+      <c r="AH117" s="33"/>
+      <c r="AI117" s="33"/>
+      <c r="AJ117" s="34"/>
+      <c r="AK117" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="3:37" ht="3.75" customHeight="1">
-      <c r="C118" s="49"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="52"/>
-      <c r="G118" s="52"/>
-      <c r="H118" s="52"/>
-      <c r="I118" s="52"/>
-      <c r="J118" s="52"/>
-      <c r="K118" s="52"/>
-      <c r="L118" s="52"/>
-      <c r="M118" s="52"/>
-      <c r="N118" s="52"/>
-      <c r="O118" s="52"/>
-      <c r="P118" s="52"/>
-      <c r="Q118" s="52"/>
-      <c r="R118" s="52"/>
-      <c r="S118" s="52"/>
-      <c r="T118" s="52"/>
-      <c r="U118" s="52"/>
-      <c r="V118" s="52"/>
-      <c r="W118" s="52"/>
-      <c r="X118" s="52"/>
-      <c r="Y118" s="52"/>
-      <c r="Z118" s="52"/>
-      <c r="AA118" s="52"/>
-      <c r="AB118" s="52"/>
-      <c r="AC118" s="52"/>
-      <c r="AD118" s="52"/>
-      <c r="AE118" s="52"/>
-      <c r="AF118" s="52"/>
-      <c r="AG118" s="52"/>
-      <c r="AH118" s="52"/>
-      <c r="AI118" s="52"/>
-      <c r="AJ118" s="52"/>
-      <c r="AK118" s="53"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="51"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="51"/>
+      <c r="J118" s="51"/>
+      <c r="K118" s="51"/>
+      <c r="L118" s="51"/>
+      <c r="M118" s="51"/>
+      <c r="N118" s="51"/>
+      <c r="O118" s="51"/>
+      <c r="P118" s="51"/>
+      <c r="Q118" s="51"/>
+      <c r="R118" s="51"/>
+      <c r="S118" s="51"/>
+      <c r="T118" s="51"/>
+      <c r="U118" s="51"/>
+      <c r="V118" s="51"/>
+      <c r="W118" s="51"/>
+      <c r="X118" s="51"/>
+      <c r="Y118" s="51"/>
+      <c r="Z118" s="51"/>
+      <c r="AA118" s="51"/>
+      <c r="AB118" s="51"/>
+      <c r="AC118" s="51"/>
+      <c r="AD118" s="51"/>
+      <c r="AE118" s="51"/>
+      <c r="AF118" s="51"/>
+      <c r="AG118" s="51"/>
+      <c r="AH118" s="51"/>
+      <c r="AI118" s="51"/>
+      <c r="AJ118" s="51"/>
+      <c r="AK118" s="52"/>
     </row>
     <row r="119" spans="3:37">
       <c r="E119" s="16"/>
@@ -10906,51 +7508,51 @@
       <c r="F121" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G121" s="90" t="s">
+      <c r="G121" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="H121" s="90"/>
-      <c r="I121" s="90"/>
-      <c r="J121" s="90"/>
+      <c r="H121" s="99"/>
+      <c r="I121" s="99"/>
+      <c r="J121" s="99"/>
       <c r="K121" s="15"/>
       <c r="L121" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M121" s="91" t="s">
+      <c r="M121" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="N121" s="92"/>
-      <c r="O121" s="92"/>
-      <c r="P121" s="93"/>
+      <c r="N121" s="101"/>
+      <c r="O121" s="101"/>
+      <c r="P121" s="102"/>
       <c r="Q121" s="15"/>
       <c r="R121" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S121" s="91" t="s">
+      <c r="S121" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="T121" s="92"/>
-      <c r="U121" s="92"/>
-      <c r="V121" s="93"/>
+      <c r="T121" s="101"/>
+      <c r="U121" s="101"/>
+      <c r="V121" s="102"/>
       <c r="X121" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="Y121" s="91" t="s">
+      <c r="Y121" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Z121" s="92"/>
-      <c r="AA121" s="92"/>
-      <c r="AB121" s="93"/>
+      <c r="Z121" s="101"/>
+      <c r="AA121" s="101"/>
+      <c r="AB121" s="102"/>
       <c r="AC121" s="15"/>
       <c r="AD121" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AE121" s="91" t="s">
+      <c r="AE121" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="AF121" s="92"/>
-      <c r="AG121" s="92"/>
-      <c r="AH121" s="93"/>
+      <c r="AF121" s="101"/>
+      <c r="AG121" s="101"/>
+      <c r="AH121" s="102"/>
     </row>
     <row r="122" spans="3:37" ht="3.75" customHeight="1">
       <c r="E122" s="16"/>
@@ -10960,215 +7562,215 @@
       <c r="F123" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G123" s="90" t="s">
+      <c r="G123" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="90"/>
-      <c r="I123" s="90"/>
-      <c r="J123" s="90"/>
-      <c r="L123" s="70" t="s">
+      <c r="H123" s="99"/>
+      <c r="I123" s="99"/>
+      <c r="J123" s="99"/>
+      <c r="L123" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="M123" s="90" t="s">
+      <c r="M123" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="90"/>
-      <c r="O123" s="90"/>
-      <c r="P123" s="90"/>
-      <c r="R123" s="71" t="s">
+      <c r="N123" s="99"/>
+      <c r="O123" s="99"/>
+      <c r="P123" s="99"/>
+      <c r="R123" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="S123" s="91" t="s">
+      <c r="S123" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="T123" s="92"/>
-      <c r="U123" s="92"/>
-      <c r="V123" s="93"/>
+      <c r="T123" s="101"/>
+      <c r="U123" s="101"/>
+      <c r="V123" s="102"/>
       <c r="W123" s="15"/>
-      <c r="X123" s="72" t="s">
+      <c r="X123" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="Y123" s="91" t="s">
+      <c r="Y123" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="Z123" s="92"/>
-      <c r="AA123" s="92"/>
-      <c r="AB123" s="93"/>
-      <c r="AD123" s="73" t="s">
+      <c r="Z123" s="101"/>
+      <c r="AA123" s="101"/>
+      <c r="AB123" s="102"/>
+      <c r="AD123" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="AE123" s="94" t="s">
+      <c r="AE123" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="AF123" s="95"/>
-      <c r="AG123" s="95"/>
-      <c r="AH123" s="96"/>
+      <c r="AF123" s="104"/>
+      <c r="AG123" s="104"/>
+      <c r="AH123" s="105"/>
     </row>
     <row r="124" spans="3:37">
       <c r="E124" s="16"/>
     </row>
     <row r="125" spans="3:37">
-      <c r="D125" s="76"/>
-      <c r="E125" s="76"/>
-      <c r="F125" s="76"/>
-      <c r="G125" s="76"/>
-      <c r="H125" s="76"/>
-      <c r="I125" s="76"/>
-      <c r="J125" s="76"/>
-      <c r="K125" s="76"/>
-      <c r="L125" s="76"/>
-      <c r="M125" s="77" t="s">
+      <c r="D125" s="75"/>
+      <c r="E125" s="75"/>
+      <c r="F125" s="75"/>
+      <c r="G125" s="75"/>
+      <c r="H125" s="75"/>
+      <c r="I125" s="75"/>
+      <c r="J125" s="75"/>
+      <c r="K125" s="75"/>
+      <c r="L125" s="75"/>
+      <c r="M125" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="N125" s="78"/>
-      <c r="O125" s="78"/>
-      <c r="P125" s="78"/>
-      <c r="Q125" s="78"/>
-      <c r="R125" s="78"/>
-      <c r="S125" s="78"/>
-      <c r="T125" s="78"/>
-      <c r="U125" s="79"/>
-      <c r="V125" s="76"/>
-      <c r="W125" s="76"/>
-      <c r="X125" s="76"/>
-      <c r="Y125" s="76"/>
-      <c r="Z125" s="76"/>
-      <c r="AA125" s="76"/>
-      <c r="AB125" s="76"/>
-      <c r="AC125" s="76"/>
-      <c r="AD125" s="76"/>
-      <c r="AE125" s="76"/>
-      <c r="AF125" s="76"/>
-      <c r="AG125" s="76"/>
+      <c r="N125" s="87"/>
+      <c r="O125" s="87"/>
+      <c r="P125" s="87"/>
+      <c r="Q125" s="87"/>
+      <c r="R125" s="87"/>
+      <c r="S125" s="87"/>
+      <c r="T125" s="87"/>
+      <c r="U125" s="88"/>
+      <c r="V125" s="75"/>
+      <c r="W125" s="75"/>
+      <c r="X125" s="75"/>
+      <c r="Y125" s="75"/>
+      <c r="Z125" s="75"/>
+      <c r="AA125" s="75"/>
+      <c r="AB125" s="75"/>
+      <c r="AC125" s="75"/>
+      <c r="AD125" s="75"/>
+      <c r="AE125" s="75"/>
+      <c r="AF125" s="75"/>
+      <c r="AG125" s="75"/>
     </row>
     <row r="126" spans="3:37">
-      <c r="D126" s="76"/>
-      <c r="E126" s="76"/>
-      <c r="F126" s="76"/>
-      <c r="G126" s="76"/>
-      <c r="H126" s="76"/>
-      <c r="I126" s="76"/>
-      <c r="J126" s="76"/>
-      <c r="K126" s="76"/>
-      <c r="L126" s="76"/>
-      <c r="M126" s="80"/>
-      <c r="N126" s="81"/>
-      <c r="O126" s="81"/>
-      <c r="P126" s="81"/>
-      <c r="Q126" s="81"/>
-      <c r="R126" s="81"/>
-      <c r="S126" s="81"/>
-      <c r="T126" s="81"/>
-      <c r="U126" s="82"/>
-      <c r="V126" s="76"/>
-      <c r="W126" s="76"/>
-      <c r="X126" s="76"/>
-      <c r="Y126" s="76"/>
-      <c r="Z126" s="76"/>
-      <c r="AA126" s="76"/>
-      <c r="AB126" s="76"/>
-      <c r="AC126" s="76"/>
-      <c r="AD126" s="76"/>
-      <c r="AE126" s="76"/>
-      <c r="AF126" s="76"/>
-      <c r="AG126" s="76"/>
+      <c r="D126" s="75"/>
+      <c r="E126" s="75"/>
+      <c r="F126" s="75"/>
+      <c r="G126" s="75"/>
+      <c r="H126" s="75"/>
+      <c r="I126" s="75"/>
+      <c r="J126" s="75"/>
+      <c r="K126" s="75"/>
+      <c r="L126" s="75"/>
+      <c r="M126" s="89"/>
+      <c r="N126" s="90"/>
+      <c r="O126" s="90"/>
+      <c r="P126" s="90"/>
+      <c r="Q126" s="90"/>
+      <c r="R126" s="90"/>
+      <c r="S126" s="90"/>
+      <c r="T126" s="90"/>
+      <c r="U126" s="91"/>
+      <c r="V126" s="75"/>
+      <c r="W126" s="75"/>
+      <c r="X126" s="75"/>
+      <c r="Y126" s="75"/>
+      <c r="Z126" s="75"/>
+      <c r="AA126" s="75"/>
+      <c r="AB126" s="75"/>
+      <c r="AC126" s="75"/>
+      <c r="AD126" s="75"/>
+      <c r="AE126" s="75"/>
+      <c r="AF126" s="75"/>
+      <c r="AG126" s="75"/>
     </row>
     <row r="127" spans="3:37">
-      <c r="D127" s="76"/>
-      <c r="E127" s="76"/>
-      <c r="F127" s="76"/>
-      <c r="G127" s="76"/>
-      <c r="H127" s="76"/>
-      <c r="I127" s="76"/>
-      <c r="J127" s="76"/>
-      <c r="K127" s="76"/>
-      <c r="L127" s="76"/>
-      <c r="M127" s="80"/>
-      <c r="N127" s="81"/>
-      <c r="O127" s="81"/>
-      <c r="P127" s="81"/>
-      <c r="Q127" s="81"/>
-      <c r="R127" s="81"/>
-      <c r="S127" s="81"/>
-      <c r="T127" s="81"/>
-      <c r="U127" s="82"/>
-      <c r="V127" s="76"/>
-      <c r="W127" s="76"/>
-      <c r="X127" s="76"/>
-      <c r="Y127" s="76"/>
-      <c r="Z127" s="76"/>
-      <c r="AA127" s="76"/>
-      <c r="AB127" s="76"/>
-      <c r="AC127" s="76"/>
-      <c r="AD127" s="76"/>
-      <c r="AE127" s="76"/>
-      <c r="AF127" s="76"/>
-      <c r="AG127" s="76"/>
+      <c r="D127" s="75"/>
+      <c r="E127" s="75"/>
+      <c r="F127" s="75"/>
+      <c r="G127" s="75"/>
+      <c r="H127" s="75"/>
+      <c r="I127" s="75"/>
+      <c r="J127" s="75"/>
+      <c r="K127" s="75"/>
+      <c r="L127" s="75"/>
+      <c r="M127" s="89"/>
+      <c r="N127" s="90"/>
+      <c r="O127" s="90"/>
+      <c r="P127" s="90"/>
+      <c r="Q127" s="90"/>
+      <c r="R127" s="90"/>
+      <c r="S127" s="90"/>
+      <c r="T127" s="90"/>
+      <c r="U127" s="91"/>
+      <c r="V127" s="75"/>
+      <c r="W127" s="75"/>
+      <c r="X127" s="75"/>
+      <c r="Y127" s="75"/>
+      <c r="Z127" s="75"/>
+      <c r="AA127" s="75"/>
+      <c r="AB127" s="75"/>
+      <c r="AC127" s="75"/>
+      <c r="AD127" s="75"/>
+      <c r="AE127" s="75"/>
+      <c r="AF127" s="75"/>
+      <c r="AG127" s="75"/>
     </row>
     <row r="128" spans="3:37">
-      <c r="D128" s="76"/>
-      <c r="E128" s="76"/>
-      <c r="F128" s="76"/>
-      <c r="G128" s="76"/>
-      <c r="H128" s="76"/>
-      <c r="I128" s="76"/>
-      <c r="J128" s="76"/>
-      <c r="K128" s="76"/>
-      <c r="L128" s="76"/>
-      <c r="M128" s="80"/>
-      <c r="N128" s="81"/>
-      <c r="O128" s="81"/>
-      <c r="P128" s="81"/>
-      <c r="Q128" s="81"/>
-      <c r="R128" s="81"/>
-      <c r="S128" s="81"/>
-      <c r="T128" s="81"/>
-      <c r="U128" s="82"/>
-      <c r="V128" s="76"/>
-      <c r="W128" s="76"/>
-      <c r="X128" s="76"/>
-      <c r="Y128" s="76"/>
-      <c r="Z128" s="76"/>
-      <c r="AA128" s="76"/>
-      <c r="AB128" s="76"/>
-      <c r="AC128" s="76"/>
-      <c r="AD128" s="76"/>
-      <c r="AE128" s="76"/>
-      <c r="AF128" s="76"/>
-      <c r="AG128" s="76"/>
+      <c r="D128" s="75"/>
+      <c r="E128" s="75"/>
+      <c r="F128" s="75"/>
+      <c r="G128" s="75"/>
+      <c r="H128" s="75"/>
+      <c r="I128" s="75"/>
+      <c r="J128" s="75"/>
+      <c r="K128" s="75"/>
+      <c r="L128" s="75"/>
+      <c r="M128" s="89"/>
+      <c r="N128" s="90"/>
+      <c r="O128" s="90"/>
+      <c r="P128" s="90"/>
+      <c r="Q128" s="90"/>
+      <c r="R128" s="90"/>
+      <c r="S128" s="90"/>
+      <c r="T128" s="90"/>
+      <c r="U128" s="91"/>
+      <c r="V128" s="75"/>
+      <c r="W128" s="75"/>
+      <c r="X128" s="75"/>
+      <c r="Y128" s="75"/>
+      <c r="Z128" s="75"/>
+      <c r="AA128" s="75"/>
+      <c r="AB128" s="75"/>
+      <c r="AC128" s="75"/>
+      <c r="AD128" s="75"/>
+      <c r="AE128" s="75"/>
+      <c r="AF128" s="75"/>
+      <c r="AG128" s="75"/>
     </row>
     <row r="129" spans="3:37">
       <c r="C129" s="27"/>
-      <c r="D129" s="76"/>
-      <c r="E129" s="76"/>
-      <c r="F129" s="76"/>
-      <c r="G129" s="76"/>
-      <c r="H129" s="76"/>
-      <c r="I129" s="76"/>
-      <c r="J129" s="76"/>
-      <c r="K129" s="76"/>
-      <c r="L129" s="76"/>
-      <c r="M129" s="83"/>
-      <c r="N129" s="84"/>
-      <c r="O129" s="84"/>
-      <c r="P129" s="84"/>
-      <c r="Q129" s="84"/>
-      <c r="R129" s="84"/>
-      <c r="S129" s="84"/>
-      <c r="T129" s="84"/>
-      <c r="U129" s="85"/>
-      <c r="V129" s="76"/>
-      <c r="W129" s="76"/>
-      <c r="X129" s="76"/>
-      <c r="Y129" s="76"/>
-      <c r="Z129" s="76"/>
-      <c r="AA129" s="76"/>
-      <c r="AB129" s="76"/>
-      <c r="AC129" s="76"/>
-      <c r="AD129" s="76"/>
-      <c r="AE129" s="76"/>
-      <c r="AF129" s="76"/>
-      <c r="AG129" s="76"/>
+      <c r="D129" s="75"/>
+      <c r="E129" s="75"/>
+      <c r="F129" s="75"/>
+      <c r="G129" s="75"/>
+      <c r="H129" s="75"/>
+      <c r="I129" s="75"/>
+      <c r="J129" s="75"/>
+      <c r="K129" s="75"/>
+      <c r="L129" s="75"/>
+      <c r="M129" s="92"/>
+      <c r="N129" s="93"/>
+      <c r="O129" s="93"/>
+      <c r="P129" s="93"/>
+      <c r="Q129" s="93"/>
+      <c r="R129" s="93"/>
+      <c r="S129" s="93"/>
+      <c r="T129" s="93"/>
+      <c r="U129" s="94"/>
+      <c r="V129" s="75"/>
+      <c r="W129" s="75"/>
+      <c r="X129" s="75"/>
+      <c r="Y129" s="75"/>
+      <c r="Z129" s="75"/>
+      <c r="AA129" s="75"/>
+      <c r="AB129" s="75"/>
+      <c r="AC129" s="75"/>
+      <c r="AD129" s="75"/>
+      <c r="AE129" s="75"/>
+      <c r="AF129" s="75"/>
+      <c r="AG129" s="75"/>
       <c r="AH129" s="28"/>
       <c r="AI129" s="28"/>
       <c r="AJ129" s="28"/>
@@ -11207,12 +7809,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:AK7"/>
-    <mergeCell ref="C9:AK9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="AK11:AK12"/>
     <mergeCell ref="M125:U125"/>
     <mergeCell ref="M126:U129"/>
     <mergeCell ref="C13:AK13"/>
@@ -11227,384 +7823,390 @@
     <mergeCell ref="S123:V123"/>
     <mergeCell ref="Y123:AB123"/>
     <mergeCell ref="AE123:AH123"/>
+    <mergeCell ref="C6:AK7"/>
+    <mergeCell ref="C9:AK9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="AK11:AK12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F11:F117">
-    <cfRule type="expression" dxfId="207" priority="170">
+    <cfRule type="expression" dxfId="103" priority="169">
+      <formula>$F$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="168">
+      <formula>$F$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="170">
       <formula>$F$11="DOM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="168">
-      <formula>$F$8="FR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="169">
-      <formula>$F$11="SÁB"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:AJ16">
-    <cfRule type="cellIs" dxfId="204" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="5" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:AJ117">
-    <cfRule type="cellIs" dxfId="203" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
+      <formula>"ET"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="3" operator="equal">
+      <formula>"EN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
       <formula>"ED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>"PN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
       <formula>"PD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
       <formula>"PT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
       <formula>"FO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="10" operator="equal">
       <formula>"FE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="11" operator="equal">
       <formula>"BX"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="3" operator="equal">
-      <formula>"EN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="2" operator="equal">
-      <formula>"ET"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G117">
-    <cfRule type="expression" dxfId="194" priority="165">
+    <cfRule type="expression" dxfId="89" priority="165">
       <formula>$G$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="166">
+    <cfRule type="expression" dxfId="88" priority="166">
       <formula>$G$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="167">
+    <cfRule type="expression" dxfId="87" priority="167">
       <formula>$G$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H117">
-    <cfRule type="expression" dxfId="191" priority="164">
+    <cfRule type="expression" dxfId="86" priority="163">
+      <formula>$H$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="162">
+      <formula>$H$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="164">
       <formula>$H$11="DOM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="163">
-      <formula>$H$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="162">
-      <formula>$H$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I117">
-    <cfRule type="expression" dxfId="188" priority="161">
+    <cfRule type="expression" dxfId="83" priority="159">
+      <formula>$I$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="161">
       <formula>$I$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="160">
+    <cfRule type="expression" dxfId="81" priority="160">
       <formula>$I$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="159">
-      <formula>$I$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J117">
-    <cfRule type="expression" dxfId="185" priority="158">
+    <cfRule type="expression" dxfId="80" priority="158">
       <formula>$J$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="157">
+    <cfRule type="expression" dxfId="79" priority="156">
+      <formula>$J$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="157">
       <formula>$J$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="156">
-      <formula>$J$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K117">
-    <cfRule type="expression" dxfId="182" priority="155">
+    <cfRule type="expression" dxfId="77" priority="155">
       <formula>$K$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="154">
+    <cfRule type="expression" dxfId="76" priority="153">
+      <formula>$K$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="154">
       <formula>$K$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="153">
-      <formula>$K$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L117">
-    <cfRule type="expression" dxfId="179" priority="152">
+    <cfRule type="expression" dxfId="74" priority="151">
+      <formula>$L$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="150">
+      <formula>$L$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="152">
       <formula>$L$11="DOM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="151">
-      <formula>$L$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="150">
-      <formula>$L$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M117">
-    <cfRule type="expression" dxfId="176" priority="149">
+    <cfRule type="expression" dxfId="71" priority="149">
       <formula>$M$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="148">
+    <cfRule type="expression" dxfId="70" priority="148">
       <formula>$M$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="147">
+    <cfRule type="expression" dxfId="69" priority="147">
       <formula>$M$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N117">
-    <cfRule type="expression" dxfId="173" priority="146">
+    <cfRule type="expression" dxfId="68" priority="146">
       <formula>$N$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="145">
+    <cfRule type="expression" dxfId="67" priority="145">
       <formula>$N$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="144">
+    <cfRule type="expression" dxfId="66" priority="144">
       <formula>$N$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O117">
-    <cfRule type="expression" dxfId="170" priority="143">
+    <cfRule type="expression" dxfId="65" priority="141">
+      <formula>$O$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="142">
+      <formula>$O$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="143">
       <formula>$O$11="DOM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="142">
-      <formula>$O$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="141">
-      <formula>$O$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P117">
-    <cfRule type="expression" dxfId="167" priority="140">
+    <cfRule type="expression" dxfId="62" priority="139">
+      <formula>$P$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="140">
       <formula>$P$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="139">
-      <formula>$P$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="138">
+    <cfRule type="expression" dxfId="60" priority="138">
       <formula>$P$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q117">
-    <cfRule type="expression" dxfId="164" priority="137">
+    <cfRule type="expression" dxfId="59" priority="137">
       <formula>$Q$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="73">
+    <cfRule type="expression" dxfId="58" priority="73">
       <formula>$Q$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="72">
+    <cfRule type="expression" dxfId="57" priority="72">
       <formula>$Q$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R117">
-    <cfRule type="expression" dxfId="161" priority="66">
+    <cfRule type="expression" dxfId="56" priority="66">
       <formula>$R$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="71">
+    <cfRule type="expression" dxfId="55" priority="71">
       <formula>$R$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="67">
+    <cfRule type="expression" dxfId="54" priority="67">
       <formula>$R$11="SÁB"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S117">
-    <cfRule type="expression" dxfId="158" priority="64">
+    <cfRule type="expression" dxfId="53" priority="64">
       <formula>$S$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="63">
+    <cfRule type="expression" dxfId="52" priority="63">
       <formula>$S$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="65">
+    <cfRule type="expression" dxfId="51" priority="65">
       <formula>$S$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T117">
-    <cfRule type="expression" dxfId="155" priority="62">
+    <cfRule type="expression" dxfId="50" priority="62">
       <formula>$T$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="61">
+    <cfRule type="expression" dxfId="49" priority="61">
       <formula>$T$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="60">
+    <cfRule type="expression" dxfId="48" priority="60">
       <formula>$T$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U117">
-    <cfRule type="expression" dxfId="152" priority="59">
+    <cfRule type="expression" dxfId="47" priority="59">
       <formula>$U$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="57">
+    <cfRule type="expression" dxfId="46" priority="58">
+      <formula>$U$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="57">
       <formula>$U$8="FR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="58">
-      <formula>$U$11="SÁB"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V117">
-    <cfRule type="expression" dxfId="149" priority="54">
+    <cfRule type="expression" dxfId="44" priority="55">
+      <formula>$V$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="54">
       <formula>$V$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="55">
-      <formula>$V$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="56">
+    <cfRule type="expression" dxfId="42" priority="56">
       <formula>$V$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W117">
-    <cfRule type="expression" dxfId="146" priority="52">
+    <cfRule type="expression" dxfId="41" priority="51">
+      <formula>$W$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="52">
       <formula>$W$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="53">
+    <cfRule type="expression" dxfId="39" priority="53">
       <formula>$W$11="DOM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="51">
-      <formula>$W$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:X117">
-    <cfRule type="expression" dxfId="143" priority="48">
+    <cfRule type="expression" dxfId="38" priority="48">
       <formula>$X$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="49">
+    <cfRule type="expression" dxfId="37" priority="49">
       <formula>$X$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="50">
+    <cfRule type="expression" dxfId="36" priority="50">
       <formula>$X$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y117">
-    <cfRule type="expression" dxfId="140" priority="47">
+    <cfRule type="expression" dxfId="35" priority="45">
+      <formula>$Y$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="46">
+      <formula>$Y$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="47">
       <formula>$Y$11="DOM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="46">
-      <formula>$Y$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="45">
-      <formula>$Y$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z117">
-    <cfRule type="expression" dxfId="137" priority="42">
+    <cfRule type="expression" dxfId="32" priority="44">
+      <formula>$Z$11="DOM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="42">
       <formula>$Z$8="FR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="44">
-      <formula>$Z$11="DOM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="43">
+    <cfRule type="expression" dxfId="30" priority="43">
       <formula>$Z$11="SÁB"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA117">
-    <cfRule type="expression" dxfId="134" priority="41">
+    <cfRule type="expression" dxfId="29" priority="40">
+      <formula>$AA$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="39">
+      <formula>$AA$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="41">
       <formula>$AA$11="DOM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="40">
-      <formula>$AA$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="39">
-      <formula>$AA$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11:AB117">
-    <cfRule type="expression" dxfId="131" priority="38">
+    <cfRule type="expression" dxfId="26" priority="37">
+      <formula>$AB$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="36">
+      <formula>$AB$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="38">
       <formula>$AB$11="DOM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="37">
-      <formula>$AB$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="36">
-      <formula>$AB$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC117">
-    <cfRule type="expression" dxfId="128" priority="35">
+    <cfRule type="expression" dxfId="23" priority="35">
       <formula>$AC$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="34">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>$AC$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="33">
+    <cfRule type="expression" dxfId="21" priority="33">
       <formula>$AC$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AD117">
-    <cfRule type="expression" dxfId="125" priority="32">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula>$AD$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="30">
+    <cfRule type="expression" dxfId="19" priority="31">
+      <formula>$AD$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="30">
       <formula>$AD$8="FR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="31">
-      <formula>$AD$11="SÁB"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AE117">
-    <cfRule type="expression" dxfId="122" priority="28">
+    <cfRule type="expression" dxfId="17" priority="27">
+      <formula>$AE$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="28">
       <formula>$AE$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="27">
-      <formula>$AE$8="FR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="29">
+    <cfRule type="expression" dxfId="15" priority="29">
       <formula>$AE$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AF117">
-    <cfRule type="expression" dxfId="119" priority="25">
+    <cfRule type="expression" dxfId="14" priority="24">
+      <formula>$AF$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="25">
       <formula>$AF$11="SÁB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="24">
-      <formula>$AF$8="FR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="26">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>$AF$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG11:AG117">
-    <cfRule type="expression" dxfId="116" priority="23">
+    <cfRule type="expression" dxfId="11" priority="21">
+      <formula>$AG$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="22">
+      <formula>$AG$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>$AG$11="DOM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="22">
-      <formula>$AG$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="21">
-      <formula>$AG$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AH117">
-    <cfRule type="expression" dxfId="113" priority="20">
+    <cfRule type="expression" dxfId="8" priority="18">
+      <formula>$AH$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="20">
       <formula>$AH$11="DOM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="19">
+    <cfRule type="expression" dxfId="6" priority="19">
       <formula>$AH$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="18">
-      <formula>$AH$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11:AI117">
-    <cfRule type="expression" dxfId="110" priority="15">
+    <cfRule type="expression" dxfId="5" priority="17">
+      <formula>$AI$11="DOM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="16">
+      <formula>$AI$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$AI$8="FR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="16">
-      <formula>$AI$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="17">
-      <formula>$AI$11="DOM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AJ117">
-    <cfRule type="expression" dxfId="107" priority="14">
+    <cfRule type="expression" dxfId="2" priority="13">
+      <formula>$AJ$11="SÁB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>$AJ$8="FR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>$AJ$11="DOM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="13">
-      <formula>$AJ$11="SÁB"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="12">
-      <formula>$AJ$8="FR"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
